--- a/simulacion_viento.xlsx
+++ b/simulacion_viento.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D366"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Viento Regional</t>
+          <t>Viento Regional Simulado</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Viento Norte</t>
+          <t>Viento Norte Simulado</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Viento Sur</t>
+          <t>Viento Sur Simulado</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Wind Gap Simulado</t>
         </is>
       </c>
     </row>
@@ -468,19 +473,25 @@
       <c r="D2" t="n">
         <v>6</v>
       </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.54920703847927</v>
+        <v>7.015438239785954</v>
       </c>
       <c r="C3" t="n">
-        <v>-46.93547526493206</v>
+        <v>6.909489005407483</v>
       </c>
       <c r="D3" t="n">
-        <v>76.0338893418906</v>
+        <v>7.121387474164425</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.2118984687569423</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +499,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.4356640953029</v>
+        <v>7.193853020291374</v>
       </c>
       <c r="C4" t="n">
-        <v>-8.55849240822088</v>
+        <v>7.16112265129829</v>
       </c>
       <c r="D4" t="n">
-        <v>29.42982059882669</v>
+        <v>7.226583389284458</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.06546073798616803</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +516,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.12385043046014</v>
+        <v>7.978483139040255</v>
       </c>
       <c r="C5" t="n">
-        <v>5.57704184954879</v>
+        <v>7.953416355346192</v>
       </c>
       <c r="D5" t="n">
-        <v>34.6706590113715</v>
+        <v>8.003549922734317</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.05013356738812469</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41.05492824430284</v>
+        <v>9.26281648970442</v>
       </c>
       <c r="C6" t="n">
-        <v>43.40455803077798</v>
+        <v>9.26686532703469</v>
       </c>
       <c r="D6" t="n">
-        <v>38.7052984578277</v>
+        <v>9.25876765237415</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.008097674660540122</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +550,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.73290101096766</v>
+        <v>8.68696821464043</v>
       </c>
       <c r="C7" t="n">
-        <v>-88.68811990223875</v>
+        <v>8.486353727109284</v>
       </c>
       <c r="D7" t="n">
-        <v>144.1539219241741</v>
+        <v>8.887582702171576</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.4012289750622919</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18.26462963790572</v>
+        <v>8.282633521298342</v>
       </c>
       <c r="C8" t="n">
-        <v>-78.96898383484182</v>
+        <v>8.115082409096885</v>
       </c>
       <c r="D8" t="n">
-        <v>115.4982431106532</v>
+        <v>8.450184633499799</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.3351022244029132</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +584,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40.63284171447094</v>
+        <v>9.520741800744304</v>
       </c>
       <c r="C9" t="n">
-        <v>32.60265898335342</v>
+        <v>9.506904342691213</v>
       </c>
       <c r="D9" t="n">
-        <v>48.66302444558846</v>
+        <v>9.534579258797395</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.02767491610618222</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +601,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43.50219671740646</v>
+        <v>9.705704965991819</v>
       </c>
       <c r="C10" t="n">
-        <v>258.9156384349539</v>
+        <v>10.07690130904488</v>
       </c>
       <c r="D10" t="n">
-        <v>-171.911245000141</v>
+        <v>9.334508622938756</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7423926861061254</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +618,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.69192697479231</v>
+        <v>8.795525673515165</v>
       </c>
       <c r="C11" t="n">
-        <v>359.5553831620544</v>
+        <v>9.370832827180465</v>
       </c>
       <c r="D11" t="n">
-        <v>-308.1715292124698</v>
+        <v>8.220218519849865</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.150614307330599</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +635,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29.27270336274039</v>
+        <v>9.005850870461529</v>
       </c>
       <c r="C12" t="n">
-        <v>648.8458176965681</v>
+        <v>10.07348746946388</v>
       </c>
       <c r="D12" t="n">
-        <v>-590.3004109710874</v>
+        <v>7.938214271459177</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.135273198004704</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +652,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15.6733559569579</v>
+        <v>8.306977822281567</v>
       </c>
       <c r="C13" t="n">
-        <v>435.5318171099381</v>
+        <v>9.030469931860434</v>
       </c>
       <c r="D13" t="n">
-        <v>-404.1851051960223</v>
+        <v>7.583485712702701</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.446984219157733</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +669,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.969613375077795</v>
+        <v>7.813418494905232</v>
       </c>
       <c r="C14" t="n">
-        <v>503.8547156088688</v>
+        <v>8.671364627403836</v>
       </c>
       <c r="D14" t="n">
-        <v>-491.9154888587132</v>
+        <v>6.955472362406628</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.715892264997208</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +686,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10.42740671788701</v>
+        <v>8.059667275909074</v>
       </c>
       <c r="C15" t="n">
-        <v>470.4149479330339</v>
+        <v>8.852309052520749</v>
       </c>
       <c r="D15" t="n">
-        <v>-449.5601344972598</v>
+        <v>7.267025499297399</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.585283553223349</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +703,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-20.99096357576175</v>
+        <v>6.420556375170676</v>
       </c>
       <c r="C16" t="n">
-        <v>713.6006204281425</v>
+        <v>7.686390612095147</v>
       </c>
       <c r="D16" t="n">
-        <v>-755.582547579666</v>
+        <v>5.154722138246205</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.531668473848942</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +720,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-40.29924224582123</v>
+        <v>5.427647850644414</v>
       </c>
       <c r="C17" t="n">
-        <v>473.0567689090259</v>
+        <v>6.312253158955886</v>
       </c>
       <c r="D17" t="n">
-        <v>-553.6552534006684</v>
+        <v>4.543042542332942</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.769210616622944</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +737,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-35.36753363375076</v>
+        <v>5.705390227498736</v>
       </c>
       <c r="C18" t="n">
-        <v>281.2617496204581</v>
+        <v>6.250999782363857</v>
       </c>
       <c r="D18" t="n">
-        <v>-351.9968168879597</v>
+        <v>5.159780672633615</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.091219109730241</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +754,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-39.09496491652349</v>
+        <v>5.51905076269798</v>
       </c>
       <c r="C19" t="n">
-        <v>143.7123527452914</v>
+        <v>5.83406085333281</v>
       </c>
       <c r="D19" t="n">
-        <v>-221.9022825783384</v>
+        <v>5.204040672063151</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6300201812696589</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +771,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-20.45167875911787</v>
+        <v>6.499756292207862</v>
       </c>
       <c r="C20" t="n">
-        <v>-187.3496487042169</v>
+        <v>6.212160886774283</v>
       </c>
       <c r="D20" t="n">
-        <v>146.4462911859811</v>
+        <v>6.787351697641441</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.5751908108671575</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +788,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-26.81844080341133</v>
+        <v>6.1577880859615</v>
       </c>
       <c r="C21" t="n">
-        <v>-252.1632988618905</v>
+        <v>5.769478115282892</v>
       </c>
       <c r="D21" t="n">
-        <v>198.5264172550679</v>
+        <v>6.546098056640108</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.7766199413572163</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-39.43829843640482</v>
+        <v>5.49153427207875</v>
       </c>
       <c r="C22" t="n">
-        <v>-351.2467831568393</v>
+        <v>4.954231825498353</v>
       </c>
       <c r="D22" t="n">
-        <v>272.3701862840297</v>
+        <v>6.028836718659147</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1.074604893160794</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +822,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-2.228949363187112</v>
+        <v>7.437482229532847</v>
       </c>
       <c r="C23" t="n">
-        <v>-249.6608951137119</v>
+        <v>7.011112209701272</v>
       </c>
       <c r="D23" t="n">
-        <v>245.2029963873377</v>
+        <v>7.863852249364422</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.8527400396631499</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +839,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-2.92990183771975</v>
+        <v>7.37755864752529</v>
       </c>
       <c r="C24" t="n">
-        <v>-165.193154291861</v>
+        <v>7.097949699064918</v>
       </c>
       <c r="D24" t="n">
-        <v>159.3333506164216</v>
+        <v>7.657167595985662</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.5592178969207442</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +856,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.274881121457536</v>
+        <v>7.578088742838751</v>
       </c>
       <c r="C25" t="n">
-        <v>148.0314580559386</v>
+        <v>7.830976883164245</v>
       </c>
       <c r="D25" t="n">
-        <v>-145.4816958130235</v>
+        <v>7.325200602513257</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5057762806509878</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +873,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-19.68657823376387</v>
+        <v>6.461854916997135</v>
       </c>
       <c r="C26" t="n">
-        <v>253.2645905546197</v>
+        <v>6.932199176289724</v>
       </c>
       <c r="D26" t="n">
-        <v>-292.6377470221474</v>
+        <v>5.991510657704546</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9406885185851781</v>
       </c>
     </row>
     <row r="27">
@@ -810,13 +890,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-20.4606131582437</v>
+        <v>6.41468014462542</v>
       </c>
       <c r="C27" t="n">
-        <v>127.9043400427719</v>
+        <v>6.670339808323043</v>
       </c>
       <c r="D27" t="n">
-        <v>-168.8255663592593</v>
+        <v>6.159020480927797</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5113193273952454</v>
       </c>
     </row>
     <row r="28">
@@ -824,13 +907,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-10.4993585498968</v>
+        <v>6.927579504326547</v>
       </c>
       <c r="C28" t="n">
-        <v>-19.47665006449005</v>
+        <v>6.912110006442995</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.522067035303555</v>
+        <v>6.9430490022101</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.03093899576710513</v>
       </c>
     </row>
     <row r="29">
@@ -838,13 +924,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-23.67375127864652</v>
+        <v>6.223169173894133</v>
       </c>
       <c r="C29" t="n">
-        <v>43.92260440359429</v>
+        <v>6.339649927522601</v>
       </c>
       <c r="D29" t="n">
-        <v>-91.27010696088733</v>
+        <v>6.106688420265666</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.2329615072569347</v>
       </c>
     </row>
     <row r="30">
@@ -852,13 +941,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-8.542761130781781</v>
+        <v>7.00675194482239</v>
       </c>
       <c r="C30" t="n">
-        <v>-152.2241532017139</v>
+        <v>6.759162904527331</v>
       </c>
       <c r="D30" t="n">
-        <v>135.1386309401504</v>
+        <v>7.25434098511745</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.4951780805901187</v>
       </c>
     </row>
     <row r="31">
@@ -866,13 +958,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-13.46082715618757</v>
+        <v>6.731481207516179</v>
       </c>
       <c r="C31" t="n">
-        <v>142.5627599499929</v>
+        <v>7.000338083401271</v>
       </c>
       <c r="D31" t="n">
-        <v>-169.484414262368</v>
+        <v>6.462624331631087</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.537713751770184</v>
       </c>
     </row>
     <row r="32">
@@ -880,13 +975,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-12.00319747460786</v>
+        <v>6.793101061590724</v>
       </c>
       <c r="C32" t="n">
-        <v>304.0820593881991</v>
+        <v>7.337773160532005</v>
       </c>
       <c r="D32" t="n">
-        <v>-328.0884543374149</v>
+        <v>6.248428962649442</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.089344197882562</v>
       </c>
     </row>
     <row r="33">
@@ -894,13 +992,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-15.94678018965447</v>
+        <v>6.570996691639868</v>
       </c>
       <c r="C33" t="n">
-        <v>186.3436105656082</v>
+        <v>6.919579643030556</v>
       </c>
       <c r="D33" t="n">
-        <v>-218.2371709449171</v>
+        <v>6.222413740249181</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.697165902781375</v>
       </c>
     </row>
     <row r="34">
@@ -908,13 +1009,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20.6237124570847</v>
+        <v>8.470480707603986</v>
       </c>
       <c r="C34" t="n">
-        <v>-66.42688354563683</v>
+        <v>8.320476777305297</v>
       </c>
       <c r="D34" t="n">
-        <v>107.6743084598062</v>
+        <v>8.620484637902676</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.3000078605973791</v>
       </c>
     </row>
     <row r="35">
@@ -922,13 +1026,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16.66930515510668</v>
+        <v>8.229859977883631</v>
       </c>
       <c r="C35" t="n">
-        <v>148.630081401263</v>
+        <v>8.457252276054348</v>
       </c>
       <c r="D35" t="n">
-        <v>-115.2914710910496</v>
+        <v>8.002467679712915</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.4547845963414332</v>
       </c>
     </row>
     <row r="36">
@@ -936,13 +1043,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.902406022039596</v>
+        <v>7.179074657503969</v>
       </c>
       <c r="C36" t="n">
-        <v>94.01468150576738</v>
+        <v>7.346080338221177</v>
       </c>
       <c r="D36" t="n">
-        <v>-99.81949354984658</v>
+        <v>7.012068976786762</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.3340113614344151</v>
       </c>
     </row>
     <row r="37">
@@ -950,13 +1060,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13.3545697810661</v>
+        <v>8.015683621798777</v>
       </c>
       <c r="C37" t="n">
-        <v>287.1135807960359</v>
+        <v>8.487419939441494</v>
       </c>
       <c r="D37" t="n">
-        <v>-260.4044412339037</v>
+        <v>7.543947304156061</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9434726352854339</v>
       </c>
     </row>
     <row r="38">
@@ -964,13 +1077,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-7.886869894602755</v>
+        <v>6.880638482745307</v>
       </c>
       <c r="C38" t="n">
-        <v>-14.75073329140214</v>
+        <v>6.868810803971907</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.023006497803367</v>
+        <v>6.892466161518708</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.02365535754680081</v>
       </c>
     </row>
     <row r="39">
@@ -978,13 +1094,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.04660551094529897</v>
+        <v>7.279636747002591</v>
       </c>
       <c r="C39" t="n">
-        <v>-97.85138208029944</v>
+        <v>7.111101417423347</v>
       </c>
       <c r="D39" t="n">
-        <v>97.75817105840885</v>
+        <v>7.448172076581836</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.3370706591584884</v>
       </c>
     </row>
     <row r="40">
@@ -992,13 +1111,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-29.27811118609089</v>
+        <v>5.732557613070119</v>
       </c>
       <c r="C40" t="n">
-        <v>-113.3154993866274</v>
+        <v>5.58774598510926</v>
       </c>
       <c r="D40" t="n">
-        <v>54.75927701444564</v>
+        <v>5.877369241030978</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.2896232559217182</v>
       </c>
     </row>
     <row r="41">
@@ -1006,13 +1128,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-39.92531739153213</v>
+        <v>5.172352008112409</v>
       </c>
       <c r="C41" t="n">
-        <v>-105.6242222296008</v>
+        <v>5.059140905666633</v>
       </c>
       <c r="D41" t="n">
-        <v>25.77358744653652</v>
+        <v>5.285563110558184</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.2264222048915503</v>
       </c>
     </row>
     <row r="42">
@@ -1020,13 +1145,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-23.02642023629894</v>
+        <v>6.053811872963353</v>
       </c>
       <c r="C42" t="n">
-        <v>-148.9869620251769</v>
+        <v>5.836759064613904</v>
       </c>
       <c r="D42" t="n">
-        <v>102.934121552579</v>
+        <v>6.270864681312801</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0.434105616698897</v>
       </c>
     </row>
     <row r="43">
@@ -1034,13 +1162,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-2.331963271550228</v>
+        <v>7.119773870568183</v>
       </c>
       <c r="C43" t="n">
-        <v>-16.14859783166222</v>
+        <v>7.095965308850206</v>
       </c>
       <c r="D43" t="n">
-        <v>11.48467128856177</v>
+        <v>7.14358243228616</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0.0476171234359537</v>
       </c>
     </row>
     <row r="44">
@@ -1048,13 +1179,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.26887660840223</v>
+        <v>7.38406052774673</v>
       </c>
       <c r="C44" t="n">
-        <v>-172.3229557040794</v>
+        <v>7.081484024141893</v>
       </c>
       <c r="D44" t="n">
-        <v>178.8607089208838</v>
+        <v>7.686637031351566</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.6051530072096725</v>
       </c>
     </row>
     <row r="45">
@@ -1062,13 +1196,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.637141352507555</v>
+        <v>7.321551313224058</v>
       </c>
       <c r="C45" t="n">
-        <v>-171.4991747576377</v>
+        <v>7.021482927437932</v>
       </c>
       <c r="D45" t="n">
-        <v>176.7734574626528</v>
+        <v>7.621619699010183</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.6001367715722505</v>
       </c>
     </row>
     <row r="46">
@@ -1076,13 +1213,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.7944078162414279</v>
+        <v>7.11516027698092</v>
       </c>
       <c r="C46" t="n">
-        <v>-133.4147135705482</v>
+        <v>6.886631490113821</v>
       </c>
       <c r="D46" t="n">
-        <v>131.8258979380654</v>
+        <v>7.34368906384802</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.4570575737341986</v>
       </c>
     </row>
     <row r="47">
@@ -1090,13 +1230,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-22.13350785029424</v>
+        <v>5.974982494430906</v>
       </c>
       <c r="C47" t="n">
-        <v>-58.34053282708938</v>
+        <v>5.912591238077276</v>
       </c>
       <c r="D47" t="n">
-        <v>14.0735171265009</v>
+        <v>6.037373750784536</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.1247825127072595</v>
       </c>
     </row>
     <row r="48">
@@ -1104,13 +1247,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-25.13158579396359</v>
+        <v>5.80577523396888</v>
       </c>
       <c r="C48" t="n">
-        <v>52.51135914766076</v>
+        <v>5.939568079004017</v>
       </c>
       <c r="D48" t="n">
-        <v>-102.7745307355879</v>
+        <v>5.671982388933744</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.2675856900702733</v>
       </c>
     </row>
     <row r="49">
@@ -1118,13 +1264,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-23.10993476537683</v>
+        <v>5.897549086446509</v>
       </c>
       <c r="C49" t="n">
-        <v>-128.1032019840178</v>
+        <v>5.716626686590634</v>
       </c>
       <c r="D49" t="n">
-        <v>81.88333245326415</v>
+        <v>6.078471486302385</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.3618447997117507</v>
       </c>
     </row>
     <row r="50">
@@ -1132,13 +1281,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.674588248361026</v>
+        <v>7.228740472162063</v>
       </c>
       <c r="C50" t="n">
-        <v>-323.4960291327516</v>
+        <v>6.666689471918627</v>
       </c>
       <c r="D50" t="n">
-        <v>328.8452056294736</v>
+        <v>7.790791472405498</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-1.124102000486872</v>
       </c>
     </row>
     <row r="51">
@@ -1146,13 +1298,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9.542676032935113</v>
+        <v>7.555078990679164</v>
       </c>
       <c r="C51" t="n">
-        <v>-77.59822275380577</v>
+        <v>7.404919452341682</v>
       </c>
       <c r="D51" t="n">
-        <v>96.68357481967598</v>
+        <v>7.705238529016647</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.300319076674965</v>
       </c>
     </row>
     <row r="52">
@@ -1160,13 +1315,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-19.3883809980323</v>
+        <v>6.007448492253919</v>
       </c>
       <c r="C52" t="n">
-        <v>-44.05376092947929</v>
+        <v>5.964945578983667</v>
       </c>
       <c r="D52" t="n">
-        <v>5.276998933414696</v>
+        <v>6.049951405524171</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.08500582654050426</v>
       </c>
     </row>
     <row r="53">
@@ -1174,13 +1332,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-6.465483250344371</v>
+        <v>6.667415183015102</v>
       </c>
       <c r="C53" t="n">
-        <v>-142.5626861473255</v>
+        <v>6.432895073163504</v>
       </c>
       <c r="D53" t="n">
-        <v>129.6317196466367</v>
+        <v>6.9019352928667</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.4690402197031958</v>
       </c>
     </row>
     <row r="54">
@@ -1188,13 +1349,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-8.668695535926179</v>
+        <v>6.526651267849057</v>
       </c>
       <c r="C54" t="n">
-        <v>110.9784417301071</v>
+        <v>6.732824937680458</v>
       </c>
       <c r="D54" t="n">
-        <v>-128.3158328019594</v>
+        <v>6.320477598017656</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.4123473396628015</v>
       </c>
     </row>
     <row r="55">
@@ -1202,13 +1366,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-14.92524091718601</v>
+        <v>6.175002124861952</v>
       </c>
       <c r="C55" t="n">
-        <v>106.5893728933504</v>
+        <v>6.384393794733322</v>
       </c>
       <c r="D55" t="n">
-        <v>-136.4398547277224</v>
+        <v>5.965610454990582</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.4187833397427401</v>
       </c>
     </row>
     <row r="56">
@@ -1216,13 +1383,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.298131641623423</v>
+        <v>7.002346326257766</v>
       </c>
       <c r="C56" t="n">
-        <v>287.4266045065032</v>
+        <v>7.495397465146603</v>
       </c>
       <c r="D56" t="n">
-        <v>-284.8303412232564</v>
+        <v>6.509295187368929</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.9861022777776736</v>
       </c>
     </row>
     <row r="57">
@@ -1230,13 +1400,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19.54862286778677</v>
+        <v>7.92599512978315</v>
       </c>
       <c r="C57" t="n">
-        <v>278.098165557682</v>
+        <v>8.371522781072299</v>
       </c>
       <c r="D57" t="n">
-        <v>-239.0009198221084</v>
+        <v>7.480467478494002</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.8910553025782972</v>
       </c>
     </row>
     <row r="58">
@@ -1244,13 +1417,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>30.91078090688167</v>
+        <v>8.481253949857775</v>
       </c>
       <c r="C58" t="n">
-        <v>570.9876366532212</v>
+        <v>9.41190410902241</v>
       </c>
       <c r="D58" t="n">
-        <v>-509.1660748394579</v>
+        <v>7.550603790693139</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.861300318329271</v>
       </c>
     </row>
     <row r="59">
@@ -1258,13 +1434,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10.5670820523379</v>
+        <v>7.375504898555379</v>
       </c>
       <c r="C59" t="n">
-        <v>748.0535412311018</v>
+        <v>8.64632752928636</v>
       </c>
       <c r="D59" t="n">
-        <v>-726.919377126426</v>
+        <v>6.104682267824397</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.541645261461963</v>
       </c>
     </row>
     <row r="60">
@@ -1272,13 +1451,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.605675306021357</v>
+        <v>7.037067179222716</v>
       </c>
       <c r="C60" t="n">
-        <v>606.1875252751631</v>
+        <v>8.073701573878745</v>
       </c>
       <c r="D60" t="n">
-        <v>-596.9761746631204</v>
+        <v>6.000432784566688</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2.073268789312057</v>
       </c>
     </row>
     <row r="61">
@@ -1286,13 +1468,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>10.63813079217377</v>
+        <v>7.329006512467503</v>
       </c>
       <c r="C61" t="n">
-        <v>681.3690881531062</v>
+        <v>8.484797332946169</v>
       </c>
       <c r="D61" t="n">
-        <v>-660.0928265687586</v>
+        <v>6.173215691988836</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.311581640957333</v>
       </c>
     </row>
     <row r="62">
@@ -1300,13 +1485,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>25.25542216689072</v>
+        <v>8.065809904747278</v>
       </c>
       <c r="C62" t="n">
-        <v>705.9824455040393</v>
+        <v>9.238825755872611</v>
       </c>
       <c r="D62" t="n">
-        <v>-655.4716011702578</v>
+        <v>6.892794053621945</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.346031702250666</v>
       </c>
     </row>
     <row r="63">
@@ -1314,13 +1502,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.29189115160581</v>
+        <v>7.352015670067227</v>
       </c>
       <c r="C63" t="n">
-        <v>812.5246991395117</v>
+        <v>8.730961614887518</v>
       </c>
       <c r="D63" t="n">
-        <v>-787.9409168363001</v>
+        <v>5.973069725246937</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.757891889640581</v>
       </c>
     </row>
     <row r="64">
@@ -1328,13 +1519,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.780231743918634</v>
+        <v>7.089328504434101</v>
       </c>
       <c r="C64" t="n">
-        <v>554.0749687504938</v>
+        <v>8.03069319824864</v>
       </c>
       <c r="D64" t="n">
-        <v>-538.5145052626565</v>
+        <v>6.147963810619562</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.882729387629078</v>
       </c>
     </row>
     <row r="65">
@@ -1342,13 +1536,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-10.20854535809193</v>
+        <v>6.123285531774157</v>
       </c>
       <c r="C65" t="n">
-        <v>568.8093061627126</v>
+        <v>7.121038073738466</v>
       </c>
       <c r="D65" t="n">
-        <v>-589.2263968788964</v>
+        <v>5.125532989809848</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.995505083928618</v>
       </c>
     </row>
     <row r="66">
@@ -1356,13 +1553,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-24.44379864029322</v>
+        <v>5.361769148321222</v>
       </c>
       <c r="C66" t="n">
-        <v>640.0237664806414</v>
+        <v>6.506767010495817</v>
       </c>
       <c r="D66" t="n">
-        <v>-688.9113637612279</v>
+        <v>4.216771286146627</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.28999572434919</v>
       </c>
     </row>
     <row r="67">
@@ -1370,13 +1570,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-2.336083642565381</v>
+        <v>6.505430184221999</v>
       </c>
       <c r="C67" t="n">
-        <v>304.5411679101027</v>
+        <v>7.034235223658152</v>
       </c>
       <c r="D67" t="n">
-        <v>-309.2133351952335</v>
+        <v>5.976625144785846</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.057610078872306</v>
       </c>
     </row>
     <row r="68">
@@ -1384,13 +1587,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>22.0913815300157</v>
+        <v>7.754160701112164</v>
       </c>
       <c r="C68" t="n">
-        <v>106.9652621749638</v>
+        <v>7.900413756933241</v>
       </c>
       <c r="D68" t="n">
-        <v>-62.78249911493244</v>
+        <v>7.607907645291086</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.2925061116421546</v>
       </c>
     </row>
     <row r="69">
@@ -1398,13 +1604,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16.52404590001071</v>
+        <v>7.420839903621133</v>
       </c>
       <c r="C69" t="n">
-        <v>-222.3522936528553</v>
+        <v>7.009212741560416</v>
       </c>
       <c r="D69" t="n">
-        <v>255.4003854528768</v>
+        <v>7.832467065681849</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.8232543241214323</v>
       </c>
     </row>
     <row r="70">
@@ -1412,13 +1621,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>29.81717060394376</v>
+        <v>8.080866111790064</v>
       </c>
       <c r="C70" t="n">
-        <v>-218.6816170449371</v>
+        <v>7.652657730303208</v>
       </c>
       <c r="D70" t="n">
-        <v>278.3159582528247</v>
+        <v>8.50907449327692</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.8564167629737121</v>
       </c>
     </row>
     <row r="71">
@@ -1426,13 +1638,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>28.95498742118241</v>
+        <v>7.995038170694048</v>
       </c>
       <c r="C71" t="n">
-        <v>-76.64665754091109</v>
+        <v>7.813067425889204</v>
       </c>
       <c r="D71" t="n">
-        <v>134.5566323832759</v>
+        <v>8.177008915498892</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.3639414896096875</v>
       </c>
     </row>
     <row r="72">
@@ -1440,13 +1655,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.17802585714202</v>
+        <v>7.080125326752176</v>
       </c>
       <c r="C72" t="n">
-        <v>150.8010619086156</v>
+        <v>7.318997904224338</v>
       </c>
       <c r="D72" t="n">
-        <v>-126.4450101943316</v>
+        <v>6.841252749280015</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.4777451549443228</v>
       </c>
     </row>
     <row r="73">
@@ -1454,13 +1672,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16.39677818760412</v>
+        <v>7.274414077720521</v>
       </c>
       <c r="C73" t="n">
-        <v>148.0002058431792</v>
+        <v>7.501190599600949</v>
       </c>
       <c r="D73" t="n">
-        <v>-115.2066494679709</v>
+        <v>7.047637555840093</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.4535530437608557</v>
       </c>
     </row>
     <row r="74">
@@ -1468,13 +1689,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>38.26674536849587</v>
+        <v>8.388794486948765</v>
       </c>
       <c r="C74" t="n">
-        <v>402.0021821051188</v>
+        <v>9.015576468977905</v>
       </c>
       <c r="D74" t="n">
-        <v>-325.468691368127</v>
+        <v>7.762012504919626</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.253563964058279</v>
       </c>
     </row>
     <row r="75">
@@ -1482,13 +1706,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>28.54485608025808</v>
+        <v>7.838663817754624</v>
       </c>
       <c r="C75" t="n">
-        <v>132.5754602834835</v>
+        <v>8.017927375023586</v>
       </c>
       <c r="D75" t="n">
-        <v>-75.48574812296737</v>
+        <v>7.659400260485661</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.3585271145379245</v>
       </c>
     </row>
     <row r="76">
@@ -1496,13 +1723,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>47.30831818977485</v>
+        <v>8.787075643864206</v>
       </c>
       <c r="C76" t="n">
-        <v>-123.4834810502775</v>
+        <v>8.492770465896308</v>
       </c>
       <c r="D76" t="n">
-        <v>218.1001174298272</v>
+        <v>9.081380821832104</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.5886103559357956</v>
       </c>
     </row>
     <row r="77">
@@ -1510,13 +1740,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-6.511513980301757</v>
+        <v>5.928798024249754</v>
       </c>
       <c r="C77" t="n">
-        <v>-163.1775699849688</v>
+        <v>5.658834058186157</v>
       </c>
       <c r="D77" t="n">
-        <v>150.1545420243653</v>
+        <v>6.198761990313351</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.5399279321271937</v>
       </c>
     </row>
     <row r="78">
@@ -1524,13 +1757,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10.45676021339836</v>
+        <v>6.805367806218006</v>
       </c>
       <c r="C78" t="n">
-        <v>-66.58775625402265</v>
+        <v>6.67260616174042</v>
       </c>
       <c r="D78" t="n">
-        <v>87.50127668081936</v>
+        <v>6.938129450695591</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.2655232889551709</v>
       </c>
     </row>
     <row r="79">
@@ -1538,13 +1774,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10.7143237851706</v>
+        <v>6.792774327677916</v>
       </c>
       <c r="C79" t="n">
-        <v>-61.12837857470347</v>
+        <v>6.668976350270351</v>
       </c>
       <c r="D79" t="n">
-        <v>82.55702614504467</v>
+        <v>6.916572305085482</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0.2475959548151305</v>
       </c>
     </row>
     <row r="80">
@@ -1552,13 +1791,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.692865543030456</v>
+        <v>6.449857649113092</v>
       </c>
       <c r="C80" t="n">
-        <v>-374.4506009654988</v>
+        <v>5.796524843424193</v>
       </c>
       <c r="D80" t="n">
-        <v>383.8363320515597</v>
+        <v>7.10319045480199</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-1.306665611377797</v>
       </c>
     </row>
     <row r="81">
@@ -1566,13 +1808,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.674325725018217</v>
+        <v>6.527607655806305</v>
       </c>
       <c r="C81" t="n">
-        <v>-335.8715763139834</v>
+        <v>5.937339076692227</v>
       </c>
       <c r="D81" t="n">
-        <v>349.2202277640199</v>
+        <v>7.117876234920383</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-1.180537158228155</v>
       </c>
     </row>
     <row r="82">
@@ -1580,13 +1825,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-25.29338875132656</v>
+        <v>4.826293579402796</v>
       </c>
       <c r="C82" t="n">
-        <v>-522.3378295440912</v>
+        <v>3.969796058700032</v>
       </c>
       <c r="D82" t="n">
-        <v>471.751052041438</v>
+        <v>5.682791100105559</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-1.712995041405527</v>
       </c>
     </row>
     <row r="83">
@@ -1594,13 +1842,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-19.65337005199402</v>
+        <v>5.108207747394923</v>
       </c>
       <c r="C83" t="n">
-        <v>-348.1922041593687</v>
+        <v>4.542075881160319</v>
       </c>
       <c r="D83" t="n">
-        <v>308.8854640553806</v>
+        <v>5.674339613629527</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-1.132263732469207</v>
       </c>
     </row>
     <row r="84">
@@ -1608,13 +1859,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-6.399450568582141</v>
+        <v>5.779898549239286</v>
       </c>
       <c r="C84" t="n">
-        <v>-235.2121078741428</v>
+        <v>5.385612932896715</v>
       </c>
       <c r="D84" t="n">
-        <v>222.4132067369785</v>
+        <v>6.174184165581857</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-0.7885712326851415</v>
       </c>
     </row>
     <row r="85">
@@ -1622,13 +1876,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>20.99482977223982</v>
+        <v>7.181436200331451</v>
       </c>
       <c r="C85" t="n">
-        <v>-321.5202404846901</v>
+        <v>6.591220749957453</v>
       </c>
       <c r="D85" t="n">
-        <v>363.5099000291698</v>
+        <v>7.771651650705448</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-1.180430900747995</v>
       </c>
     </row>
     <row r="86">
@@ -1636,13 +1893,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>8.422020436626196</v>
+        <v>6.477518130254459</v>
       </c>
       <c r="C86" t="n">
-        <v>-367.4404699323739</v>
+        <v>5.829839040206177</v>
       </c>
       <c r="D86" t="n">
-        <v>384.2845108056263</v>
+        <v>7.12519722030274</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-1.295358180096564</v>
       </c>
     </row>
     <row r="87">
@@ -1650,13 +1910,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-5.180258383547909</v>
+        <v>5.730343276414019</v>
       </c>
       <c r="C87" t="n">
-        <v>-493.5412030192709</v>
+        <v>4.888808991026142</v>
       </c>
       <c r="D87" t="n">
-        <v>483.180686252175</v>
+        <v>6.571877561801896</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-1.683068570775754</v>
       </c>
     </row>
     <row r="88">
@@ -1664,13 +1927,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-9.935005265859942</v>
+        <v>5.454023069843529</v>
       </c>
       <c r="C88" t="n">
-        <v>-443.1699139259249</v>
+        <v>4.707480920498893</v>
       </c>
       <c r="D88" t="n">
-        <v>423.299903394205</v>
+        <v>6.200565219188166</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-1.493084298689274</v>
       </c>
     </row>
     <row r="89">
@@ -1678,13 +1944,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.416552383643904</v>
+        <v>6.439935872482866</v>
       </c>
       <c r="C89" t="n">
-        <v>-220.0240050511999</v>
+        <v>6.04456827058761</v>
       </c>
       <c r="D89" t="n">
-        <v>238.8571098184877</v>
+        <v>6.835303474378121</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-0.7907352037905113</v>
       </c>
     </row>
     <row r="90">
@@ -1692,13 +1961,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.7457272633649</v>
+        <v>6.628055792981829</v>
       </c>
       <c r="C90" t="n">
-        <v>-336.3396864968892</v>
+        <v>6.024795270760486</v>
       </c>
       <c r="D90" t="n">
-        <v>363.8311410236191</v>
+        <v>7.231316315203173</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-1.206521044442686</v>
       </c>
     </row>
     <row r="91">
@@ -1706,13 +1978,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.036273007964592</v>
+        <v>6.028827579108947</v>
       </c>
       <c r="C91" t="n">
-        <v>-223.4038685720988</v>
+        <v>5.638630236711208</v>
       </c>
       <c r="D91" t="n">
-        <v>229.476414588028</v>
+        <v>6.419024921506686</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0.7803946847954784</v>
       </c>
     </row>
     <row r="92">
@@ -1720,13 +1995,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.15233064943541</v>
+        <v>6.474298997617369</v>
       </c>
       <c r="C92" t="n">
-        <v>-265.5325030551744</v>
+        <v>5.995797777031503</v>
       </c>
       <c r="D92" t="n">
-        <v>289.8371643540453</v>
+        <v>6.952800218203236</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0.9570024411717331</v>
       </c>
     </row>
     <row r="93">
@@ -1734,13 +2012,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.94258385043492</v>
+        <v>6.426765196657334</v>
       </c>
       <c r="C93" t="n">
-        <v>-350.4388034111334</v>
+        <v>5.802316486913553</v>
       </c>
       <c r="D93" t="n">
-        <v>374.3239711120033</v>
+        <v>7.051213906401116</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-1.248897419487562</v>
       </c>
     </row>
     <row r="94">
@@ -1748,13 +2029,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>25.76926062801264</v>
+        <v>7.114897180566067</v>
       </c>
       <c r="C94" t="n">
-        <v>-304.9809928064483</v>
+        <v>6.544954638634412</v>
       </c>
       <c r="D94" t="n">
-        <v>356.5195140624737</v>
+        <v>7.684839722497722</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-1.139885083863311</v>
       </c>
     </row>
     <row r="95">
@@ -1762,13 +2046,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>8.776675121596051</v>
+        <v>6.184164072101809</v>
       </c>
       <c r="C95" t="n">
-        <v>-436.7781212720857</v>
+        <v>5.416392526684762</v>
       </c>
       <c r="D95" t="n">
-        <v>454.3314715152778</v>
+        <v>6.951935617518856</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-1.535543090834095</v>
       </c>
     </row>
     <row r="96">
@@ -1776,13 +2063,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.698046893413479</v>
+        <v>5.835940897590142</v>
       </c>
       <c r="C96" t="n">
-        <v>-468.6428830933461</v>
+        <v>5.023735177523126</v>
       </c>
       <c r="D96" t="n">
-        <v>474.0389768801732</v>
+        <v>6.648146617657157</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-1.624411440134031</v>
       </c>
     </row>
     <row r="97">
@@ -1790,13 +2080,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-2.666035410009775</v>
+        <v>5.527507627324828</v>
       </c>
       <c r="C97" t="n">
-        <v>-595.099449582849</v>
+        <v>4.506637643121402</v>
       </c>
       <c r="D97" t="n">
-        <v>589.7673787628296</v>
+        <v>6.548377611528253</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-2.041739968406851</v>
       </c>
     </row>
     <row r="98">
@@ -1804,13 +2097,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-23.68059681120507</v>
+        <v>4.401551240323313</v>
       </c>
       <c r="C98" t="n">
-        <v>-236.5055848416572</v>
+        <v>4.034815271400811</v>
       </c>
       <c r="D98" t="n">
-        <v>189.144391219247</v>
+        <v>4.768287209245814</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0.7334719378450032</v>
       </c>
     </row>
     <row r="99">
@@ -1818,13 +2114,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-10.38908756718742</v>
+        <v>5.079554102707753</v>
       </c>
       <c r="C99" t="n">
-        <v>-189.6006283899268</v>
+        <v>4.770740186287761</v>
       </c>
       <c r="D99" t="n">
-        <v>168.8224532555519</v>
+        <v>5.388368019127745</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0.6176278328399842</v>
       </c>
     </row>
     <row r="100">
@@ -1832,13 +2131,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.515606476743489</v>
+        <v>5.514996194360497</v>
       </c>
       <c r="C100" t="n">
-        <v>-264.2018527809296</v>
+        <v>5.062340254132292</v>
       </c>
       <c r="D100" t="n">
-        <v>261.1706398274427</v>
+        <v>5.967652134588701</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0.9053118804564093</v>
       </c>
     </row>
     <row r="101">
@@ -1846,13 +2148,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6737421027471807</v>
+        <v>5.59502857052503</v>
       </c>
       <c r="C101" t="n">
-        <v>-194.4028166815624</v>
+        <v>5.258876357094177</v>
       </c>
       <c r="D101" t="n">
-        <v>195.7503008870568</v>
+        <v>5.931180783955883</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0.6723044268617056</v>
       </c>
     </row>
     <row r="102">
@@ -1860,13 +2165,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.626585128996452</v>
+        <v>5.439648001025173</v>
       </c>
       <c r="C102" t="n">
-        <v>-188.0597611804543</v>
+        <v>5.118389900220075</v>
       </c>
       <c r="D102" t="n">
-        <v>184.8065909224614</v>
+        <v>5.760906101830271</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.6425162016101957</v>
       </c>
     </row>
     <row r="103">
@@ -1874,13 +2182,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-22.21882403849549</v>
+        <v>4.329207989947779</v>
       </c>
       <c r="C103" t="n">
-        <v>-217.8029598063229</v>
+        <v>3.992181129519054</v>
       </c>
       <c r="D103" t="n">
-        <v>173.365311729332</v>
+        <v>4.666234850376505</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-0.6740537208574509</v>
       </c>
     </row>
     <row r="104">
@@ -1888,13 +2199,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-20.90128439671592</v>
+        <v>4.375990567899746</v>
       </c>
       <c r="C104" t="n">
-        <v>-96.44370299934229</v>
+        <v>4.245817309875085</v>
       </c>
       <c r="D104" t="n">
-        <v>54.64113420591045</v>
+        <v>4.506163825924406</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0.2603465160493208</v>
       </c>
     </row>
     <row r="105">
@@ -1902,13 +2216,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-18.72420967702864</v>
+        <v>4.464062956196957</v>
       </c>
       <c r="C105" t="n">
-        <v>31.8299743617013</v>
+        <v>4.551176963993247</v>
       </c>
       <c r="D105" t="n">
-        <v>-69.27839371575858</v>
+        <v>4.376948948400668</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.1742280155925791</v>
       </c>
     </row>
     <row r="106">
@@ -1916,13 +2233,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-24.56119279086936</v>
+        <v>4.129839117187161</v>
       </c>
       <c r="C106" t="n">
-        <v>-62.00404899734624</v>
+        <v>4.065318299978689</v>
       </c>
       <c r="D106" t="n">
-        <v>12.88166341560753</v>
+        <v>4.194359934395633</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0.1290416344169447</v>
       </c>
     </row>
     <row r="107">
@@ -1930,13 +2250,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-18.43344888922204</v>
+        <v>4.42370257073217</v>
       </c>
       <c r="C107" t="n">
-        <v>-139.1540969854513</v>
+        <v>4.215679047469065</v>
       </c>
       <c r="D107" t="n">
-        <v>102.2871992070072</v>
+        <v>4.631726093995276</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0.4160470465262112</v>
       </c>
     </row>
     <row r="108">
@@ -1944,13 +2267,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-5.01652234913736</v>
+        <v>5.094246956104989</v>
       </c>
       <c r="C108" t="n">
-        <v>-151.8859547349337</v>
+        <v>4.841164345413635</v>
       </c>
       <c r="D108" t="n">
-        <v>141.852910036659</v>
+        <v>5.347329566796343</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-0.506165221382707</v>
       </c>
     </row>
     <row r="109">
@@ -1958,13 +2284,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>28.29226168097047</v>
+        <v>6.798527159198395</v>
       </c>
       <c r="C109" t="n">
-        <v>-451.8658363138579</v>
+        <v>5.971127863026825</v>
       </c>
       <c r="D109" t="n">
-        <v>508.4503596757988</v>
+        <v>7.625926455369965</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-1.654798592343139</v>
       </c>
     </row>
     <row r="110">
@@ -1972,13 +2301,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>24.48919062523862</v>
+        <v>6.545911081072434</v>
       </c>
       <c r="C110" t="n">
-        <v>-624.2190747875321</v>
+        <v>5.428069344226444</v>
       </c>
       <c r="D110" t="n">
-        <v>673.1974560380094</v>
+        <v>7.663752817918425</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-2.235683473691982</v>
       </c>
     </row>
     <row r="111">
@@ -1986,13 +2318,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>23.10826033043294</v>
+        <v>6.428639929773857</v>
       </c>
       <c r="C111" t="n">
-        <v>-330.1495990154534</v>
+        <v>5.819912709696837</v>
       </c>
       <c r="D111" t="n">
-        <v>376.3661196763193</v>
+        <v>7.037367149850878</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-1.217454440154041</v>
       </c>
     </row>
     <row r="112">
@@ -2000,13 +2335,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>16.78991504707422</v>
+        <v>6.057871940234125</v>
       </c>
       <c r="C112" t="n">
-        <v>-37.56269416183356</v>
+        <v>5.964212558475613</v>
       </c>
       <c r="D112" t="n">
-        <v>71.14252425598201</v>
+        <v>6.151531321992636</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0.1873187635170233</v>
       </c>
     </row>
     <row r="113">
@@ -2014,13 +2352,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-17.3050743912577</v>
+        <v>4.239799062720631</v>
       </c>
       <c r="C113" t="n">
-        <v>-102.616668247204</v>
+        <v>4.092791747824851</v>
       </c>
       <c r="D113" t="n">
-        <v>68.00651946468858</v>
+        <v>4.386806377616411</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0.29401462979156</v>
       </c>
     </row>
     <row r="114">
@@ -2028,13 +2369,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-11.1809780272858</v>
+        <v>4.544649149642368</v>
       </c>
       <c r="C114" t="n">
-        <v>3.16927500059974</v>
+        <v>4.56937723254827</v>
       </c>
       <c r="D114" t="n">
-        <v>-25.53123105517135</v>
+        <v>4.519921066736465</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.04945616581180445</v>
       </c>
     </row>
     <row r="115">
@@ -2042,13 +2386,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-5.446088227284333</v>
+        <v>4.821432825743515</v>
       </c>
       <c r="C115" t="n">
-        <v>54.69932751116518</v>
+        <v>4.925074261465954</v>
       </c>
       <c r="D115" t="n">
-        <v>-65.59150396573385</v>
+        <v>4.717791390021076</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.2072828714448782</v>
       </c>
     </row>
     <row r="116">
@@ -2056,13 +2403,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>37.1804981031603</v>
+        <v>7.023283253690098</v>
       </c>
       <c r="C116" t="n">
-        <v>561.1741745967006</v>
+        <v>7.926219184458839</v>
       </c>
       <c r="D116" t="n">
-        <v>-486.81317839038</v>
+        <v>6.120347322921358</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.805871861537481</v>
       </c>
     </row>
     <row r="117">
@@ -2070,13 +2420,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>24.85191243152014</v>
+        <v>6.327203410346048</v>
       </c>
       <c r="C117" t="n">
-        <v>650.9595874993643</v>
+        <v>7.406100240040528</v>
       </c>
       <c r="D117" t="n">
-        <v>-601.2557626363239</v>
+        <v>5.248306580651567</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.157793659388961</v>
       </c>
     </row>
     <row r="118">
@@ -2084,13 +2437,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>24.00655159515967</v>
+        <v>6.244579077179393</v>
       </c>
       <c r="C118" t="n">
-        <v>547.522320789049</v>
+        <v>7.146691487184832</v>
       </c>
       <c r="D118" t="n">
-        <v>-499.5092175987297</v>
+        <v>5.342466667173955</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.804224820010877</v>
       </c>
     </row>
     <row r="119">
@@ -2098,13 +2454,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>18.0008432961476</v>
+        <v>5.894946200212765</v>
       </c>
       <c r="C119" t="n">
-        <v>325.6947091412895</v>
+        <v>6.425158413856035</v>
       </c>
       <c r="D119" t="n">
-        <v>-289.6930225489943</v>
+        <v>5.364733986569496</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.06042442728654</v>
       </c>
     </row>
     <row r="120">
@@ -2112,13 +2471,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-4.472668711766168</v>
+        <v>4.688535912429773</v>
       </c>
       <c r="C120" t="n">
-        <v>16.25853811880206</v>
+        <v>4.724259533487152</v>
       </c>
       <c r="D120" t="n">
-        <v>-25.20387554233439</v>
+        <v>4.652812291372393</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.07144724211475939</v>
       </c>
     </row>
     <row r="121">
@@ -2126,13 +2488,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>16.63853034564752</v>
+        <v>5.774494385699791</v>
       </c>
       <c r="C121" t="n">
-        <v>65.80146625091641</v>
+        <v>5.859211021190515</v>
       </c>
       <c r="D121" t="n">
-        <v>-32.52440555962136</v>
+        <v>5.689777750209067</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.1694332709814486</v>
       </c>
     </row>
     <row r="122">
@@ -2140,13 +2505,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>25.36060200437939</v>
+        <v>6.198159690630951</v>
       </c>
       <c r="C122" t="n">
-        <v>-47.8992204456073</v>
+        <v>6.071919758854509</v>
       </c>
       <c r="D122" t="n">
-        <v>98.62042445436607</v>
+        <v>6.324399622407393</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-0.2524798635528835</v>
       </c>
     </row>
     <row r="123">
@@ -2154,13 +2522,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>32.17784603829751</v>
+        <v>6.518781550482643</v>
       </c>
       <c r="C123" t="n">
-        <v>-249.3235703819336</v>
+        <v>6.033703667197818</v>
       </c>
       <c r="D123" t="n">
-        <v>313.6792624585286</v>
+        <v>7.003859433767468</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-0.9701557665696505</v>
       </c>
     </row>
     <row r="124">
@@ -2168,13 +2539,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9.72807208932732</v>
+        <v>5.306824525187527</v>
       </c>
       <c r="C124" t="n">
-        <v>-333.5444093827695</v>
+        <v>4.715303918222485</v>
       </c>
       <c r="D124" t="n">
-        <v>353.0005535614242</v>
+        <v>5.898345132152569</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-1.183041213930084</v>
       </c>
     </row>
     <row r="125">
@@ -2182,13 +2556,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>30.86738825594923</v>
+        <v>6.389798982219187</v>
       </c>
       <c r="C125" t="n">
-        <v>-432.6459144258097</v>
+        <v>5.591081680549982</v>
       </c>
       <c r="D125" t="n">
-        <v>494.3806909377081</v>
+        <v>7.188516283888392</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-1.59743460333841</v>
       </c>
     </row>
     <row r="126">
@@ -2196,13 +2573,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8771853358999948</v>
+        <v>4.785193736830823</v>
       </c>
       <c r="C126" t="n">
-        <v>-142.6538288112317</v>
+        <v>4.537863824912089</v>
       </c>
       <c r="D126" t="n">
-        <v>144.4081994830317</v>
+        <v>5.032523648749558</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-0.4946598238374698</v>
       </c>
     </row>
     <row r="127">
@@ -2210,13 +2590,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.46715400844507</v>
+        <v>5.32160479965783</v>
       </c>
       <c r="C127" t="n">
-        <v>22.06699871887982</v>
+        <v>5.339870250328279</v>
       </c>
       <c r="D127" t="n">
-        <v>0.867309298010321</v>
+        <v>5.30333934898738</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.03653090134089965</v>
       </c>
     </row>
     <row r="128">
@@ -2224,13 +2607,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>44.71722790101101</v>
+        <v>7.035195868856956</v>
       </c>
       <c r="C128" t="n">
-        <v>52.69032449021133</v>
+        <v>7.04893495715675</v>
       </c>
       <c r="D128" t="n">
-        <v>36.74413131181068</v>
+        <v>7.021456780557162</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.02747817659958862</v>
       </c>
     </row>
     <row r="129">
@@ -2238,13 +2624,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>17.29514715663337</v>
+        <v>5.556837492004054</v>
       </c>
       <c r="C129" t="n">
-        <v>251.0041787460746</v>
+        <v>5.959560447325586</v>
       </c>
       <c r="D129" t="n">
-        <v>-216.4138844328079</v>
+        <v>5.154114536682522</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.8054459106430638</v>
       </c>
     </row>
     <row r="130">
@@ -2252,13 +2641,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.606095333935372</v>
+        <v>4.868528811368019</v>
       </c>
       <c r="C130" t="n">
-        <v>219.1937140343979</v>
+        <v>5.238302111914973</v>
       </c>
       <c r="D130" t="n">
-        <v>-209.9815233665271</v>
+        <v>4.498755510821064</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.7395466010939096</v>
       </c>
     </row>
     <row r="131">
@@ -2266,13 +2658,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.266317579026438</v>
+        <v>4.936918355747644</v>
       </c>
       <c r="C131" t="n">
-        <v>60.42403991460026</v>
+        <v>5.030241912155083</v>
       </c>
       <c r="D131" t="n">
-        <v>-47.89140475654739</v>
+        <v>4.843594799340205</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.1866471128148781</v>
       </c>
     </row>
     <row r="132">
@@ -2280,13 +2675,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-2.23991183982773</v>
+        <v>4.470221978286426</v>
       </c>
       <c r="C132" t="n">
-        <v>278.1491403599205</v>
+        <v>4.953383056716856</v>
       </c>
       <c r="D132" t="n">
-        <v>-282.628964039576</v>
+        <v>3.987060899855996</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.9663221568608598</v>
       </c>
     </row>
     <row r="133">
@@ -2294,13 +2692,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-25.09685007006351</v>
+        <v>3.255826642583427</v>
       </c>
       <c r="C133" t="n">
-        <v>300.7120103981367</v>
+        <v>3.817254270199433</v>
       </c>
       <c r="D133" t="n">
-        <v>-350.9057105382637</v>
+        <v>2.694399014967422</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.122855255232011</v>
       </c>
     </row>
     <row r="134">
@@ -2308,13 +2709,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-15.3656137207041</v>
+        <v>3.756204291226377</v>
       </c>
       <c r="C134" t="n">
-        <v>108.3060668565257</v>
+        <v>3.969312977497159</v>
       </c>
       <c r="D134" t="n">
-        <v>-139.0372942979339</v>
+        <v>3.543095604955596</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.4262173725415632</v>
       </c>
     </row>
     <row r="135">
@@ -2322,13 +2726,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-26.60400800665352</v>
+        <v>3.149496455177446</v>
       </c>
       <c r="C135" t="n">
-        <v>51.50696023001271</v>
+        <v>3.284095789047253</v>
       </c>
       <c r="D135" t="n">
-        <v>-104.7149762433197</v>
+        <v>3.014897121307639</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.2691986677396141</v>
       </c>
     </row>
     <row r="136">
@@ -2336,13 +2743,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-9.952596491347013</v>
+        <v>4.006002942177084</v>
       </c>
       <c r="C136" t="n">
-        <v>-76.37843437423624</v>
+        <v>3.89153920254335</v>
       </c>
       <c r="D136" t="n">
-        <v>56.47324139154222</v>
+        <v>4.120466681810819</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-0.2289274792674694</v>
       </c>
     </row>
     <row r="137">
@@ -2350,13 +2760,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-20.479320718184</v>
+        <v>3.429005655718773</v>
       </c>
       <c r="C137" t="n">
-        <v>-290.0064925376917</v>
+        <v>2.964561562837981</v>
       </c>
       <c r="D137" t="n">
-        <v>249.0478511013237</v>
+        <v>3.893449748599565</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-0.9288881857615836</v>
       </c>
     </row>
     <row r="138">
@@ -2364,13 +2777,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.65699795552445</v>
+        <v>5.090277858895454</v>
       </c>
       <c r="C138" t="n">
-        <v>-80.21362821649731</v>
+        <v>4.931968144343079</v>
       </c>
       <c r="D138" t="n">
-        <v>103.5276241275462</v>
+        <v>5.248587573447828</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-0.3166194291047493</v>
       </c>
     </row>
     <row r="139">
@@ -2378,13 +2794,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-2.951158982446028</v>
+        <v>4.288155032282583</v>
       </c>
       <c r="C139" t="n">
-        <v>209.9623701647205</v>
+        <v>4.655043573572307</v>
       </c>
       <c r="D139" t="n">
-        <v>-215.8646881296125</v>
+        <v>3.92126649099286</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.7337770825794467</v>
       </c>
     </row>
     <row r="140">
@@ -2392,13 +2811,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-5.939481203392594</v>
+        <v>4.105904634337918</v>
       </c>
       <c r="C140" t="n">
-        <v>-35.5694744738763</v>
+        <v>4.054846793847575</v>
       </c>
       <c r="D140" t="n">
-        <v>23.69051206709111</v>
+        <v>4.156962474828261</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-0.1021156809806865</v>
       </c>
     </row>
     <row r="141">
@@ -2406,13 +2828,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>10.15198212064876</v>
+        <v>4.924379480642073</v>
       </c>
       <c r="C141" t="n">
-        <v>70.72111468001276</v>
+        <v>5.0287510571262</v>
       </c>
       <c r="D141" t="n">
-        <v>-50.41715043871525</v>
+        <v>4.820007904157945</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.2087431529682551</v>
       </c>
     </row>
     <row r="142">
@@ -2420,13 +2845,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-11.22428821193949</v>
+        <v>3.774479372849743</v>
       </c>
       <c r="C142" t="n">
-        <v>-58.39062440723183</v>
+        <v>3.69320323998028</v>
       </c>
       <c r="D142" t="n">
-        <v>35.94204798335286</v>
+        <v>3.855755505719207</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-0.1625522657389267</v>
       </c>
     </row>
     <row r="143">
@@ -2434,13 +2862,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-3.021642829657939</v>
+        <v>4.186056372752908</v>
       </c>
       <c r="C143" t="n">
-        <v>-118.5852838987542</v>
+        <v>3.986919305851614</v>
       </c>
       <c r="D143" t="n">
-        <v>112.5419982394384</v>
+        <v>4.385193439654202</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-0.3982741338025879</v>
       </c>
     </row>
     <row r="144">
@@ -2448,13 +2879,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>20.12650950927326</v>
+        <v>5.37414318660484</v>
       </c>
       <c r="C144" t="n">
-        <v>-170.9003001559842</v>
+        <v>5.044969423781753</v>
       </c>
       <c r="D144" t="n">
-        <v>211.1533191745307</v>
+        <v>5.703316949427927</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-0.6583475256461746</v>
       </c>
     </row>
     <row r="145">
@@ -2462,13 +2896,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-10.19876649191271</v>
+        <v>3.753028066383577</v>
       </c>
       <c r="C145" t="n">
-        <v>-308.3068792098258</v>
+        <v>3.239333840094608</v>
       </c>
       <c r="D145" t="n">
-        <v>287.9093462260004</v>
+        <v>4.266722292672546</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-1.027388452577938</v>
       </c>
     </row>
     <row r="146">
@@ -2476,13 +2913,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-2.999413395736882</v>
+        <v>4.115025139410418</v>
       </c>
       <c r="C146" t="n">
-        <v>-254.1582536449479</v>
+        <v>3.682233005908374</v>
       </c>
       <c r="D146" t="n">
-        <v>248.1594268534741</v>
+        <v>4.547817272912461</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-0.8655842670040865</v>
       </c>
     </row>
     <row r="147">
@@ -2490,13 +2930,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3.318352560810705</v>
+        <v>4.425479871972753</v>
       </c>
       <c r="C147" t="n">
-        <v>-341.8881274688731</v>
+        <v>3.830626635500832</v>
       </c>
       <c r="D147" t="n">
-        <v>348.5248325904944</v>
+        <v>5.020333108444674</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-1.189706472943842</v>
       </c>
     </row>
     <row r="148">
@@ -2504,13 +2947,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>16.17760027475783</v>
+        <v>5.074983161387849</v>
       </c>
       <c r="C148" t="n">
-        <v>-241.8265490843432</v>
+        <v>4.630395321506485</v>
       </c>
       <c r="D148" t="n">
-        <v>274.1817496338589</v>
+        <v>5.519571001269213</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-0.8891756797627277</v>
       </c>
     </row>
     <row r="149">
@@ -2518,13 +2964,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-7.08391663695787</v>
+        <v>3.829119485318141</v>
       </c>
       <c r="C149" t="n">
-        <v>-238.588841538317</v>
+        <v>3.430194604693301</v>
       </c>
       <c r="D149" t="n">
-        <v>224.4210082644013</v>
+        <v>4.22804436594298</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-0.7978497612496782</v>
       </c>
     </row>
     <row r="150">
@@ -2532,13 +2981,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-24.96129768304731</v>
+        <v>2.879932984489525</v>
       </c>
       <c r="C150" t="n">
-        <v>-262.398106130999</v>
+        <v>2.470786395031868</v>
       </c>
       <c r="D150" t="n">
-        <v>212.4755107649044</v>
+        <v>3.289079573947181</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-0.8182931789153125</v>
       </c>
     </row>
     <row r="151">
@@ -2546,13 +2998,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-8.107887790193148</v>
+        <v>3.755736538638212</v>
       </c>
       <c r="C151" t="n">
-        <v>-353.1517393131376</v>
+        <v>3.161163540513984</v>
       </c>
       <c r="D151" t="n">
-        <v>336.9359637327512</v>
+        <v>4.350309536762439</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-1.189145996248455</v>
       </c>
     </row>
     <row r="152">
@@ -2560,13 +3015,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.2542792257205484</v>
+        <v>4.174936709093542</v>
       </c>
       <c r="C152" t="n">
-        <v>-387.441539751139</v>
+        <v>3.506866652398239</v>
       </c>
       <c r="D152" t="n">
-        <v>387.9500982025801</v>
+        <v>4.843006765788845</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-1.336140113390606</v>
       </c>
     </row>
     <row r="153">
@@ -2574,13 +3032,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.445750479376922</v>
+        <v>4.424134645996164</v>
       </c>
       <c r="C153" t="n">
-        <v>-215.1025128316053</v>
+        <v>4.044090076098408</v>
       </c>
       <c r="D153" t="n">
-        <v>225.9940137903592</v>
+        <v>4.804179215893919</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-0.760089139795511</v>
       </c>
     </row>
     <row r="154">
@@ -2588,13 +3049,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>10.66979532846077</v>
+        <v>4.673940898371352</v>
       </c>
       <c r="C154" t="n">
-        <v>-103.8826300538517</v>
+        <v>4.476546339096227</v>
       </c>
       <c r="D154" t="n">
-        <v>125.2222207107733</v>
+        <v>4.871335457646478</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-0.3947891185502517</v>
       </c>
     </row>
     <row r="155">
@@ -2602,13 +3066,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-2.094029271925315</v>
+        <v>3.981966007433746</v>
       </c>
       <c r="C155" t="n">
-        <v>-251.2673694356911</v>
+        <v>3.552595249891218</v>
       </c>
       <c r="D155" t="n">
-        <v>247.0793108918405</v>
+        <v>4.411336764976275</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-0.8587415150850566</v>
       </c>
     </row>
     <row r="156">
@@ -2616,13 +3083,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.468968085099091</v>
+        <v>4.257870783452311</v>
       </c>
       <c r="C156" t="n">
-        <v>-197.4548650761747</v>
+        <v>3.911642658099476</v>
       </c>
       <c r="D156" t="n">
-        <v>204.3928012463729</v>
+        <v>4.604098908805144</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-0.6924562507056682</v>
       </c>
     </row>
     <row r="157">
@@ -2630,13 +3100,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>8.393673046054866</v>
+        <v>4.497353620841433</v>
       </c>
       <c r="C157" t="n">
-        <v>-50.75245258964122</v>
+        <v>4.395434142805727</v>
       </c>
       <c r="D157" t="n">
-        <v>67.53979868175095</v>
+        <v>4.599273098877139</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-0.2038389560714116</v>
       </c>
     </row>
     <row r="158">
@@ -2644,13 +3117,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-4.276766017840603</v>
+        <v>3.814601967083777</v>
       </c>
       <c r="C158" t="n">
-        <v>-311.4097547851135</v>
+        <v>3.285356246146567</v>
       </c>
       <c r="D158" t="n">
-        <v>302.8562227494323</v>
+        <v>4.343847688020986</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-1.058491441874419</v>
       </c>
     </row>
     <row r="159">
@@ -2658,13 +3134,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>28.11634655821958</v>
+        <v>5.497717533662134</v>
       </c>
       <c r="C159" t="n">
-        <v>-155.0400354806392</v>
+        <v>5.18210594193612</v>
       </c>
       <c r="D159" t="n">
-        <v>211.2727285970784</v>
+        <v>5.813329125388147</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-0.6312231834520272</v>
       </c>
     </row>
     <row r="160">
@@ -2672,13 +3151,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>28.79739293730312</v>
+        <v>5.504142514796841</v>
       </c>
       <c r="C160" t="n">
-        <v>-231.6251887175277</v>
+        <v>5.055387278410698</v>
       </c>
       <c r="D160" t="n">
-        <v>289.219974592134</v>
+        <v>5.952897751182985</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-0.8975104727722876</v>
       </c>
     </row>
     <row r="161">
@@ -2686,13 +3168,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2.557456837534726</v>
+        <v>4.106345711399769</v>
       </c>
       <c r="C161" t="n">
-        <v>-135.9057499712699</v>
+        <v>3.86774854863673</v>
       </c>
       <c r="D161" t="n">
-        <v>141.0206636463394</v>
+        <v>4.344942874162809</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-0.4771943255260793</v>
       </c>
     </row>
     <row r="162">
@@ -2700,13 +3185,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>13.55696774189328</v>
+        <v>4.674050659906327</v>
       </c>
       <c r="C162" t="n">
-        <v>-223.5182112141349</v>
+        <v>4.265527223506678</v>
       </c>
       <c r="D162" t="n">
-        <v>250.6321466979215</v>
+        <v>5.082574096305977</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-0.817046872799299</v>
       </c>
     </row>
     <row r="163">
@@ -2714,13 +3202,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-4.805478780776172</v>
+        <v>3.69838302236065</v>
       </c>
       <c r="C163" t="n">
-        <v>-487.0444178554844</v>
+        <v>2.86739806044247</v>
       </c>
       <c r="D163" t="n">
-        <v>477.4334602939321</v>
+        <v>4.529367984278831</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-1.66196992383636</v>
       </c>
     </row>
     <row r="164">
@@ -2728,13 +3219,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>10.41129588302321</v>
+        <v>4.489961524403289</v>
       </c>
       <c r="C164" t="n">
-        <v>-657.3191882635866</v>
+        <v>3.33934106226301</v>
       </c>
       <c r="D164" t="n">
-        <v>678.141780029633</v>
+        <v>5.640581986543568</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-2.301240924280557</v>
       </c>
     </row>
     <row r="165">
@@ -2742,13 +3236,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>27.18359622777444</v>
+        <v>5.35296237050588</v>
       </c>
       <c r="C165" t="n">
-        <v>-544.6718484588162</v>
+        <v>4.367551951684491</v>
       </c>
       <c r="D165" t="n">
-        <v>599.0390409143652</v>
+        <v>6.338372789327269</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-1.970820837642778</v>
       </c>
     </row>
     <row r="166">
@@ -2756,13 +3253,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>7.339360492279903</v>
+        <v>4.292525549847013</v>
       </c>
       <c r="C166" t="n">
-        <v>-448.9168711310087</v>
+        <v>3.506313494910333</v>
       </c>
       <c r="D166" t="n">
-        <v>463.5955921155685</v>
+        <v>5.078737604783693</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-1.57242410987336</v>
       </c>
     </row>
     <row r="167">
@@ -2770,13 +3270,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>21.86124628112311</v>
+        <v>5.043913292812146</v>
       </c>
       <c r="C167" t="n">
-        <v>-512.5003741524789</v>
+        <v>4.123111518366963</v>
       </c>
       <c r="D167" t="n">
-        <v>556.2228667147252</v>
+        <v>5.964715067257329</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-1.841603548890365</v>
       </c>
     </row>
     <row r="168">
@@ -2784,13 +3287,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>23.3435095748093</v>
+        <v>5.105076399703377</v>
       </c>
       <c r="C168" t="n">
-        <v>-342.3290300632912</v>
+        <v>4.474956438821049</v>
       </c>
       <c r="D168" t="n">
-        <v>389.0160492129098</v>
+        <v>5.735196360585706</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-1.260239921764658</v>
       </c>
     </row>
     <row r="169">
@@ -2798,13 +3304,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>30.96160140851192</v>
+        <v>5.488586872793724</v>
       </c>
       <c r="C169" t="n">
-        <v>-540.859991528076</v>
+        <v>4.503234786663679</v>
       </c>
       <c r="D169" t="n">
-        <v>602.7831943450998</v>
+        <v>6.473938958923769</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-1.97070417226009</v>
       </c>
     </row>
     <row r="170">
@@ -2812,13 +3321,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>53.61877107728279</v>
+        <v>6.656863013478659</v>
       </c>
       <c r="C170" t="n">
-        <v>-452.5353859706014</v>
+        <v>5.784667803099755</v>
       </c>
       <c r="D170" t="n">
-        <v>559.7729281251669</v>
+        <v>7.529058223857564</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-1.744390420757808</v>
       </c>
     </row>
     <row r="171">
@@ -2826,13 +3338,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>35.34359806551717</v>
+        <v>5.674438917179876</v>
       </c>
       <c r="C171" t="n">
-        <v>-589.3019899129623</v>
+        <v>4.598061528131578</v>
       </c>
       <c r="D171" t="n">
-        <v>659.9891860439967</v>
+        <v>6.750816306228175</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-2.152754778096597</v>
       </c>
     </row>
     <row r="172">
@@ -2840,13 +3355,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>14.19606922658326</v>
+        <v>4.556708141992329</v>
       </c>
       <c r="C172" t="n">
-        <v>-627.5440870718528</v>
+        <v>3.450873718156207</v>
       </c>
       <c r="D172" t="n">
-        <v>655.9362255250194</v>
+        <v>5.662542565828451</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-2.211668847672243</v>
       </c>
     </row>
     <row r="173">
@@ -2854,13 +3372,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-3.014151803333332</v>
+        <v>3.657126890447511</v>
       </c>
       <c r="C173" t="n">
-        <v>-552.4294008616811</v>
+        <v>2.71038498965445</v>
       </c>
       <c r="D173" t="n">
-        <v>546.4010972550144</v>
+        <v>4.603868791240572</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-1.893483801586122</v>
       </c>
     </row>
     <row r="174">
@@ -2868,13 +3389,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-14.06453804987273</v>
+        <v>3.086472422467115</v>
       </c>
       <c r="C174" t="n">
-        <v>-622.5092227082741</v>
+        <v>2.038012121686941</v>
       </c>
       <c r="D174" t="n">
-        <v>594.3801466085288</v>
+        <v>4.134932723247289</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-2.096920601560348</v>
       </c>
     </row>
     <row r="175">
@@ -2882,13 +3406,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-10.06598953812076</v>
+        <v>3.30482098222505</v>
       </c>
       <c r="C175" t="n">
-        <v>-596.7934614308332</v>
+        <v>2.293783369164146</v>
       </c>
       <c r="D175" t="n">
-        <v>576.6614823545916</v>
+        <v>4.315858595285953</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-2.022075226121808</v>
       </c>
     </row>
     <row r="176">
@@ -2896,13 +3423,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.5144349557274044</v>
+        <v>3.807228028907591</v>
       </c>
       <c r="C176" t="n">
-        <v>-355.2639196012193</v>
+        <v>3.195930468502667</v>
       </c>
       <c r="D176" t="n">
-        <v>354.2350496897645</v>
+        <v>4.418525589312515</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-1.222595120809848</v>
       </c>
     </row>
     <row r="177">
@@ -2910,13 +3440,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.237790797594556</v>
+        <v>4.103602796373984</v>
       </c>
       <c r="C177" t="n">
-        <v>-390.8956714618079</v>
+        <v>3.420993153358098</v>
       </c>
       <c r="D177" t="n">
-        <v>401.371253056997</v>
+        <v>4.78621243938987</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-1.365219286031772</v>
       </c>
     </row>
     <row r="178">
@@ -2924,13 +3457,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>18.15797969717442</v>
+        <v>4.772064526453861</v>
       </c>
       <c r="C178" t="n">
-        <v>-197.4038951366525</v>
+        <v>4.400612406279782</v>
       </c>
       <c r="D178" t="n">
-        <v>233.7198545310013</v>
+        <v>5.143516646627941</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-0.7429042403481585</v>
       </c>
     </row>
     <row r="179">
@@ -2938,13 +3474,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>14.27411750013527</v>
+        <v>4.555716728447443</v>
       </c>
       <c r="C179" t="n">
-        <v>-345.8364182822538</v>
+        <v>3.935181106754097</v>
       </c>
       <c r="D179" t="n">
-        <v>374.3846532825244</v>
+        <v>5.176252350140789</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-1.241071243386692</v>
       </c>
     </row>
     <row r="180">
@@ -2952,13 +3491,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>34.62854234123989</v>
+        <v>5.61246976938873</v>
       </c>
       <c r="C180" t="n">
-        <v>-196.5607013618623</v>
+        <v>5.214088864596732</v>
       </c>
       <c r="D180" t="n">
-        <v>265.8177860443421</v>
+        <v>6.010850674180727</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-0.7967618095839946</v>
       </c>
     </row>
     <row r="181">
@@ -2966,13 +3508,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>21.52213448499387</v>
+        <v>4.909606052376474</v>
       </c>
       <c r="C181" t="n">
-        <v>41.88847963917971</v>
+        <v>4.944700950737102</v>
       </c>
       <c r="D181" t="n">
-        <v>1.155789330808037</v>
+        <v>4.874511154015846</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.07018979672125525</v>
       </c>
     </row>
     <row r="182">
@@ -2980,13 +3525,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>60.10325297055994</v>
+        <v>6.922310524336879</v>
       </c>
       <c r="C182" t="n">
-        <v>-300.9949310987597</v>
+        <v>6.30007300591226</v>
       </c>
       <c r="D182" t="n">
-        <v>421.2014370398796</v>
+        <v>7.544548042761498</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-1.244475036849238</v>
       </c>
     </row>
     <row r="183">
@@ -2994,13 +3542,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>53.91211040382659</v>
+        <v>6.573786031340042</v>
       </c>
       <c r="C183" t="n">
-        <v>-381.4427717754413</v>
+        <v>5.823590783974115</v>
       </c>
       <c r="D183" t="n">
-        <v>489.2669925830945</v>
+        <v>7.323981278705968</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-1.500390494731853</v>
       </c>
     </row>
     <row r="184">
@@ -3008,13 +3559,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>25.71750703901582</v>
+        <v>5.084249169196987</v>
       </c>
       <c r="C184" t="n">
-        <v>-263.4990637778926</v>
+        <v>4.585876678689408</v>
       </c>
       <c r="D184" t="n">
-        <v>314.9340778559242</v>
+        <v>5.582621659704566</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-0.9967449810151585</v>
       </c>
     </row>
     <row r="185">
@@ -3022,13 +3576,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>2.250135171197719</v>
+        <v>3.860766716132506</v>
       </c>
       <c r="C185" t="n">
-        <v>-279.7468870756824</v>
+        <v>3.374834814319491</v>
       </c>
       <c r="D185" t="n">
-        <v>284.2471574180778</v>
+        <v>4.346698617945521</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-0.9718638036260305</v>
       </c>
     </row>
     <row r="186">
@@ -3036,13 +3593,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>10.49846419672511</v>
+        <v>4.307518560280091</v>
       </c>
       <c r="C186" t="n">
-        <v>-177.2445055896383</v>
+        <v>3.984003447838791</v>
       </c>
       <c r="D186" t="n">
-        <v>198.2414339830885</v>
+        <v>4.63103367272139</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-0.6470302248825988</v>
       </c>
     </row>
     <row r="187">
@@ -3050,13 +3610,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5.032733930976714</v>
+        <v>4.028093711887857</v>
       </c>
       <c r="C187" t="n">
-        <v>-250.3824756820099</v>
+        <v>3.587967083704706</v>
       </c>
       <c r="D187" t="n">
-        <v>260.4479435439633</v>
+        <v>4.468220340071008</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-0.8802532563663026</v>
       </c>
     </row>
     <row r="188">
@@ -3064,13 +3627,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>16.19176965352953</v>
+        <v>4.619696781738222</v>
       </c>
       <c r="C188" t="n">
-        <v>-192.0993020702546</v>
+        <v>4.260773571106592</v>
       </c>
       <c r="D188" t="n">
-        <v>224.4828413773137</v>
+        <v>4.978619992369852</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-0.7178464212632605</v>
       </c>
     </row>
     <row r="189">
@@ -3078,13 +3644,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>20.25941515695773</v>
+        <v>4.832682950709517</v>
       </c>
       <c r="C189" t="n">
-        <v>-184.2797255622753</v>
+        <v>4.48022499617877</v>
       </c>
       <c r="D189" t="n">
-        <v>224.7985558761908</v>
+        <v>5.185140905240265</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-0.7049159090614943</v>
       </c>
     </row>
     <row r="190">
@@ -3092,13 +3661,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>14.38839960678828</v>
+        <v>4.524189068185779</v>
       </c>
       <c r="C190" t="n">
-        <v>15.91624821236805</v>
+        <v>4.526821827825141</v>
       </c>
       <c r="D190" t="n">
-        <v>12.8605510012085</v>
+        <v>4.521556308546418</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.005265519278722763</v>
       </c>
     </row>
     <row r="191">
@@ -3106,13 +3678,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-2.20269563699928</v>
+        <v>3.659084614927825</v>
       </c>
       <c r="C191" t="n">
-        <v>38.11114065668704</v>
+        <v>3.728552650382537</v>
       </c>
       <c r="D191" t="n">
-        <v>-42.5165319306856</v>
+        <v>3.589616579473113</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.1389360709094243</v>
       </c>
     </row>
     <row r="192">
@@ -3120,13 +3695,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-24.71270228165982</v>
+        <v>2.493007209510705</v>
       </c>
       <c r="C192" t="n">
-        <v>61.99324421046869</v>
+        <v>2.642417246332056</v>
       </c>
       <c r="D192" t="n">
-        <v>-111.4186487737883</v>
+        <v>2.343597172689355</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.2988200736427009</v>
       </c>
     </row>
     <row r="193">
@@ -3134,13 +3712,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-23.56591914333715</v>
+        <v>2.574006654138976</v>
       </c>
       <c r="C193" t="n">
-        <v>-11.47039519140304</v>
+        <v>2.594849430812847</v>
       </c>
       <c r="D193" t="n">
-        <v>-35.66144309527126</v>
+        <v>2.553163877465106</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.04168555334774116</v>
       </c>
     </row>
     <row r="194">
@@ -3148,13 +3729,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.842205180035133</v>
+        <v>3.72607459875853</v>
       </c>
       <c r="C194" t="n">
-        <v>-66.07270984829275</v>
+        <v>3.615393815539014</v>
       </c>
       <c r="D194" t="n">
-        <v>62.38829948822247</v>
+        <v>3.836755381978047</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-0.2213615664390334</v>
       </c>
     </row>
     <row r="195">
@@ -3162,13 +3746,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>3.291231148828068</v>
+        <v>3.995765725860017</v>
       </c>
       <c r="C195" t="n">
-        <v>-118.7126554358123</v>
+        <v>3.785530950456073</v>
       </c>
       <c r="D195" t="n">
-        <v>125.2951177334685</v>
+        <v>4.206000501263961</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-0.4204695508078875</v>
       </c>
     </row>
     <row r="196">
@@ -3176,13 +3763,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-16.48416589825511</v>
+        <v>2.960893818184183</v>
       </c>
       <c r="C196" t="n">
-        <v>-61.86921247509252</v>
+        <v>2.882687169684018</v>
       </c>
       <c r="D196" t="n">
-        <v>28.9008806785823</v>
+        <v>3.039100466684348</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-0.1564132970003298</v>
       </c>
     </row>
     <row r="197">
@@ -3190,13 +3780,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-7.767520615186916</v>
+        <v>3.428885401393213</v>
       </c>
       <c r="C197" t="n">
-        <v>-111.6502731905313</v>
+        <v>3.249876619235526</v>
       </c>
       <c r="D197" t="n">
-        <v>96.1152319601575</v>
+        <v>3.6078941835509</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-0.3580175643153733</v>
       </c>
     </row>
     <row r="198">
@@ -3204,13 +3797,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1.833381138530701</v>
+        <v>3.937067949623525</v>
       </c>
       <c r="C198" t="n">
-        <v>-43.8736300905845</v>
+        <v>3.858306497762136</v>
       </c>
       <c r="D198" t="n">
-        <v>47.54039236764591</v>
+        <v>4.015829401484915</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-0.1575229037227786</v>
       </c>
     </row>
     <row r="199">
@@ -3218,13 +3814,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-11.70714193192079</v>
+        <v>3.22992191499035</v>
       </c>
       <c r="C199" t="n">
-        <v>266.6872078300707</v>
+        <v>3.709645760142899</v>
       </c>
       <c r="D199" t="n">
-        <v>-290.1014916939123</v>
+        <v>2.750198069837801</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.9594476903050984</v>
       </c>
     </row>
     <row r="200">
@@ -3232,13 +3831,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-4.678130848174865</v>
+        <v>3.607941647855231</v>
       </c>
       <c r="C200" t="n">
-        <v>370.310367522963</v>
+        <v>4.254114691526475</v>
       </c>
       <c r="D200" t="n">
-        <v>-379.6666292193128</v>
+        <v>2.961768604183987</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.292346087342487</v>
       </c>
     </row>
     <row r="201">
@@ -3246,13 +3848,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.212889082857007</v>
+        <v>3.795293328661784</v>
       </c>
       <c r="C201" t="n">
-        <v>274.1104616841484</v>
+        <v>4.269725286792942</v>
       </c>
       <c r="D201" t="n">
-        <v>-276.5362398498625</v>
+        <v>3.320861370530626</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.9488639162623151</v>
       </c>
     </row>
     <row r="202">
@@ -3260,13 +3865,16 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-18.02233297219883</v>
+        <v>2.920913577309836</v>
       </c>
       <c r="C202" t="n">
-        <v>404.8864562817631</v>
+        <v>3.649661954218951</v>
       </c>
       <c r="D202" t="n">
-        <v>-440.9311222261608</v>
+        <v>2.192165200400721</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.45749675381823</v>
       </c>
     </row>
     <row r="203">
@@ -3274,13 +3882,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-5.88360937637061</v>
+        <v>3.571118774815821</v>
       </c>
       <c r="C203" t="n">
-        <v>298.4343331858704</v>
+        <v>4.095513661708035</v>
       </c>
       <c r="D203" t="n">
-        <v>-310.2015519386116</v>
+        <v>3.046723887923608</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.048789773784427</v>
       </c>
     </row>
     <row r="204">
@@ -3288,13 +3899,16 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>6.003651534407199</v>
+        <v>4.200350751913353</v>
       </c>
       <c r="C204" t="n">
-        <v>-42.34574587156277</v>
+        <v>4.117035990481485</v>
       </c>
       <c r="D204" t="n">
-        <v>54.35304894037716</v>
+        <v>4.283665513345221</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-0.1666295228637367</v>
       </c>
     </row>
     <row r="205">
@@ -3302,13 +3916,16 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>22.83555761402826</v>
+        <v>5.083102983316586</v>
       </c>
       <c r="C205" t="n">
-        <v>-173.5885365748925</v>
+        <v>4.744628722522589</v>
       </c>
       <c r="D205" t="n">
-        <v>219.259651802949</v>
+        <v>5.421577244110583</v>
+      </c>
+      <c r="E205" t="n">
+        <v>-0.6769485215879936</v>
       </c>
     </row>
     <row r="206">
@@ -3316,13 +3933,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>34.33175126120648</v>
+        <v>5.680650946746317</v>
       </c>
       <c r="C206" t="n">
-        <v>-422.7446139071955</v>
+        <v>4.89302565329335</v>
       </c>
       <c r="D206" t="n">
-        <v>491.4081164296084</v>
+        <v>6.468276240199284</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-1.575250586905934</v>
       </c>
     </row>
     <row r="207">
@@ -3330,13 +3950,16 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>3.488578877427393</v>
+        <v>4.061657263513923</v>
       </c>
       <c r="C207" t="n">
-        <v>-446.8706314634528</v>
+        <v>3.285606843419911</v>
       </c>
       <c r="D207" t="n">
-        <v>453.8477892183076</v>
+        <v>4.837707683607935</v>
+      </c>
+      <c r="E207" t="n">
+        <v>-1.552100840188023</v>
       </c>
     </row>
     <row r="208">
@@ -3344,13 +3967,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-11.36950716215785</v>
+        <v>3.300164879535503</v>
       </c>
       <c r="C208" t="n">
-        <v>-399.2120210661437</v>
+        <v>2.63184204093365</v>
       </c>
       <c r="D208" t="n">
-        <v>376.473006741828</v>
+        <v>3.968487718137356</v>
+      </c>
+      <c r="E208" t="n">
+        <v>-1.336645677203705</v>
       </c>
     </row>
     <row r="209">
@@ -3358,13 +3984,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1.388395049957292</v>
+        <v>3.990268717403958</v>
       </c>
       <c r="C209" t="n">
-        <v>-78.14221252231238</v>
+        <v>3.853223088049391</v>
       </c>
       <c r="D209" t="n">
-        <v>80.91900262222697</v>
+        <v>4.127314346758526</v>
+      </c>
+      <c r="E209" t="n">
+        <v>-0.2740912587091349</v>
       </c>
     </row>
     <row r="210">
@@ -3372,13 +4001,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>10.43919565727457</v>
+        <v>4.476976559494063</v>
       </c>
       <c r="C210" t="n">
-        <v>-8.450092211571166</v>
+        <v>4.444426898136413</v>
       </c>
       <c r="D210" t="n">
-        <v>29.3284835261203</v>
+        <v>4.509526220851713</v>
+      </c>
+      <c r="E210" t="n">
+        <v>-0.06509932271529983</v>
       </c>
     </row>
     <row r="211">
@@ -3386,13 +4018,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>16.89586531093829</v>
+        <v>4.823415595051849</v>
       </c>
       <c r="C211" t="n">
-        <v>-33.06555626685233</v>
+        <v>4.737323024246889</v>
       </c>
       <c r="D211" t="n">
-        <v>66.85728688872891</v>
+        <v>4.90950816585681</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-0.1721851416099209</v>
       </c>
     </row>
     <row r="212">
@@ -3400,13 +4035,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>75.04733476719099</v>
+        <v>7.872881985634159</v>
       </c>
       <c r="C212" t="n">
-        <v>158.8097339769965</v>
+        <v>8.017219757799737</v>
       </c>
       <c r="D212" t="n">
-        <v>-8.715064442614533</v>
+        <v>7.72854421346858</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.2886755443311566</v>
       </c>
     </row>
     <row r="213">
@@ -3414,13 +4052,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>63.71675937763717</v>
+        <v>7.25920684946438</v>
       </c>
       <c r="C213" t="n">
-        <v>-202.4668828870808</v>
+        <v>6.800524263078875</v>
       </c>
       <c r="D213" t="n">
-        <v>329.9004016423552</v>
+        <v>7.717889435849886</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-0.9173651727710102</v>
       </c>
     </row>
     <row r="214">
@@ -3428,13 +4069,16 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>64.73002738752905</v>
+        <v>7.308007139601933</v>
       </c>
       <c r="C214" t="n">
-        <v>-130.0649719862894</v>
+        <v>6.972340103988645</v>
       </c>
       <c r="D214" t="n">
-        <v>259.5250267613475</v>
+        <v>7.643674175215222</v>
+      </c>
+      <c r="E214" t="n">
+        <v>-0.6713340712265765</v>
       </c>
     </row>
     <row r="215">
@@ -3442,13 +4086,16 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>62.54142592920725</v>
+        <v>7.194701631211268</v>
       </c>
       <c r="C215" t="n">
-        <v>11.69666973344476</v>
+        <v>7.107086915004103</v>
       </c>
       <c r="D215" t="n">
-        <v>113.3861821249697</v>
+        <v>7.282316347418433</v>
+      </c>
+      <c r="E215" t="n">
+        <v>-0.17522943241433</v>
       </c>
     </row>
     <row r="216">
@@ -3456,13 +4103,16 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>56.1350660985356</v>
+        <v>6.866320850307064</v>
       </c>
       <c r="C216" t="n">
-        <v>-214.5549855602547</v>
+        <v>6.399872905018966</v>
       </c>
       <c r="D216" t="n">
-        <v>326.825117757326</v>
+        <v>7.332768795595162</v>
+      </c>
+      <c r="E216" t="n">
+        <v>-0.9328958905761962</v>
       </c>
     </row>
     <row r="217">
@@ -3470,13 +4120,16 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>36.07560806687507</v>
+        <v>5.829852180742705</v>
       </c>
       <c r="C217" t="n">
-        <v>-23.46143974107634</v>
+        <v>5.727259073059738</v>
       </c>
       <c r="D217" t="n">
-        <v>95.61265587482649</v>
+        <v>5.932445288425672</v>
+      </c>
+      <c r="E217" t="n">
+        <v>-0.2051862153659343</v>
       </c>
     </row>
     <row r="218">
@@ -3484,13 +4137,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>39.06274969295456</v>
+        <v>6.010792849213912</v>
       </c>
       <c r="C218" t="n">
-        <v>39.28980283761305</v>
+        <v>6.011184102871548</v>
       </c>
       <c r="D218" t="n">
-        <v>38.83569654829608</v>
+        <v>6.010401595556276</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.00078250731527163</v>
       </c>
     </row>
     <row r="219">
@@ -3498,13 +4154,16 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>16.61092145234383</v>
+        <v>4.857085418108101</v>
       </c>
       <c r="C219" t="n">
-        <v>-46.8325560523917</v>
+        <v>4.747760825118188</v>
       </c>
       <c r="D219" t="n">
-        <v>80.05439895707937</v>
+        <v>4.966410011098013</v>
+      </c>
+      <c r="E219" t="n">
+        <v>-0.2186491859798245</v>
       </c>
     </row>
     <row r="220">
@@ -3512,13 +4171,16 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>9.261335477723453</v>
+        <v>4.504280356350818</v>
       </c>
       <c r="C220" t="n">
-        <v>51.19726734243457</v>
+        <v>4.576543556022053</v>
       </c>
       <c r="D220" t="n">
-        <v>-32.67459638698767</v>
+        <v>4.432017156679582</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.144526399342471</v>
       </c>
     </row>
     <row r="221">
@@ -3526,13 +4188,16 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.0554370858286477</v>
+        <v>4.054202754859374</v>
       </c>
       <c r="C221" t="n">
-        <v>384.403199698058</v>
+        <v>4.716503504546827</v>
       </c>
       <c r="D221" t="n">
-        <v>-384.2923255264006</v>
+        <v>3.391902005171922</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.324601499374905</v>
       </c>
     </row>
     <row r="222">
@@ -3540,13 +4205,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>2.620969252373121</v>
+        <v>4.221010549781374</v>
       </c>
       <c r="C222" t="n">
-        <v>363.8941617873057</v>
+        <v>4.843549639463204</v>
       </c>
       <c r="D222" t="n">
-        <v>-358.6522232825595</v>
+        <v>3.598471460099544</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.245078179363659</v>
       </c>
     </row>
     <row r="223">
@@ -3554,13 +4222,16 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>40.27879275620829</v>
+        <v>6.218618067638596</v>
       </c>
       <c r="C223" t="n">
-        <v>391.7043138519628</v>
+        <v>6.824187837315763</v>
       </c>
       <c r="D223" t="n">
-        <v>-311.1467283395461</v>
+        <v>5.61304829796143</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.211139539354333</v>
       </c>
     </row>
     <row r="224">
@@ -3568,13 +4239,16 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.05798665449115958</v>
+        <v>4.113772439842846</v>
       </c>
       <c r="C224" t="n">
-        <v>234.3924421482247</v>
+        <v>4.517772956732138</v>
       </c>
       <c r="D224" t="n">
-        <v>-234.5084154572071</v>
+        <v>3.709771922953554</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.8080010337785839</v>
       </c>
     </row>
     <row r="225">
@@ -3582,13 +4256,16 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>12.25688673411159</v>
+        <v>4.788984228198147</v>
       </c>
       <c r="C225" t="n">
-        <v>85.39773159245013</v>
+        <v>4.915019140053023</v>
       </c>
       <c r="D225" t="n">
-        <v>-60.88395812422695</v>
+        <v>4.66294931634327</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.2520698237097534</v>
       </c>
     </row>
     <row r="226">
@@ -3596,13 +4273,16 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-15.87555487943292</v>
+        <v>3.338558699630603</v>
       </c>
       <c r="C226" t="n">
-        <v>174.81471140916</v>
+        <v>3.667152537312063</v>
       </c>
       <c r="D226" t="n">
-        <v>-206.5658211680258</v>
+        <v>3.009964861949143</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.6571876753629198</v>
       </c>
     </row>
     <row r="227">
@@ -3610,13 +4290,16 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-17.55668369403307</v>
+        <v>3.286560274288788</v>
       </c>
       <c r="C227" t="n">
-        <v>16.6681581964927</v>
+        <v>3.345535870472754</v>
       </c>
       <c r="D227" t="n">
-        <v>-51.78152558455884</v>
+        <v>3.227584678104821</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.1179511923679328</v>
       </c>
     </row>
     <row r="228">
@@ -3624,13 +4307,16 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>6.302021381848544</v>
+        <v>4.567408756128184</v>
       </c>
       <c r="C228" t="n">
-        <v>46.95753659180991</v>
+        <v>4.637465566188642</v>
       </c>
       <c r="D228" t="n">
-        <v>-34.35349382811282</v>
+        <v>4.497351946067726</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.1401136201209159</v>
       </c>
     </row>
     <row r="229">
@@ -3638,13 +4324,16 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>6.822275116975449</v>
+        <v>4.611683128705359</v>
       </c>
       <c r="C229" t="n">
-        <v>-31.10921472281403</v>
+        <v>4.546320307319561</v>
       </c>
       <c r="D229" t="n">
-        <v>44.75376495676493</v>
+        <v>4.677045950091158</v>
+      </c>
+      <c r="E229" t="n">
+        <v>-0.1307256427715977</v>
       </c>
     </row>
     <row r="230">
@@ -3652,13 +4341,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-11.12676830401085</v>
+        <v>3.69097571545657</v>
       </c>
       <c r="C230" t="n">
-        <v>29.37032975746036</v>
+        <v>3.760759544101721</v>
       </c>
       <c r="D230" t="n">
-        <v>-51.62386636548207</v>
+        <v>3.62119188681142</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.1395676572903009</v>
       </c>
     </row>
     <row r="231">
@@ -3666,13 +4358,16 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-18.05996655849854</v>
+        <v>3.357249517890487</v>
       </c>
       <c r="C231" t="n">
-        <v>68.20108353244488</v>
+        <v>3.505892917700513</v>
       </c>
       <c r="D231" t="n">
-        <v>-104.321016649442</v>
+        <v>3.208606118080461</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.2972867996200526</v>
       </c>
     </row>
     <row r="232">
@@ -3680,13 +4375,16 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.5967618288369447</v>
+        <v>4.301827000172275</v>
       </c>
       <c r="C232" t="n">
-        <v>233.227469810014</v>
+        <v>4.70474846602648</v>
       </c>
       <c r="D232" t="n">
-        <v>-234.4209934676879</v>
+        <v>3.89890553431807</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.8058429317084101</v>
       </c>
     </row>
     <row r="233">
@@ -3694,13 +4392,16 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-10.80386206450546</v>
+        <v>3.78746943671771</v>
       </c>
       <c r="C233" t="n">
-        <v>113.8704286110937</v>
+        <v>4.002305801628485</v>
       </c>
       <c r="D233" t="n">
-        <v>-135.4781527401047</v>
+        <v>3.572633071806935</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.4296727298215499</v>
       </c>
     </row>
     <row r="234">
@@ -3708,13 +4409,16 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-2.857236840591519</v>
+        <v>4.229513954700892</v>
       </c>
       <c r="C234" t="n">
-        <v>63.93498301654774</v>
+        <v>4.344609036779731</v>
       </c>
       <c r="D234" t="n">
-        <v>-69.64945669773078</v>
+        <v>4.114418872622053</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.230190164157678</v>
       </c>
     </row>
     <row r="235">
@@ -3722,13 +4426,16 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.05559765754145207</v>
+        <v>4.40351919659282</v>
       </c>
       <c r="C235" t="n">
-        <v>-91.99514845226963</v>
+        <v>4.244899102791661</v>
       </c>
       <c r="D235" t="n">
-        <v>92.10634376735254</v>
+        <v>4.562139290393978</v>
+      </c>
+      <c r="E235" t="n">
+        <v>-0.3172401876023176</v>
       </c>
     </row>
     <row r="236">
@@ -3736,13 +4443,16 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-9.053989864818254</v>
+        <v>3.94794622886002</v>
       </c>
       <c r="C236" t="n">
-        <v>-156.9889329956657</v>
+        <v>3.693027550331427</v>
       </c>
       <c r="D236" t="n">
-        <v>138.8809532660292</v>
+        <v>4.202864907388613</v>
+      </c>
+      <c r="E236" t="n">
+        <v>-0.5098373570571861</v>
       </c>
     </row>
     <row r="237">
@@ -3750,13 +4460,16 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>29.338630809732</v>
+        <v>5.983669719478394</v>
       </c>
       <c r="C237" t="n">
-        <v>-41.16875363773275</v>
+        <v>5.862172736483933</v>
       </c>
       <c r="D237" t="n">
-        <v>99.84601525719674</v>
+        <v>6.105166702472856</v>
+      </c>
+      <c r="E237" t="n">
+        <v>-0.2429939659889229</v>
       </c>
     </row>
     <row r="238">
@@ -3764,13 +4477,16 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>32.40068086413807</v>
+        <v>6.150556724769642</v>
       </c>
       <c r="C238" t="n">
-        <v>87.24296760975703</v>
+        <v>6.245059909539949</v>
       </c>
       <c r="D238" t="n">
-        <v>-22.4416058814809</v>
+        <v>6.056053539999334</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.1890063695406141</v>
       </c>
     </row>
     <row r="239">
@@ -3778,13 +4494,16 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-8.08420520645457</v>
+        <v>4.043184190194332</v>
       </c>
       <c r="C239" t="n">
-        <v>-101.8275740463405</v>
+        <v>3.881647401118438</v>
       </c>
       <c r="D239" t="n">
-        <v>85.65916363343133</v>
+        <v>4.204720979270228</v>
+      </c>
+      <c r="E239" t="n">
+        <v>-0.3230735781517899</v>
       </c>
     </row>
     <row r="240">
@@ -3792,13 +4511,16 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-1.359594954424122</v>
+        <v>4.431398691290811</v>
       </c>
       <c r="C240" t="n">
-        <v>50.58453011894193</v>
+        <v>4.520907819024847</v>
       </c>
       <c r="D240" t="n">
-        <v>-53.30372002779018</v>
+        <v>4.341889563556775</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.1790182554680726</v>
       </c>
     </row>
     <row r="241">
@@ -3806,13 +4528,16 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-10.18381901027499</v>
+        <v>3.999657800945129</v>
       </c>
       <c r="C241" t="n">
-        <v>242.6187637972039</v>
+        <v>4.435282400340131</v>
       </c>
       <c r="D241" t="n">
-        <v>-262.9864018177539</v>
+        <v>3.564033201550127</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.8712491987900033</v>
       </c>
     </row>
     <row r="242">
@@ -3820,13 +4545,16 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>7.85121059770186</v>
+        <v>4.976854718513119</v>
       </c>
       <c r="C242" t="n">
-        <v>290.5018027232377</v>
+        <v>5.463912839502395</v>
       </c>
       <c r="D242" t="n">
-        <v>-274.799381527834</v>
+        <v>4.489796597523842</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.9741162419785532</v>
       </c>
     </row>
     <row r="243">
@@ -3834,13 +4562,16 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-5.719218582704323</v>
+        <v>4.289173552968744</v>
       </c>
       <c r="C243" t="n">
-        <v>527.0745605352786</v>
+        <v>5.207273653097761</v>
       </c>
       <c r="D243" t="n">
-        <v>-538.5129977006873</v>
+        <v>3.371073452839728</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.836200200258032</v>
       </c>
     </row>
     <row r="244">
@@ -3848,13 +4579,16 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-4.47900672951688</v>
+        <v>4.384958304895362</v>
       </c>
       <c r="C244" t="n">
-        <v>339.1153988367263</v>
+        <v>4.977033645332629</v>
       </c>
       <c r="D244" t="n">
-        <v>-348.0734122957601</v>
+        <v>3.792882964458096</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.184150680874533</v>
       </c>
     </row>
     <row r="245">
@@ -3862,13 +4596,16 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>6.355320891142764</v>
+        <v>4.981140402162809</v>
       </c>
       <c r="C245" t="n">
-        <v>113.6709663874496</v>
+        <v>5.166064680067621</v>
       </c>
       <c r="D245" t="n">
-        <v>-100.9603246051641</v>
+        <v>4.796216124257996</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.3698485558096252</v>
       </c>
     </row>
     <row r="246">
@@ -3876,13 +4613,16 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>19.85276904666594</v>
+        <v>5.710678343158422</v>
       </c>
       <c r="C246" t="n">
-        <v>-159.6344914824472</v>
+        <v>5.401389311787861</v>
       </c>
       <c r="D246" t="n">
-        <v>199.3400295757791</v>
+        <v>6.019967374528983</v>
+      </c>
+      <c r="E246" t="n">
+        <v>-0.6185780627411219</v>
       </c>
     </row>
     <row r="247">
@@ -3890,13 +4630,16 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-3.699276094684713</v>
+        <v>4.496271222783327</v>
       </c>
       <c r="C247" t="n">
-        <v>69.86414046883104</v>
+        <v>4.623034302158247</v>
       </c>
       <c r="D247" t="n">
-        <v>-77.26269265820045</v>
+        <v>4.369508143408408</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.253526158749839</v>
       </c>
     </row>
     <row r="248">
@@ -3904,13 +4647,16 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-6.535560308639945</v>
+        <v>4.381141323911986</v>
       </c>
       <c r="C248" t="n">
-        <v>157.5548725033406</v>
+        <v>4.663898834790378</v>
       </c>
       <c r="D248" t="n">
-        <v>-170.6259931206205</v>
+        <v>4.098383813033593</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.5655150217567844</v>
       </c>
     </row>
     <row r="249">
@@ -3918,13 +4664,16 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-10.79610988458682</v>
+        <v>4.191652829395821</v>
       </c>
       <c r="C249" t="n">
-        <v>123.0264486743489</v>
+        <v>4.422253315414771</v>
       </c>
       <c r="D249" t="n">
-        <v>-144.6186684435226</v>
+        <v>3.961052343376871</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.4612009720379002</v>
       </c>
     </row>
     <row r="250">
@@ -3932,13 +4681,16 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-16.67759037300146</v>
+        <v>3.918282527867404</v>
       </c>
       <c r="C250" t="n">
-        <v>142.3106116999037</v>
+        <v>4.192247971841072</v>
       </c>
       <c r="D250" t="n">
-        <v>-175.6657924459066</v>
+        <v>3.644317083893736</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.5479308879473357</v>
       </c>
     </row>
     <row r="251">
@@ -3946,13 +4698,16 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>17.96475915250633</v>
+        <v>5.766716064064843</v>
       </c>
       <c r="C251" t="n">
-        <v>-16.59518857282962</v>
+        <v>5.707163019884013</v>
       </c>
       <c r="D251" t="n">
-        <v>52.52470687784228</v>
+        <v>5.826269108245673</v>
+      </c>
+      <c r="E251" t="n">
+        <v>-0.1191060883616597</v>
       </c>
     </row>
     <row r="252">
@@ -3960,13 +4715,16 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>20.76262101824797</v>
+        <v>5.929216741615342</v>
       </c>
       <c r="C252" t="n">
-        <v>365.5806585834039</v>
+        <v>6.523400621425164</v>
       </c>
       <c r="D252" t="n">
-        <v>-324.055416546908</v>
+        <v>5.335032861805519</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1.188367759619645</v>
       </c>
     </row>
     <row r="253">
@@ -3974,13 +4732,16 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-3.971367479372464</v>
+        <v>4.653898675881428</v>
       </c>
       <c r="C253" t="n">
-        <v>314.944135394759</v>
+        <v>5.203447800884628</v>
       </c>
       <c r="D253" t="n">
-        <v>-322.886870353504</v>
+        <v>4.104349550878228</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1.099098250006399</v>
       </c>
     </row>
     <row r="254">
@@ -3988,13 +4749,16 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>13.42121262357</v>
+        <v>5.598863720413056</v>
       </c>
       <c r="C254" t="n">
-        <v>306.8292310645106</v>
+        <v>6.104458833695398</v>
       </c>
       <c r="D254" t="n">
-        <v>-279.9868058173706</v>
+        <v>5.093268607130714</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1.011190226564684</v>
       </c>
     </row>
     <row r="255">
@@ -4002,13 +4766,16 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>45.11593281078398</v>
+        <v>7.281736390160779</v>
       </c>
       <c r="C255" t="n">
-        <v>410.8527964362413</v>
+        <v>7.911967192913917</v>
       </c>
       <c r="D255" t="n">
-        <v>-320.6209308146733</v>
+        <v>6.65150558740764</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1.260461605506277</v>
       </c>
     </row>
     <row r="256">
@@ -4016,13 +4783,16 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>50.16435195392044</v>
+        <v>7.555829864688064</v>
       </c>
       <c r="C256" t="n">
-        <v>441.1353872405086</v>
+        <v>8.229543711794891</v>
       </c>
       <c r="D256" t="n">
-        <v>-340.8066833326677</v>
+        <v>6.882116017581236</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1.347427694213655</v>
       </c>
     </row>
     <row r="257">
@@ -4030,13 +4800,16 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>12.81325133087634</v>
+        <v>5.615145234058795</v>
       </c>
       <c r="C257" t="n">
-        <v>386.2707918612246</v>
+        <v>6.258680160315738</v>
       </c>
       <c r="D257" t="n">
-        <v>-360.6442891994719</v>
+        <v>4.971610307801852</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1.287069852513886</v>
       </c>
     </row>
     <row r="258">
@@ -4044,13 +4817,16 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>2.888224659009398</v>
+        <v>5.133935790275137</v>
       </c>
       <c r="C258" t="n">
-        <v>205.7091650609794</v>
+        <v>5.483432974719694</v>
       </c>
       <c r="D258" t="n">
-        <v>-199.9327157429606</v>
+        <v>4.78443860583058</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.6989943688891138</v>
       </c>
     </row>
     <row r="259">
@@ -4058,13 +4834,16 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>23.94407031019441</v>
+        <v>6.276716169499502</v>
       </c>
       <c r="C259" t="n">
-        <v>272.1312702066035</v>
+        <v>6.704387628901387</v>
       </c>
       <c r="D259" t="n">
-        <v>-224.2431295862147</v>
+        <v>5.849044710097617</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.8553429188037693</v>
       </c>
     </row>
     <row r="260">
@@ -4072,13 +4851,16 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>7.23234764529219</v>
+        <v>5.429618072741479</v>
       </c>
       <c r="C260" t="n">
-        <v>510.9320514787991</v>
+        <v>6.297583816054134</v>
       </c>
       <c r="D260" t="n">
-        <v>-496.4673561882147</v>
+        <v>4.561652329428824</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1.73593148662531</v>
       </c>
     </row>
     <row r="261">
@@ -4086,13 +4868,16 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>13.8426415027089</v>
+        <v>5.812634808024597</v>
       </c>
       <c r="C261" t="n">
-        <v>656.9557095566643</v>
+        <v>6.920835007268789</v>
       </c>
       <c r="D261" t="n">
-        <v>-629.2704265512464</v>
+        <v>4.704434608780404</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2.216400398488386</v>
       </c>
     </row>
     <row r="262">
@@ -4100,13 +4885,16 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>23.85854937324378</v>
+        <v>6.368741652813701</v>
       </c>
       <c r="C262" t="n">
-        <v>825.8748008487487</v>
+        <v>7.750760793509607</v>
       </c>
       <c r="D262" t="n">
-        <v>-778.1577021022611</v>
+        <v>4.986722512117795</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2.764038281391812</v>
       </c>
     </row>
     <row r="263">
@@ -4114,13 +4902,16 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>3.682028978917328</v>
+        <v>5.339865068725565</v>
       </c>
       <c r="C263" t="n">
-        <v>621.0518725303896</v>
+        <v>6.403705033448064</v>
       </c>
       <c r="D263" t="n">
-        <v>-613.687814572555</v>
+        <v>4.276025104003066</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2.127679929444998</v>
       </c>
     </row>
     <row r="264">
@@ -4128,13 +4919,16 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>3.271491694160374</v>
+        <v>5.357117269700324</v>
       </c>
       <c r="C264" t="n">
-        <v>387.159100954095</v>
+        <v>6.018625091888668</v>
       </c>
       <c r="D264" t="n">
-        <v>-380.6161175657742</v>
+        <v>4.69560944751198</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1.323015644376689</v>
       </c>
     </row>
     <row r="265">
@@ -4142,13 +4936,16 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-48.06669488746481</v>
+        <v>2.707978983575369</v>
       </c>
       <c r="C265" t="n">
-        <v>265.6612933918072</v>
+        <v>3.248589082156666</v>
       </c>
       <c r="D265" t="n">
-        <v>-361.7946831667368</v>
+        <v>2.167368884994072</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1.081220197162594</v>
       </c>
     </row>
     <row r="266">
@@ -4156,13 +4953,16 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-48.96879844007296</v>
+        <v>2.722815928150564</v>
       </c>
       <c r="C266" t="n">
-        <v>231.714705363323</v>
+        <v>3.206484399980443</v>
       </c>
       <c r="D266" t="n">
-        <v>-329.6523022434689</v>
+        <v>2.239147456320685</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.9673369436597579</v>
       </c>
     </row>
     <row r="267">
@@ -4170,13 +4970,16 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-37.21501977468012</v>
+        <v>3.391352695329897</v>
       </c>
       <c r="C267" t="n">
-        <v>373.9428900599713</v>
+        <v>4.099852180464538</v>
       </c>
       <c r="D267" t="n">
-        <v>-448.3729296093315</v>
+        <v>2.682853210195256</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1.416998970269281</v>
       </c>
     </row>
     <row r="268">
@@ -4184,13 +4987,16 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-44.82177652966309</v>
+        <v>3.034475681528456</v>
       </c>
       <c r="C268" t="n">
-        <v>52.47772682771957</v>
+        <v>3.202140333925111</v>
       </c>
       <c r="D268" t="n">
-        <v>-142.1212798870457</v>
+        <v>2.866811029131801</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.3353293047933095</v>
       </c>
     </row>
     <row r="269">
@@ -4198,13 +5004,16 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-4.000574115282213</v>
+        <v>5.212706126265126</v>
       </c>
       <c r="C269" t="n">
-        <v>314.7966885754715</v>
+        <v>5.762051502034658</v>
       </c>
       <c r="D269" t="n">
-        <v>-322.7978368060359</v>
+        <v>4.663360750495595</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1.098690751539063</v>
       </c>
     </row>
     <row r="270">
@@ -4212,13 +5021,16 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-24.12325750862709</v>
+        <v>4.178185615614719</v>
       </c>
       <c r="C270" t="n">
-        <v>228.2043000649735</v>
+        <v>4.612991660567307</v>
       </c>
       <c r="D270" t="n">
-        <v>-276.4508150822276</v>
+        <v>3.743379570662131</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.8696120899051754</v>
       </c>
     </row>
     <row r="271">
@@ -4226,13 +5038,16 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-22.52654653597893</v>
+        <v>4.294698390598016</v>
       </c>
       <c r="C271" t="n">
-        <v>130.9384934242228</v>
+        <v>4.559146426735023</v>
       </c>
       <c r="D271" t="n">
-        <v>-175.9915864961807</v>
+        <v>4.030250354461009</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.5288960722740139</v>
       </c>
     </row>
     <row r="272">
@@ -4240,13 +5055,16 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-12.22270450673013</v>
+        <v>4.865824050470878</v>
       </c>
       <c r="C272" t="n">
-        <v>-34.19819509116896</v>
+        <v>4.827956303329841</v>
       </c>
       <c r="D272" t="n">
-        <v>9.752786077708702</v>
+        <v>4.903691797611915</v>
+      </c>
+      <c r="E272" t="n">
+        <v>-0.07573549428207471</v>
       </c>
     </row>
     <row r="273">
@@ -4254,13 +5072,16 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>16.13961829289414</v>
+        <v>6.376625803394272</v>
       </c>
       <c r="C273" t="n">
-        <v>-256.5201377475855</v>
+        <v>5.906783701002749</v>
       </c>
       <c r="D273" t="n">
-        <v>288.7993743333737</v>
+        <v>6.846467905785794</v>
+      </c>
+      <c r="E273" t="n">
+        <v>-0.9396842047830454</v>
       </c>
     </row>
     <row r="274">
@@ -4268,13 +5089,16 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>-9.862023575342501</v>
+        <v>5.030110044404434</v>
       </c>
       <c r="C274" t="n">
-        <v>-120.2352289216343</v>
+        <v>4.839917037557123</v>
       </c>
       <c r="D274" t="n">
-        <v>100.5111817709493</v>
+        <v>5.220303051251744</v>
+      </c>
+      <c r="E274" t="n">
+        <v>-0.3803860136946202</v>
       </c>
     </row>
     <row r="275">
@@ -4282,13 +5106,16 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>13.37450217979443</v>
+        <v>6.278841798041605</v>
       </c>
       <c r="C275" t="n">
-        <v>-71.13341346934105</v>
+        <v>6.133219366136324</v>
       </c>
       <c r="D275" t="n">
-        <v>97.88241782892992</v>
+        <v>6.424464229946886</v>
+      </c>
+      <c r="E275" t="n">
+        <v>-0.2912448638105616</v>
       </c>
     </row>
     <row r="276">
@@ -4296,13 +5123,16 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>11.39768320074013</v>
+        <v>6.196276532731431</v>
       </c>
       <c r="C276" t="n">
-        <v>-259.5878181760657</v>
+        <v>5.7293194741122</v>
       </c>
       <c r="D276" t="n">
-        <v>282.3831845775459</v>
+        <v>6.663233591350661</v>
+      </c>
+      <c r="E276" t="n">
+        <v>-0.9339141172384604</v>
       </c>
     </row>
     <row r="277">
@@ -4310,13 +5140,16 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-5.911341508944233</v>
+        <v>5.316077649595725</v>
       </c>
       <c r="C277" t="n">
-        <v>-439.4414916917883</v>
+        <v>4.569026745678025</v>
       </c>
       <c r="D277" t="n">
-        <v>427.6188086738998</v>
+        <v>6.063128553513424</v>
+      </c>
+      <c r="E277" t="n">
+        <v>-1.494101807835399</v>
       </c>
     </row>
     <row r="278">
@@ -4324,13 +5157,16 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>4.962431872845551</v>
+        <v>5.921555557933977</v>
       </c>
       <c r="C278" t="n">
-        <v>-422.5612219551044</v>
+        <v>5.18485493422034</v>
       </c>
       <c r="D278" t="n">
-        <v>432.4860857007955</v>
+        <v>6.658256181647614</v>
+      </c>
+      <c r="E278" t="n">
+        <v>-1.473401247427274</v>
       </c>
     </row>
     <row r="279">
@@ -4338,13 +5174,16 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>8.479254588510145</v>
+        <v>6.135323343197764</v>
       </c>
       <c r="C279" t="n">
-        <v>-106.6092651751014</v>
+        <v>5.937004996287648</v>
       </c>
       <c r="D279" t="n">
-        <v>123.5677743521217</v>
+        <v>6.33364169010788</v>
+      </c>
+      <c r="E279" t="n">
+        <v>-0.3966366938202324</v>
       </c>
     </row>
     <row r="280">
@@ -4352,13 +5191,16 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-1.837120326420473</v>
+        <v>5.624369929995678</v>
       </c>
       <c r="C280" t="n">
-        <v>-141.4517441716124</v>
+        <v>5.383788667309124</v>
       </c>
       <c r="D280" t="n">
-        <v>137.7775035187715</v>
+        <v>5.864951192682233</v>
+      </c>
+      <c r="E280" t="n">
+        <v>-0.4811625253731098</v>
       </c>
     </row>
     <row r="281">
@@ -4366,13 +5208,16 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>1.592658361849127</v>
+        <v>5.839105306094703</v>
       </c>
       <c r="C281" t="n">
-        <v>-349.8641686542401</v>
+        <v>5.233481590651426</v>
       </c>
       <c r="D281" t="n">
-        <v>353.0494853779384</v>
+        <v>6.444729021537981</v>
+      </c>
+      <c r="E281" t="n">
+        <v>-1.211247430886555</v>
       </c>
     </row>
     <row r="282">
@@ -4380,13 +5225,16 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>-3.262984924435796</v>
+        <v>5.617754936335294</v>
       </c>
       <c r="C282" t="n">
-        <v>-345.7936138430224</v>
+        <v>5.02751267557164</v>
       </c>
       <c r="D282" t="n">
-        <v>339.2676439941508</v>
+        <v>6.207997197098948</v>
+      </c>
+      <c r="E282" t="n">
+        <v>-1.180484521527308</v>
       </c>
     </row>
     <row r="283">
@@ -4394,13 +5242,16 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>1.300638525807168</v>
+        <v>5.891688909893022</v>
       </c>
       <c r="C283" t="n">
-        <v>-337.6215456388485</v>
+        <v>5.30766465245399</v>
       </c>
       <c r="D283" t="n">
-        <v>340.2228226904629</v>
+        <v>6.475713167332053</v>
+      </c>
+      <c r="E283" t="n">
+        <v>-1.168048514878063</v>
       </c>
     </row>
     <row r="284">
@@ -4408,13 +5259,16 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>13.35721291180121</v>
+        <v>6.554492293224503</v>
       </c>
       <c r="C284" t="n">
-        <v>-693.9235804789728</v>
+        <v>5.335719490909923</v>
       </c>
       <c r="D284" t="n">
-        <v>720.6380063025751</v>
+        <v>7.773265095539084</v>
+      </c>
+      <c r="E284" t="n">
+        <v>-2.437545604629161</v>
       </c>
     </row>
     <row r="285">
@@ -4422,13 +5276,16 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>36.76074868782349</v>
+        <v>7.804859690256348</v>
       </c>
       <c r="C285" t="n">
-        <v>-585.0917984591348</v>
+        <v>6.733295216012214</v>
       </c>
       <c r="D285" t="n">
-        <v>658.6132958347818</v>
+        <v>8.876424164500481</v>
+      </c>
+      <c r="E285" t="n">
+        <v>-2.143128948488267</v>
       </c>
     </row>
     <row r="286">
@@ -4436,13 +5293,16 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>8.090208723658424</v>
+        <v>6.320484255854709</v>
       </c>
       <c r="C286" t="n">
-        <v>-566.7264223339215</v>
+        <v>5.329971177035664</v>
       </c>
       <c r="D286" t="n">
-        <v>582.9068397812383</v>
+        <v>7.310997334673755</v>
+      </c>
+      <c r="E286" t="n">
+        <v>-1.981026157638091</v>
       </c>
     </row>
     <row r="287">
@@ -4450,13 +5310,16 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>41.81499635056672</v>
+        <v>8.120468614275213</v>
       </c>
       <c r="C287" t="n">
-        <v>-350.121332451948</v>
+        <v>7.445091391753055</v>
       </c>
       <c r="D287" t="n">
-        <v>433.7513251530814</v>
+        <v>8.795845836797371</v>
+      </c>
+      <c r="E287" t="n">
+        <v>-1.350754445044316</v>
       </c>
     </row>
     <row r="288">
@@ -4464,13 +5327,16 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>0.2401503847664408</v>
+        <v>5.962259718548168</v>
       </c>
       <c r="C288" t="n">
-        <v>-56.4041545092869</v>
+        <v>5.864651330400203</v>
       </c>
       <c r="D288" t="n">
-        <v>56.88445527881977</v>
+        <v>6.059868106696133</v>
+      </c>
+      <c r="E288" t="n">
+        <v>-0.1952167762959292</v>
       </c>
     </row>
     <row r="289">
@@ -4478,13 +5344,16 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.4079583650938825</v>
+        <v>5.971373484023899</v>
       </c>
       <c r="C289" t="n">
-        <v>123.0953012278231</v>
+        <v>6.184191950459875</v>
       </c>
       <c r="D289" t="n">
-        <v>-123.9112179580109</v>
+        <v>5.758555017587923</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.4256369328719511</v>
       </c>
     </row>
     <row r="290">
@@ -4492,13 +5361,16 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>11.01729301671331</v>
+        <v>6.609183435762385</v>
       </c>
       <c r="C290" t="n">
-        <v>76.9448357722478</v>
+        <v>6.722788522716137</v>
       </c>
       <c r="D290" t="n">
-        <v>-54.91024973882118</v>
+        <v>6.495578348808634</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.227210173907503</v>
       </c>
     </row>
     <row r="291">
@@ -4506,13 +5378,16 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>14.21520083838696</v>
+        <v>6.808149245323694</v>
       </c>
       <c r="C291" t="n">
-        <v>-98.16441735500266</v>
+        <v>6.614498826043997</v>
       </c>
       <c r="D291" t="n">
-        <v>126.5948190317766</v>
+        <v>7.001799664603391</v>
+      </c>
+      <c r="E291" t="n">
+        <v>-0.3873008385593941</v>
       </c>
     </row>
     <row r="292">
@@ -4520,13 +5395,16 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>1.996366196850456</v>
+        <v>6.198840202522971</v>
       </c>
       <c r="C292" t="n">
-        <v>298.8647206729484</v>
+        <v>6.710398101004527</v>
       </c>
       <c r="D292" t="n">
-        <v>-294.8719882792475</v>
+        <v>5.687282304041414</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1.023115796963113</v>
       </c>
     </row>
     <row r="293">
@@ -4534,13 +5412,16 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.0252201857959955</v>
+        <v>6.129831970699387</v>
       </c>
       <c r="C293" t="n">
-        <v>266.5687213307743</v>
+        <v>6.589221576946933</v>
       </c>
       <c r="D293" t="n">
-        <v>-266.6191617023663</v>
+        <v>5.670442364451841</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.9187792124950924</v>
       </c>
     </row>
     <row r="294">
@@ -4548,13 +5429,16 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>-6.023718167929657</v>
+        <v>5.85217101425222</v>
       </c>
       <c r="C294" t="n">
-        <v>227.3683264223499</v>
+        <v>6.254347743609642</v>
       </c>
       <c r="D294" t="n">
-        <v>-239.4157627582092</v>
+        <v>5.449994284894798</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.8043534587148446</v>
       </c>
     </row>
     <row r="295">
@@ -4562,13 +5446,16 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>-11.82357352601741</v>
+        <v>5.586507281613842</v>
       </c>
       <c r="C295" t="n">
-        <v>186.9358071320841</v>
+        <v>5.929005663606728</v>
       </c>
       <c r="D295" t="n">
-        <v>-210.582954184119</v>
+        <v>5.244008899620956</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.6849967639857724</v>
       </c>
     </row>
     <row r="296">
@@ -4576,13 +5463,16 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>7.154538727315002</v>
+        <v>6.618216945423703</v>
       </c>
       <c r="C296" t="n">
-        <v>209.924098793587</v>
+        <v>6.967625592251647</v>
       </c>
       <c r="D296" t="n">
-        <v>-195.615021338957</v>
+        <v>6.26880829859576</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.6988172936558872</v>
       </c>
     </row>
     <row r="297">
@@ -4590,13 +5480,16 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>12.74704368305693</v>
+        <v>6.93738293490137</v>
       </c>
       <c r="C297" t="n">
-        <v>166.5175294262414</v>
+        <v>7.202357309398416</v>
       </c>
       <c r="D297" t="n">
-        <v>-141.0234420601276</v>
+        <v>6.672408560404324</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.5299487489940926</v>
       </c>
     </row>
     <row r="298">
@@ -4604,13 +5497,16 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.1168508379861528</v>
+        <v>6.2892158953363</v>
       </c>
       <c r="C298" t="n">
-        <v>45.36133761226633</v>
+        <v>6.367583044140072</v>
       </c>
       <c r="D298" t="n">
-        <v>-45.59503928823862</v>
+        <v>6.210848746532528</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.1567342976075441</v>
       </c>
     </row>
     <row r="299">
@@ -4618,13 +5514,16 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>16.30461760454362</v>
+        <v>7.181597728875929</v>
       </c>
       <c r="C299" t="n">
-        <v>-28.04815726497355</v>
+        <v>7.105169871335786</v>
       </c>
       <c r="D299" t="n">
-        <v>60.65739247406078</v>
+        <v>7.258025586416071</v>
+      </c>
+      <c r="E299" t="n">
+        <v>-0.1528557150802854</v>
       </c>
     </row>
     <row r="300">
@@ -4632,13 +5531,16 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>18.47990307954739</v>
+        <v>7.319216409496339</v>
       </c>
       <c r="C300" t="n">
-        <v>-25.01324902809266</v>
+        <v>7.244269837539258</v>
       </c>
       <c r="D300" t="n">
-        <v>61.97305518718744</v>
+        <v>7.39416298145342</v>
+      </c>
+      <c r="E300" t="n">
+        <v>-0.1498931439141611</v>
       </c>
     </row>
     <row r="301">
@@ -4646,13 +5548,16 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>28.14754973461977</v>
+        <v>7.849567082007631</v>
       </c>
       <c r="C301" t="n">
-        <v>-92.85733090810913</v>
+        <v>7.641053774629866</v>
       </c>
       <c r="D301" t="n">
-        <v>149.1524303773487</v>
+        <v>8.058080389385397</v>
+      </c>
+      <c r="E301" t="n">
+        <v>-0.4170266147555308</v>
       </c>
     </row>
     <row r="302">
@@ -4660,13 +5565,16 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>32.08699822564194</v>
+        <v>8.076776580683051</v>
       </c>
       <c r="C302" t="n">
-        <v>-182.1183661870074</v>
+        <v>7.707661973449852</v>
       </c>
       <c r="D302" t="n">
-        <v>246.2923626382913</v>
+        <v>8.445891187916249</v>
+      </c>
+      <c r="E302" t="n">
+        <v>-0.7382292144663971</v>
       </c>
     </row>
     <row r="303">
@@ -4674,13 +5582,16 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>11.48973880261625</v>
+        <v>7.020689554605494</v>
       </c>
       <c r="C303" t="n">
-        <v>-158.0133370167232</v>
+        <v>6.728605080309388</v>
       </c>
       <c r="D303" t="n">
-        <v>180.9928146219557</v>
+        <v>7.3127740289016</v>
+      </c>
+      <c r="E303" t="n">
+        <v>-0.5841689485922128</v>
       </c>
     </row>
     <row r="304">
@@ -4688,13 +5599,16 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>1.174052136174639</v>
+        <v>6.515506307594492</v>
       </c>
       <c r="C304" t="n">
-        <v>-184.9355012267926</v>
+        <v>6.194805867247066</v>
       </c>
       <c r="D304" t="n">
-        <v>187.2836054991419</v>
+        <v>6.836206747941919</v>
+      </c>
+      <c r="E304" t="n">
+        <v>-0.641400880694853</v>
       </c>
     </row>
     <row r="305">
@@ -4702,13 +5616,16 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>14.83222664142256</v>
+        <v>7.268343638555118</v>
       </c>
       <c r="C305" t="n">
-        <v>83.86920978759876</v>
+        <v>7.387306854011644</v>
       </c>
       <c r="D305" t="n">
-        <v>-54.20475650475363</v>
+        <v>7.149380423098592</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.2379264309130527</v>
       </c>
     </row>
     <row r="306">
@@ -4716,13 +5633,16 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>22.35049579925064</v>
+        <v>7.690035959796502</v>
       </c>
       <c r="C306" t="n">
-        <v>-324.0087942554429</v>
+        <v>7.093196223029582</v>
       </c>
       <c r="D306" t="n">
-        <v>368.7097858539443</v>
+        <v>8.28687569656342</v>
+      </c>
+      <c r="E306" t="n">
+        <v>-1.193679473533838</v>
       </c>
     </row>
     <row r="307">
@@ -4730,13 +5650,16 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>17.57252750161744</v>
+        <v>7.464536951977891</v>
       </c>
       <c r="C307" t="n">
-        <v>-115.6105320306018</v>
+        <v>7.235038438510935</v>
       </c>
       <c r="D307" t="n">
-        <v>150.7555870338366</v>
+        <v>7.694035465444848</v>
+      </c>
+      <c r="E307" t="n">
+        <v>-0.458997026933913</v>
       </c>
     </row>
     <row r="308">
@@ -4744,13 +5667,16 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>16.40360088839127</v>
+        <v>7.431452921687677</v>
       </c>
       <c r="C308" t="n">
-        <v>91.82892393273353</v>
+        <v>7.561424402874847</v>
       </c>
       <c r="D308" t="n">
-        <v>-59.021722155951</v>
+        <v>7.301481440500508</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.259942962374339</v>
       </c>
     </row>
     <row r="309">
@@ -4758,13 +5684,16 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>34.20085214090859</v>
+        <v>8.391255076887802</v>
       </c>
       <c r="C309" t="n">
-        <v>-218.1061794973422</v>
+        <v>7.956484401836363</v>
       </c>
       <c r="D309" t="n">
-        <v>286.5078837791593</v>
+        <v>8.826025751939241</v>
+      </c>
+      <c r="E309" t="n">
+        <v>-0.8695413501028781</v>
       </c>
     </row>
     <row r="310">
@@ -4772,13 +5701,16 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>16.86260914789881</v>
+        <v>7.503227721237424</v>
       </c>
       <c r="C310" t="n">
-        <v>-254.5165062314808</v>
+        <v>7.035592394460158</v>
       </c>
       <c r="D310" t="n">
-        <v>288.2417245272784</v>
+        <v>7.97086304801469</v>
+      </c>
+      <c r="E310" t="n">
+        <v>-0.9352706535545323</v>
       </c>
     </row>
     <row r="311">
@@ -4786,13 +5718,16 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>22.82067785676551</v>
+        <v>7.845508304710839</v>
       </c>
       <c r="C311" t="n">
-        <v>-269.5088259032319</v>
+        <v>7.341771667400577</v>
       </c>
       <c r="D311" t="n">
-        <v>315.1501816167628</v>
+        <v>8.349244942021102</v>
+      </c>
+      <c r="E311" t="n">
+        <v>-1.007473274620525</v>
       </c>
     </row>
     <row r="312">
@@ -4800,13 +5735,16 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>15.03965559517864</v>
+        <v>7.464806060850041</v>
       </c>
       <c r="C312" t="n">
-        <v>-454.2350787703408</v>
+        <v>6.656160769754038</v>
       </c>
       <c r="D312" t="n">
-        <v>484.3143899606981</v>
+        <v>8.273451351946044</v>
+      </c>
+      <c r="E312" t="n">
+        <v>-1.617290582192005</v>
       </c>
     </row>
     <row r="313">
@@ -4814,13 +5752,16 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>9.269394787863348</v>
+        <v>7.193419454451172</v>
       </c>
       <c r="C313" t="n">
-        <v>-516.9997796828865</v>
+        <v>6.286562428875023</v>
       </c>
       <c r="D313" t="n">
-        <v>535.5385692586132</v>
+        <v>8.100276480027322</v>
+      </c>
+      <c r="E313" t="n">
+        <v>-1.813714051152299</v>
       </c>
     </row>
     <row r="314">
@@ -4828,13 +5769,16 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>26.30127565395708</v>
+        <v>8.116802077211693</v>
       </c>
       <c r="C314" t="n">
-        <v>-600.4012307713161</v>
+        <v>7.036880245442827</v>
       </c>
       <c r="D314" t="n">
-        <v>653.0037820792303</v>
+        <v>9.196723908980559</v>
+      </c>
+      <c r="E314" t="n">
+        <v>-2.159843663537732</v>
       </c>
     </row>
     <row r="315">
@@ -4842,13 +5786,16 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>34.02699853423697</v>
+        <v>8.542599256622546</v>
       </c>
       <c r="C315" t="n">
-        <v>-241.0822181222695</v>
+        <v>8.068536290315235</v>
       </c>
       <c r="D315" t="n">
-        <v>309.1362151907434</v>
+        <v>9.016662222929858</v>
+      </c>
+      <c r="E315" t="n">
+        <v>-0.948125932614623</v>
       </c>
     </row>
     <row r="316">
@@ -4856,13 +5803,16 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>39.33431651729207</v>
+        <v>8.839092056882816</v>
       </c>
       <c r="C316" t="n">
-        <v>-55.92251709430126</v>
+        <v>8.674947294116338</v>
       </c>
       <c r="D316" t="n">
-        <v>134.5911501288854</v>
+        <v>9.003236819649294</v>
+      </c>
+      <c r="E316" t="n">
+        <v>-0.3282895255329557</v>
       </c>
     </row>
     <row r="317">
@@ -4870,13 +5820,16 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>51.00830173610542</v>
+        <v>9.467898227254947</v>
       </c>
       <c r="C317" t="n">
-        <v>163.2359204447519</v>
+        <v>9.661286723915365</v>
       </c>
       <c r="D317" t="n">
-        <v>-61.21931697254099</v>
+        <v>9.274509730594529</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.3867769933208365</v>
       </c>
     </row>
     <row r="318">
@@ -4884,13 +5837,16 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>38.70097063811391</v>
+        <v>8.838021815446327</v>
       </c>
       <c r="C318" t="n">
-        <v>246.6450569629759</v>
+        <v>9.196347107442307</v>
       </c>
       <c r="D318" t="n">
-        <v>-169.243115686748</v>
+        <v>8.479696523450347</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.7166505839919601</v>
       </c>
     </row>
     <row r="319">
@@ -4898,13 +5854,16 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>40.5678239038855</v>
+        <v>8.959275494497346</v>
       </c>
       <c r="C319" t="n">
-        <v>47.92879203847592</v>
+        <v>8.971959774694088</v>
       </c>
       <c r="D319" t="n">
-        <v>33.20685576929507</v>
+        <v>8.946591214300604</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.02536856039348478</v>
       </c>
     </row>
     <row r="320">
@@ -4912,13 +5871,16 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>25.98019113300896</v>
+        <v>8.21884489438866</v>
       </c>
       <c r="C320" t="n">
-        <v>-48.01417400428045</v>
+        <v>8.091339212633159</v>
       </c>
       <c r="D320" t="n">
-        <v>99.97455627029836</v>
+        <v>8.346350576144161</v>
+      </c>
+      <c r="E320" t="n">
+        <v>-0.2550113635110023</v>
       </c>
     </row>
     <row r="321">
@@ -4926,13 +5888,16 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>25.80074601320829</v>
+        <v>8.240122646763117</v>
       </c>
       <c r="C321" t="n">
-        <v>36.60796099542531</v>
+        <v>8.258745433939264</v>
       </c>
       <c r="D321" t="n">
-        <v>14.99353103099127</v>
+        <v>8.22149985958697</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.03724557435229414</v>
       </c>
     </row>
     <row r="322">
@@ -4940,13 +5905,16 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>18.39024092022058</v>
+        <v>7.881001354904932</v>
       </c>
       <c r="C322" t="n">
-        <v>-159.5189315194856</v>
+        <v>7.574431654896114</v>
       </c>
       <c r="D322" t="n">
-        <v>196.2994133599268</v>
+        <v>8.18757105491375</v>
+      </c>
+      <c r="E322" t="n">
+        <v>-0.6131394000176362</v>
       </c>
     </row>
     <row r="323">
@@ -4954,13 +5922,16 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>16.77554522873022</v>
+        <v>7.827298922494799</v>
       </c>
       <c r="C323" t="n">
-        <v>-28.28930757927745</v>
+        <v>7.749644025803204</v>
       </c>
       <c r="D323" t="n">
-        <v>61.84039803673789</v>
+        <v>7.904953819186393</v>
+      </c>
+      <c r="E323" t="n">
+        <v>-0.1553097933831893</v>
       </c>
     </row>
     <row r="324">
@@ -4968,13 +5939,16 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>23.62870564086163</v>
+        <v>8.215048135328564</v>
       </c>
       <c r="C324" t="n">
-        <v>-52.29135017459717</v>
+        <v>8.084224140045881</v>
       </c>
       <c r="D324" t="n">
-        <v>99.54876145632042</v>
+        <v>8.345872130611246</v>
+      </c>
+      <c r="E324" t="n">
+        <v>-0.2616479905653648</v>
       </c>
     </row>
     <row r="325">
@@ -4982,13 +5956,16 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>5.826007437739733</v>
+        <v>7.30716102505311</v>
       </c>
       <c r="C325" t="n">
-        <v>-117.4700896794665</v>
+        <v>7.094699537052596</v>
       </c>
       <c r="D325" t="n">
-        <v>129.1221045549459</v>
+        <v>7.519622513053625</v>
+      </c>
+      <c r="E325" t="n">
+        <v>-0.424922976001028</v>
       </c>
     </row>
     <row r="326">
@@ -4996,13 +5973,16 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>39.8859349734754</v>
+        <v>9.121465330476582</v>
       </c>
       <c r="C326" t="n">
-        <v>41.88292424088907</v>
+        <v>9.124906504375804</v>
       </c>
       <c r="D326" t="n">
-        <v>37.88894570606173</v>
+        <v>9.118024156577359</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.00688234779844521</v>
       </c>
     </row>
     <row r="327">
@@ -5010,13 +5990,16 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>14.37945548500421</v>
+        <v>7.798334932243876</v>
       </c>
       <c r="C327" t="n">
-        <v>84.19249275530635</v>
+        <v>7.918635429397356</v>
       </c>
       <c r="D327" t="n">
-        <v>-55.43358178529794</v>
+        <v>7.678034435090395</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.2406009943069609</v>
       </c>
     </row>
     <row r="328">
@@ -5024,13 +6007,16 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>-7.081661912173823</v>
+        <v>6.702931500963297</v>
       </c>
       <c r="C328" t="n">
-        <v>-1.838145456903819</v>
+        <v>6.711967028725241</v>
       </c>
       <c r="D328" t="n">
-        <v>-12.32517836744383</v>
+        <v>6.693895973201353</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.01807105552388855</v>
       </c>
     </row>
     <row r="329">
@@ -5038,13 +6024,16 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>15.7398661597373</v>
+        <v>7.933471848507513</v>
       </c>
       <c r="C329" t="n">
-        <v>197.9488528193733</v>
+        <v>8.24745090654673</v>
       </c>
       <c r="D329" t="n">
-        <v>-166.4691204998987</v>
+        <v>7.619492790468297</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.6279581160784327</v>
       </c>
     </row>
     <row r="330">
@@ -5052,13 +6041,16 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>26.08466084425374</v>
+        <v>8.494506233538338</v>
       </c>
       <c r="C330" t="n">
-        <v>18.47561120416396</v>
+        <v>8.481394464012768</v>
       </c>
       <c r="D330" t="n">
-        <v>33.69371048434352</v>
+        <v>8.507618003063909</v>
+      </c>
+      <c r="E330" t="n">
+        <v>-0.02622353905114139</v>
       </c>
     </row>
     <row r="331">
@@ -5066,13 +6058,16 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>30.75404830987566</v>
+        <v>8.753209107930157</v>
       </c>
       <c r="C331" t="n">
-        <v>118.5420790186684</v>
+        <v>8.904483771679608</v>
       </c>
       <c r="D331" t="n">
-        <v>-57.03398239891706</v>
+        <v>8.601934444180706</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.3025493274989017</v>
       </c>
     </row>
     <row r="332">
@@ -5080,13 +6075,16 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>34.14617430003178</v>
+        <v>8.94410923837504</v>
       </c>
       <c r="C332" t="n">
-        <v>201.1873684273374</v>
+        <v>9.231951444993577</v>
       </c>
       <c r="D332" t="n">
-        <v>-132.8950198272738</v>
+        <v>8.656267031756503</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.5756844132370738</v>
       </c>
     </row>
     <row r="333">
@@ -5094,13 +6092,16 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>26.28328948300662</v>
+        <v>8.54597813085865</v>
       </c>
       <c r="C333" t="n">
-        <v>123.7473416602403</v>
+        <v>8.713926330650004</v>
       </c>
       <c r="D333" t="n">
-        <v>-71.18076269422711</v>
+        <v>8.378029931067296</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0.3358963995827082</v>
       </c>
     </row>
     <row r="334">
@@ -5108,13 +6109,16 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>6.499460234315302</v>
+        <v>7.529706810360949</v>
       </c>
       <c r="C334" t="n">
-        <v>141.0228239446243</v>
+        <v>7.761514910479132</v>
       </c>
       <c r="D334" t="n">
-        <v>-128.0239034759937</v>
+        <v>7.297898710242766</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0.4636162002363662</v>
       </c>
     </row>
     <row r="335">
@@ -5122,13 +6126,16 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>8.059116208559544</v>
+        <v>7.640078986811173</v>
       </c>
       <c r="C335" t="n">
-        <v>-66.97412753851505</v>
+        <v>7.510783129207064</v>
       </c>
       <c r="D335" t="n">
-        <v>83.09235995563414</v>
+        <v>7.769374844415283</v>
+      </c>
+      <c r="E335" t="n">
+        <v>-0.2585917152082189</v>
       </c>
     </row>
     <row r="336">
@@ -5136,13 +6143,16 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>-2.909727397623378</v>
+        <v>7.090724900300781</v>
       </c>
       <c r="C336" t="n">
-        <v>73.60424813886971</v>
+        <v>7.222572326743363</v>
       </c>
       <c r="D336" t="n">
-        <v>-79.42370293411645</v>
+        <v>6.9588774738582</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.2636948528851626</v>
       </c>
     </row>
     <row r="337">
@@ -5150,13 +6160,16 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>15.81353231533877</v>
+        <v>8.098265738013652</v>
       </c>
       <c r="C337" t="n">
-        <v>53.85057051099656</v>
+        <v>8.163810438317503</v>
       </c>
       <c r="D337" t="n">
-        <v>-22.22350588031901</v>
+        <v>8.0327210377098</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.1310894006077028</v>
       </c>
     </row>
     <row r="338">
@@ -5164,13 +6177,16 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>11.1177281327785</v>
+        <v>7.867359696424603</v>
       </c>
       <c r="C338" t="n">
-        <v>-35.99119963334071</v>
+        <v>7.786182488667702</v>
       </c>
       <c r="D338" t="n">
-        <v>58.22665589889772</v>
+        <v>7.948536904181504</v>
+      </c>
+      <c r="E338" t="n">
+        <v>-0.1623544155138017</v>
       </c>
     </row>
     <row r="339">
@@ -5178,13 +6194,16 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>-3.101322825784379</v>
+        <v>7.14095207005672</v>
       </c>
       <c r="C339" t="n">
-        <v>116.7884475546739</v>
+        <v>7.347543840653143</v>
       </c>
       <c r="D339" t="n">
-        <v>-122.9910932062427</v>
+        <v>6.934360299460297</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0.4131835411928453</v>
       </c>
     </row>
     <row r="340">
@@ -5192,13 +6211,16 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>-5.112618182937724</v>
+        <v>7.059980784396229</v>
       </c>
       <c r="C340" t="n">
-        <v>-9.050526860996243</v>
+        <v>7.053195055107855</v>
       </c>
       <c r="D340" t="n">
-        <v>-1.174709504879204</v>
+        <v>7.066766513684604</v>
+      </c>
+      <c r="E340" t="n">
+        <v>-0.0135714585767488</v>
       </c>
     </row>
     <row r="341">
@@ -5206,13 +6228,16 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>5.245826792914031</v>
+        <v>7.624445085415052</v>
       </c>
       <c r="C341" t="n">
-        <v>-214.0085467117136</v>
+        <v>7.246630121806501</v>
       </c>
       <c r="D341" t="n">
-        <v>224.5002002975417</v>
+        <v>8.002260049023603</v>
+      </c>
+      <c r="E341" t="n">
+        <v>-0.7556299272171021</v>
       </c>
     </row>
     <row r="342">
@@ -5220,13 +6245,16 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>-3.060209955976413</v>
+        <v>7.204583367675668</v>
       </c>
       <c r="C342" t="n">
-        <v>-431.7971507906789</v>
+        <v>6.465792030883082</v>
       </c>
       <c r="D342" t="n">
-        <v>425.6767308787261</v>
+        <v>7.943374704468254</v>
+      </c>
+      <c r="E342" t="n">
+        <v>-1.477582673585172</v>
       </c>
     </row>
     <row r="343">
@@ -5234,13 +6262,16 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>-13.10693313325867</v>
+        <v>6.69769865865118</v>
       </c>
       <c r="C343" t="n">
-        <v>-292.1482054331443</v>
+        <v>6.216860048893459</v>
       </c>
       <c r="D343" t="n">
-        <v>265.9343391666269</v>
+        <v>7.178537268408901</v>
+      </c>
+      <c r="E343" t="n">
+        <v>-0.9616772195154422</v>
       </c>
     </row>
     <row r="344">
@@ -5248,13 +6279,16 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>-3.138709825316313</v>
+        <v>7.24159957660762</v>
       </c>
       <c r="C344" t="n">
-        <v>-441.4119174862228</v>
+        <v>6.486375526312845</v>
       </c>
       <c r="D344" t="n">
-        <v>435.1344978355901</v>
+        <v>7.996823626902396</v>
+      </c>
+      <c r="E344" t="n">
+        <v>-1.510448100589551</v>
       </c>
     </row>
     <row r="345">
@@ -5262,13 +6296,16 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>3.970006024719175</v>
+        <v>7.627890864285096</v>
       </c>
       <c r="C345" t="n">
-        <v>-107.2990801141081</v>
+        <v>7.43615409270635</v>
       </c>
       <c r="D345" t="n">
-        <v>115.2390921635464</v>
+        <v>7.819627635863841</v>
+      </c>
+      <c r="E345" t="n">
+        <v>-0.3834735431574909</v>
       </c>
     </row>
     <row r="346">
@@ -5276,13 +6313,16 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>-3.039774912411461</v>
+        <v>7.27121011934186</v>
       </c>
       <c r="C346" t="n">
-        <v>-418.6038339351384</v>
+        <v>6.555118041783463</v>
       </c>
       <c r="D346" t="n">
-        <v>412.5242841103154</v>
+        <v>7.987302196900257</v>
+      </c>
+      <c r="E346" t="n">
+        <v>-1.432184155116794</v>
       </c>
     </row>
     <row r="347">
@@ -5290,13 +6330,16 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>-7.441766393804886</v>
+        <v>7.055120958518875</v>
       </c>
       <c r="C347" t="n">
-        <v>-107.9516824114649</v>
+        <v>6.881924184126097</v>
       </c>
       <c r="D347" t="n">
-        <v>93.06814962385515</v>
+        <v>7.228317732911652</v>
+      </c>
+      <c r="E347" t="n">
+        <v>-0.3463935487855547</v>
       </c>
     </row>
     <row r="348">
@@ -5304,13 +6347,16 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>0.7154279338348584</v>
+        <v>7.4975402083227</v>
       </c>
       <c r="C348" t="n">
-        <v>-54.13491698718301</v>
+        <v>7.403023137857907</v>
       </c>
       <c r="D348" t="n">
-        <v>55.56577285485273</v>
+        <v>7.592057278787493</v>
+      </c>
+      <c r="E348" t="n">
+        <v>-0.1890341409295857</v>
       </c>
     </row>
     <row r="349">
@@ -5318,13 +6364,16 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>-20.44455069661678</v>
+        <v>6.400384795707613</v>
       </c>
       <c r="C349" t="n">
-        <v>-82.84531182912956</v>
+        <v>6.292856991725501</v>
       </c>
       <c r="D349" t="n">
-        <v>41.956210435896</v>
+        <v>6.507912599689724</v>
+      </c>
+      <c r="E349" t="n">
+        <v>-0.2150556079642225</v>
       </c>
     </row>
     <row r="350">
@@ -5332,13 +6381,16 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>-34.82768766184594</v>
+        <v>5.668833512934964</v>
       </c>
       <c r="C350" t="n">
-        <v>-172.4630077106038</v>
+        <v>5.431662948880627</v>
       </c>
       <c r="D350" t="n">
-        <v>102.8076323869119</v>
+        <v>5.906004076989301</v>
+      </c>
+      <c r="E350" t="n">
+        <v>-0.4743411281086747</v>
       </c>
     </row>
     <row r="351">
@@ -5346,13 +6398,16 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>-33.99018483368823</v>
+        <v>5.737704338685576</v>
       </c>
       <c r="C351" t="n">
-        <v>-92.21695927652907</v>
+        <v>5.637369069128452</v>
       </c>
       <c r="D351" t="n">
-        <v>24.23658960915262</v>
+        <v>5.838039608242701</v>
+      </c>
+      <c r="E351" t="n">
+        <v>-0.2006705391142489</v>
       </c>
     </row>
     <row r="352">
@@ -5360,13 +6415,16 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>-25.28870333654469</v>
+        <v>6.212836689543602</v>
       </c>
       <c r="C352" t="n">
-        <v>-81.56493571611992</v>
+        <v>6.115862556947488</v>
       </c>
       <c r="D352" t="n">
-        <v>30.98752904303054</v>
+        <v>6.309810822139716</v>
+      </c>
+      <c r="E352" t="n">
+        <v>-0.193948265192228</v>
       </c>
     </row>
     <row r="353">
@@ -5374,13 +6432,16 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>-10.68795112578139</v>
+        <v>6.98875639096504</v>
       </c>
       <c r="C353" t="n">
-        <v>109.5696529128876</v>
+        <v>7.195982005520739</v>
       </c>
       <c r="D353" t="n">
-        <v>-130.9455551644504</v>
+        <v>6.781530776409341</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0.414451229111398</v>
       </c>
     </row>
     <row r="354">
@@ -5388,13 +6449,16 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>18.37649403909952</v>
+        <v>8.512699702407092</v>
       </c>
       <c r="C354" t="n">
-        <v>140.1989164512803</v>
+        <v>8.722621782202651</v>
       </c>
       <c r="D354" t="n">
-        <v>-103.4459283730813</v>
+        <v>8.302777622611533</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.4198441595911184</v>
       </c>
     </row>
     <row r="355">
@@ -5402,13 +6466,16 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>29.12251662274713</v>
+        <v>9.064442465985486</v>
       </c>
       <c r="C355" t="n">
-        <v>157.8304899935275</v>
+        <v>9.286229596148186</v>
       </c>
       <c r="D355" t="n">
-        <v>-99.58545674803327</v>
+        <v>8.842655335822787</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0.4435742603253985</v>
       </c>
     </row>
     <row r="356">
@@ -5416,13 +6483,16 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>20.4326818832037</v>
+        <v>8.598953371494209</v>
       </c>
       <c r="C356" t="n">
-        <v>76.35924059712212</v>
+        <v>8.695324953084597</v>
       </c>
       <c r="D356" t="n">
-        <v>-35.49387683071473</v>
+        <v>8.502581789903822</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0.1927431631807757</v>
       </c>
     </row>
     <row r="357">
@@ -5430,13 +6500,16 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>16.52023139093591</v>
+        <v>8.393081532308821</v>
       </c>
       <c r="C357" t="n">
-        <v>56.307257079026</v>
+        <v>8.461641777754146</v>
       </c>
       <c r="D357" t="n">
-        <v>-23.26679429715419</v>
+        <v>8.324521286863497</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0.1371204908906485</v>
       </c>
     </row>
     <row r="358">
@@ -5444,13 +6517,16 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>-2.040546944806229</v>
+        <v>7.42492937839085</v>
       </c>
       <c r="C358" t="n">
-        <v>79.64160464471529</v>
+        <v>7.565682507448099</v>
       </c>
       <c r="D358" t="n">
-        <v>-83.72269853432773</v>
+        <v>7.2841762493336</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.2815062581144989</v>
       </c>
     </row>
     <row r="359">
@@ -5458,13 +6534,16 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>0.5603311144166478</v>
+        <v>7.57428318123293</v>
       </c>
       <c r="C359" t="n">
-        <v>-190.6575867793309</v>
+        <v>7.24478010434765</v>
       </c>
       <c r="D359" t="n">
-        <v>191.7782490081642</v>
+        <v>7.903786258118211</v>
+      </c>
+      <c r="E359" t="n">
+        <v>-0.6590061537705605</v>
       </c>
     </row>
     <row r="360">
@@ -5472,13 +6551,16 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>-1.924730573055074</v>
+        <v>7.453644799039606</v>
       </c>
       <c r="C360" t="n">
-        <v>-374.3986089604392</v>
+        <v>6.811804900666516</v>
       </c>
       <c r="D360" t="n">
-        <v>370.5491478143291</v>
+        <v>8.095484697412695</v>
+      </c>
+      <c r="E360" t="n">
+        <v>-1.283679796746179</v>
       </c>
     </row>
     <row r="361">
@@ -5486,13 +6568,16 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>6.120985696979051</v>
+        <v>7.883723482997446</v>
       </c>
       <c r="C361" t="n">
-        <v>-203.0813857388214</v>
+        <v>7.523229938045781</v>
       </c>
       <c r="D361" t="n">
-        <v>215.3233571327796</v>
+        <v>8.244217027949112</v>
+      </c>
+      <c r="E361" t="n">
+        <v>-0.720987089903331</v>
       </c>
     </row>
     <row r="362">
@@ -5500,13 +6585,16 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>-6.61272078605521</v>
+        <v>7.220805099808385</v>
       </c>
       <c r="C362" t="n">
-        <v>-161.9016222786033</v>
+        <v>6.953214220190284</v>
       </c>
       <c r="D362" t="n">
-        <v>148.6761807064929</v>
+        <v>7.488395979426486</v>
+      </c>
+      <c r="E362" t="n">
+        <v>-0.5351817592362025</v>
       </c>
     </row>
     <row r="363">
@@ -5514,13 +6602,16 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>5.94656705353067</v>
+        <v>7.887758047846678</v>
       </c>
       <c r="C363" t="n">
-        <v>-156.9534760161055</v>
+        <v>7.607051793916983</v>
       </c>
       <c r="D363" t="n">
-        <v>168.8466101231668</v>
+        <v>8.168464301776371</v>
+      </c>
+      <c r="E363" t="n">
+        <v>-0.5614125078593881</v>
       </c>
     </row>
     <row r="364">
@@ -5528,13 +6619,16 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>31.13454423953042</v>
+        <v>9.206768035178904</v>
       </c>
       <c r="C364" t="n">
-        <v>-107.3485408053158</v>
+        <v>8.968136618617837</v>
       </c>
       <c r="D364" t="n">
-        <v>169.6176292843766</v>
+        <v>9.44539945173997</v>
+      </c>
+      <c r="E364" t="n">
+        <v>-0.4772628331221327</v>
       </c>
     </row>
     <row r="365">
@@ -5542,13 +6636,16 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>22.69536918729866</v>
+        <v>8.753586662585619</v>
       </c>
       <c r="C365" t="n">
-        <v>-44.16721131619232</v>
+        <v>8.638370336380079</v>
       </c>
       <c r="D365" t="n">
-        <v>89.55794969078963</v>
+        <v>8.868802988791158</v>
+      </c>
+      <c r="E365" t="n">
+        <v>-0.2304326524110785</v>
       </c>
     </row>
     <row r="366">
@@ -5556,13 +6653,16 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>24.88954475863978</v>
+        <v>8.865020688638138</v>
       </c>
       <c r="C366" t="n">
-        <v>-115.8255409093067</v>
+        <v>8.622543131082429</v>
       </c>
       <c r="D366" t="n">
-        <v>165.6046304265862</v>
+        <v>9.107498246193847</v>
+      </c>
+      <c r="E366" t="n">
+        <v>-0.4849551151114184</v>
       </c>
     </row>
   </sheetData>

--- a/simulacion_viento.xlsx
+++ b/simulacion_viento.xlsx
@@ -491,7 +491,7 @@
         <v>7.121387474164425</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2118984687569423</v>
+        <v>0.2118984687569423</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>7.226583389284458</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.06546073798616803</v>
+        <v>0.06546073798616803</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>8.003549922734317</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.05013356738812469</v>
+        <v>0.05013356738812469</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>9.25876765237415</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008097674660540122</v>
+        <v>-0.008097674660540122</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>8.887582702171576</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4012289750622919</v>
+        <v>0.4012289750622919</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>8.450184633499799</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3351022244029132</v>
+        <v>0.3351022244029132</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>9.534579258797395</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02767491610618222</v>
+        <v>0.02767491610618222</v>
       </c>
     </row>
     <row r="10">
@@ -610,7 +610,7 @@
         <v>9.334508622938756</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7423926861061254</v>
+        <v>-0.7423926861061254</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         <v>8.220218519849865</v>
       </c>
       <c r="E11" t="n">
-        <v>1.150614307330599</v>
+        <v>-1.150614307330599</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>7.938214271459177</v>
       </c>
       <c r="E12" t="n">
-        <v>2.135273198004704</v>
+        <v>-2.135273198004704</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>7.583485712702701</v>
       </c>
       <c r="E13" t="n">
-        <v>1.446984219157733</v>
+        <v>-1.446984219157733</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>6.955472362406628</v>
       </c>
       <c r="E14" t="n">
-        <v>1.715892264997208</v>
+        <v>-1.715892264997208</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>7.267025499297399</v>
       </c>
       <c r="E15" t="n">
-        <v>1.585283553223349</v>
+        <v>-1.585283553223349</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>5.154722138246205</v>
       </c>
       <c r="E16" t="n">
-        <v>2.531668473848942</v>
+        <v>-2.531668473848942</v>
       </c>
     </row>
     <row r="17">
@@ -729,7 +729,7 @@
         <v>4.543042542332942</v>
       </c>
       <c r="E17" t="n">
-        <v>1.769210616622944</v>
+        <v>-1.769210616622944</v>
       </c>
     </row>
     <row r="18">
@@ -746,7 +746,7 @@
         <v>5.159780672633615</v>
       </c>
       <c r="E18" t="n">
-        <v>1.091219109730241</v>
+        <v>-1.091219109730241</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>5.204040672063151</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6300201812696589</v>
+        <v>-0.6300201812696589</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>6.787351697641441</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.5751908108671575</v>
+        <v>0.5751908108671575</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>6.546098056640108</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.7766199413572163</v>
+        <v>0.7766199413572163</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>6.028836718659147</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.074604893160794</v>
+        <v>1.074604893160794</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>7.863852249364422</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.8527400396631499</v>
+        <v>0.8527400396631499</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>7.657167595985662</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.5592178969207442</v>
+        <v>0.5592178969207442</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>7.325200602513257</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5057762806509878</v>
+        <v>-0.5057762806509878</v>
       </c>
     </row>
     <row r="26">
@@ -882,7 +882,7 @@
         <v>5.991510657704546</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9406885185851781</v>
+        <v>-0.9406885185851781</v>
       </c>
     </row>
     <row r="27">
@@ -899,7 +899,7 @@
         <v>6.159020480927797</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5113193273952454</v>
+        <v>-0.5113193273952454</v>
       </c>
     </row>
     <row r="28">
@@ -916,7 +916,7 @@
         <v>6.9430490022101</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.03093899576710513</v>
+        <v>0.03093899576710513</v>
       </c>
     </row>
     <row r="29">
@@ -933,7 +933,7 @@
         <v>6.106688420265666</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2329615072569347</v>
+        <v>-0.2329615072569347</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>7.25434098511745</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.4951780805901187</v>
+        <v>0.4951780805901187</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>6.462624331631087</v>
       </c>
       <c r="E31" t="n">
-        <v>0.537713751770184</v>
+        <v>-0.537713751770184</v>
       </c>
     </row>
     <row r="32">
@@ -984,7 +984,7 @@
         <v>6.248428962649442</v>
       </c>
       <c r="E32" t="n">
-        <v>1.089344197882562</v>
+        <v>-1.089344197882562</v>
       </c>
     </row>
     <row r="33">
@@ -1001,7 +1001,7 @@
         <v>6.222413740249181</v>
       </c>
       <c r="E33" t="n">
-        <v>0.697165902781375</v>
+        <v>-0.697165902781375</v>
       </c>
     </row>
     <row r="34">
@@ -1018,7 +1018,7 @@
         <v>8.620484637902676</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.3000078605973791</v>
+        <v>0.3000078605973791</v>
       </c>
     </row>
     <row r="35">
@@ -1035,7 +1035,7 @@
         <v>8.002467679712915</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4547845963414332</v>
+        <v>-0.4547845963414332</v>
       </c>
     </row>
     <row r="36">
@@ -1052,7 +1052,7 @@
         <v>7.012068976786762</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3340113614344151</v>
+        <v>-0.3340113614344151</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         <v>7.543947304156061</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9434726352854339</v>
+        <v>-0.9434726352854339</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>6.892466161518708</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.02365535754680081</v>
+        <v>0.02365535754680081</v>
       </c>
     </row>
     <row r="39">
@@ -1103,7 +1103,7 @@
         <v>7.448172076581836</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.3370706591584884</v>
+        <v>0.3370706591584884</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>5.877369241030978</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.2896232559217182</v>
+        <v>0.2896232559217182</v>
       </c>
     </row>
     <row r="41">
@@ -1137,7 +1137,7 @@
         <v>5.285563110558184</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.2264222048915503</v>
+        <v>0.2264222048915503</v>
       </c>
     </row>
     <row r="42">
@@ -1154,7 +1154,7 @@
         <v>6.270864681312801</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.434105616698897</v>
+        <v>0.434105616698897</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>7.14358243228616</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.0476171234359537</v>
+        <v>0.0476171234359537</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>7.686637031351566</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.6051530072096725</v>
+        <v>0.6051530072096725</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>7.621619699010183</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.6001367715722505</v>
+        <v>0.6001367715722505</v>
       </c>
     </row>
     <row r="46">
@@ -1222,7 +1222,7 @@
         <v>7.34368906384802</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.4570575737341986</v>
+        <v>0.4570575737341986</v>
       </c>
     </row>
     <row r="47">
@@ -1239,7 +1239,7 @@
         <v>6.037373750784536</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.1247825127072595</v>
+        <v>0.1247825127072595</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>5.671982388933744</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2675856900702733</v>
+        <v>-0.2675856900702733</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>6.078471486302385</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.3618447997117507</v>
+        <v>0.3618447997117507</v>
       </c>
     </row>
     <row r="50">
@@ -1290,7 +1290,7 @@
         <v>7.790791472405498</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.124102000486872</v>
+        <v>1.124102000486872</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>7.705238529016647</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.300319076674965</v>
+        <v>0.300319076674965</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>6.049951405524171</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.08500582654050426</v>
+        <v>0.08500582654050426</v>
       </c>
     </row>
     <row r="53">
@@ -1341,7 +1341,7 @@
         <v>6.9019352928667</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4690402197031958</v>
+        <v>0.4690402197031958</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>6.320477598017656</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4123473396628015</v>
+        <v>-0.4123473396628015</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>5.965610454990582</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4187833397427401</v>
+        <v>-0.4187833397427401</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>6.509295187368929</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9861022777776736</v>
+        <v>-0.9861022777776736</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>7.480467478494002</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8910553025782972</v>
+        <v>-0.8910553025782972</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>7.550603790693139</v>
       </c>
       <c r="E58" t="n">
-        <v>1.861300318329271</v>
+        <v>-1.861300318329271</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>6.104682267824397</v>
       </c>
       <c r="E59" t="n">
-        <v>2.541645261461963</v>
+        <v>-2.541645261461963</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>6.000432784566688</v>
       </c>
       <c r="E60" t="n">
-        <v>2.073268789312057</v>
+        <v>-2.073268789312057</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>6.173215691988836</v>
       </c>
       <c r="E61" t="n">
-        <v>2.311581640957333</v>
+        <v>-2.311581640957333</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>6.892794053621945</v>
       </c>
       <c r="E62" t="n">
-        <v>2.346031702250666</v>
+        <v>-2.346031702250666</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>5.973069725246937</v>
       </c>
       <c r="E63" t="n">
-        <v>2.757891889640581</v>
+        <v>-2.757891889640581</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>6.147963810619562</v>
       </c>
       <c r="E64" t="n">
-        <v>1.882729387629078</v>
+        <v>-1.882729387629078</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>5.125532989809848</v>
       </c>
       <c r="E65" t="n">
-        <v>1.995505083928618</v>
+        <v>-1.995505083928618</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>4.216771286146627</v>
       </c>
       <c r="E66" t="n">
-        <v>2.28999572434919</v>
+        <v>-2.28999572434919</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>5.976625144785846</v>
       </c>
       <c r="E67" t="n">
-        <v>1.057610078872306</v>
+        <v>-1.057610078872306</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>7.607907645291086</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2925061116421546</v>
+        <v>-0.2925061116421546</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>7.832467065681849</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.8232543241214323</v>
+        <v>0.8232543241214323</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>8.50907449327692</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.8564167629737121</v>
+        <v>0.8564167629737121</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>8.177008915498892</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3639414896096875</v>
+        <v>0.3639414896096875</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>6.841252749280015</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4777451549443228</v>
+        <v>-0.4777451549443228</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>7.047637555840093</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4535530437608557</v>
+        <v>-0.4535530437608557</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>7.762012504919626</v>
       </c>
       <c r="E74" t="n">
-        <v>1.253563964058279</v>
+        <v>-1.253563964058279</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>7.659400260485661</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3585271145379245</v>
+        <v>-0.3585271145379245</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>9.081380821832104</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5886103559357956</v>
+        <v>0.5886103559357956</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>6.198761990313351</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5399279321271937</v>
+        <v>0.5399279321271937</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>6.938129450695591</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2655232889551709</v>
+        <v>0.2655232889551709</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>6.916572305085482</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.2475959548151305</v>
+        <v>0.2475959548151305</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>7.10319045480199</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.306665611377797</v>
+        <v>1.306665611377797</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>7.117876234920383</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.180537158228155</v>
+        <v>1.180537158228155</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>5.682791100105559</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.712995041405527</v>
+        <v>1.712995041405527</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>5.674339613629527</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.132263732469207</v>
+        <v>1.132263732469207</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>6.174184165581857</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.7885712326851415</v>
+        <v>0.7885712326851415</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>7.771651650705448</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.180430900747995</v>
+        <v>1.180430900747995</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>7.12519722030274</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.295358180096564</v>
+        <v>1.295358180096564</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>6.571877561801896</v>
       </c>
       <c r="E87" t="n">
-        <v>-1.683068570775754</v>
+        <v>1.683068570775754</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>6.200565219188166</v>
       </c>
       <c r="E88" t="n">
-        <v>-1.493084298689274</v>
+        <v>1.493084298689274</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>6.835303474378121</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.7907352037905113</v>
+        <v>0.7907352037905113</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>7.231316315203173</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.206521044442686</v>
+        <v>1.206521044442686</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>6.419024921506686</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.7803946847954784</v>
+        <v>0.7803946847954784</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>6.952800218203236</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.9570024411717331</v>
+        <v>0.9570024411717331</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>7.051213906401116</v>
       </c>
       <c r="E93" t="n">
-        <v>-1.248897419487562</v>
+        <v>1.248897419487562</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>7.684839722497722</v>
       </c>
       <c r="E94" t="n">
-        <v>-1.139885083863311</v>
+        <v>1.139885083863311</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>6.951935617518856</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.535543090834095</v>
+        <v>1.535543090834095</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>6.648146617657157</v>
       </c>
       <c r="E96" t="n">
-        <v>-1.624411440134031</v>
+        <v>1.624411440134031</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>6.548377611528253</v>
       </c>
       <c r="E97" t="n">
-        <v>-2.041739968406851</v>
+        <v>2.041739968406851</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>4.768287209245814</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.7334719378450032</v>
+        <v>0.7334719378450032</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>5.388368019127745</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.6176278328399842</v>
+        <v>0.6176278328399842</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>5.967652134588701</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.9053118804564093</v>
+        <v>0.9053118804564093</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>5.931180783955883</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.6723044268617056</v>
+        <v>0.6723044268617056</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>5.760906101830271</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.6425162016101957</v>
+        <v>0.6425162016101957</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>4.666234850376505</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.6740537208574509</v>
+        <v>0.6740537208574509</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>4.506163825924406</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.2603465160493208</v>
+        <v>0.2603465160493208</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>4.376948948400668</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1742280155925791</v>
+        <v>-0.1742280155925791</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>4.194359934395633</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.1290416344169447</v>
+        <v>0.1290416344169447</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>4.631726093995276</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.4160470465262112</v>
+        <v>0.4160470465262112</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>5.347329566796343</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.506165221382707</v>
+        <v>0.506165221382707</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>7.625926455369965</v>
       </c>
       <c r="E109" t="n">
-        <v>-1.654798592343139</v>
+        <v>1.654798592343139</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>7.663752817918425</v>
       </c>
       <c r="E110" t="n">
-        <v>-2.235683473691982</v>
+        <v>2.235683473691982</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>7.037367149850878</v>
       </c>
       <c r="E111" t="n">
-        <v>-1.217454440154041</v>
+        <v>1.217454440154041</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>6.151531321992636</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.1873187635170233</v>
+        <v>0.1873187635170233</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>4.386806377616411</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.29401462979156</v>
+        <v>0.29401462979156</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>4.519921066736465</v>
       </c>
       <c r="E114" t="n">
-        <v>0.04945616581180445</v>
+        <v>-0.04945616581180445</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>4.717791390021076</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2072828714448782</v>
+        <v>-0.2072828714448782</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>6.120347322921358</v>
       </c>
       <c r="E116" t="n">
-        <v>1.805871861537481</v>
+        <v>-1.805871861537481</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>5.248306580651567</v>
       </c>
       <c r="E117" t="n">
-        <v>2.157793659388961</v>
+        <v>-2.157793659388961</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>5.342466667173955</v>
       </c>
       <c r="E118" t="n">
-        <v>1.804224820010877</v>
+        <v>-1.804224820010877</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>5.364733986569496</v>
       </c>
       <c r="E119" t="n">
-        <v>1.06042442728654</v>
+        <v>-1.06042442728654</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>4.652812291372393</v>
       </c>
       <c r="E120" t="n">
-        <v>0.07144724211475939</v>
+        <v>-0.07144724211475939</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>5.689777750209067</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1694332709814486</v>
+        <v>-0.1694332709814486</v>
       </c>
     </row>
     <row r="122">
@@ -2514,7 +2514,7 @@
         <v>6.324399622407393</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.2524798635528835</v>
+        <v>0.2524798635528835</v>
       </c>
     </row>
     <row r="123">
@@ -2531,7 +2531,7 @@
         <v>7.003859433767468</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.9701557665696505</v>
+        <v>0.9701557665696505</v>
       </c>
     </row>
     <row r="124">
@@ -2548,7 +2548,7 @@
         <v>5.898345132152569</v>
       </c>
       <c r="E124" t="n">
-        <v>-1.183041213930084</v>
+        <v>1.183041213930084</v>
       </c>
     </row>
     <row r="125">
@@ -2565,7 +2565,7 @@
         <v>7.188516283888392</v>
       </c>
       <c r="E125" t="n">
-        <v>-1.59743460333841</v>
+        <v>1.59743460333841</v>
       </c>
     </row>
     <row r="126">
@@ -2582,7 +2582,7 @@
         <v>5.032523648749558</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.4946598238374698</v>
+        <v>0.4946598238374698</v>
       </c>
     </row>
     <row r="127">
@@ -2599,7 +2599,7 @@
         <v>5.30333934898738</v>
       </c>
       <c r="E127" t="n">
-        <v>0.03653090134089965</v>
+        <v>-0.03653090134089965</v>
       </c>
     </row>
     <row r="128">
@@ -2616,7 +2616,7 @@
         <v>7.021456780557162</v>
       </c>
       <c r="E128" t="n">
-        <v>0.02747817659958862</v>
+        <v>-0.02747817659958862</v>
       </c>
     </row>
     <row r="129">
@@ -2633,7 +2633,7 @@
         <v>5.154114536682522</v>
       </c>
       <c r="E129" t="n">
-        <v>0.8054459106430638</v>
+        <v>-0.8054459106430638</v>
       </c>
     </row>
     <row r="130">
@@ -2650,7 +2650,7 @@
         <v>4.498755510821064</v>
       </c>
       <c r="E130" t="n">
-        <v>0.7395466010939096</v>
+        <v>-0.7395466010939096</v>
       </c>
     </row>
     <row r="131">
@@ -2667,7 +2667,7 @@
         <v>4.843594799340205</v>
       </c>
       <c r="E131" t="n">
-        <v>0.1866471128148781</v>
+        <v>-0.1866471128148781</v>
       </c>
     </row>
     <row r="132">
@@ -2684,7 +2684,7 @@
         <v>3.987060899855996</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9663221568608598</v>
+        <v>-0.9663221568608598</v>
       </c>
     </row>
     <row r="133">
@@ -2701,7 +2701,7 @@
         <v>2.694399014967422</v>
       </c>
       <c r="E133" t="n">
-        <v>1.122855255232011</v>
+        <v>-1.122855255232011</v>
       </c>
     </row>
     <row r="134">
@@ -2718,7 +2718,7 @@
         <v>3.543095604955596</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4262173725415632</v>
+        <v>-0.4262173725415632</v>
       </c>
     </row>
     <row r="135">
@@ -2735,7 +2735,7 @@
         <v>3.014897121307639</v>
       </c>
       <c r="E135" t="n">
-        <v>0.2691986677396141</v>
+        <v>-0.2691986677396141</v>
       </c>
     </row>
     <row r="136">
@@ -2752,7 +2752,7 @@
         <v>4.120466681810819</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.2289274792674694</v>
+        <v>0.2289274792674694</v>
       </c>
     </row>
     <row r="137">
@@ -2769,7 +2769,7 @@
         <v>3.893449748599565</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.9288881857615836</v>
+        <v>0.9288881857615836</v>
       </c>
     </row>
     <row r="138">
@@ -2786,7 +2786,7 @@
         <v>5.248587573447828</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.3166194291047493</v>
+        <v>0.3166194291047493</v>
       </c>
     </row>
     <row r="139">
@@ -2803,7 +2803,7 @@
         <v>3.92126649099286</v>
       </c>
       <c r="E139" t="n">
-        <v>0.7337770825794467</v>
+        <v>-0.7337770825794467</v>
       </c>
     </row>
     <row r="140">
@@ -2820,7 +2820,7 @@
         <v>4.156962474828261</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.1021156809806865</v>
+        <v>0.1021156809806865</v>
       </c>
     </row>
     <row r="141">
@@ -2837,7 +2837,7 @@
         <v>4.820007904157945</v>
       </c>
       <c r="E141" t="n">
-        <v>0.2087431529682551</v>
+        <v>-0.2087431529682551</v>
       </c>
     </row>
     <row r="142">
@@ -2854,7 +2854,7 @@
         <v>3.855755505719207</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.1625522657389267</v>
+        <v>0.1625522657389267</v>
       </c>
     </row>
     <row r="143">
@@ -2871,7 +2871,7 @@
         <v>4.385193439654202</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.3982741338025879</v>
+        <v>0.3982741338025879</v>
       </c>
     </row>
     <row r="144">
@@ -2888,7 +2888,7 @@
         <v>5.703316949427927</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.6583475256461746</v>
+        <v>0.6583475256461746</v>
       </c>
     </row>
     <row r="145">
@@ -2905,7 +2905,7 @@
         <v>4.266722292672546</v>
       </c>
       <c r="E145" t="n">
-        <v>-1.027388452577938</v>
+        <v>1.027388452577938</v>
       </c>
     </row>
     <row r="146">
@@ -2922,7 +2922,7 @@
         <v>4.547817272912461</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.8655842670040865</v>
+        <v>0.8655842670040865</v>
       </c>
     </row>
     <row r="147">
@@ -2939,7 +2939,7 @@
         <v>5.020333108444674</v>
       </c>
       <c r="E147" t="n">
-        <v>-1.189706472943842</v>
+        <v>1.189706472943842</v>
       </c>
     </row>
     <row r="148">
@@ -2956,7 +2956,7 @@
         <v>5.519571001269213</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.8891756797627277</v>
+        <v>0.8891756797627277</v>
       </c>
     </row>
     <row r="149">
@@ -2973,7 +2973,7 @@
         <v>4.22804436594298</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.7978497612496782</v>
+        <v>0.7978497612496782</v>
       </c>
     </row>
     <row r="150">
@@ -2990,7 +2990,7 @@
         <v>3.289079573947181</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.8182931789153125</v>
+        <v>0.8182931789153125</v>
       </c>
     </row>
     <row r="151">
@@ -3007,7 +3007,7 @@
         <v>4.350309536762439</v>
       </c>
       <c r="E151" t="n">
-        <v>-1.189145996248455</v>
+        <v>1.189145996248455</v>
       </c>
     </row>
     <row r="152">
@@ -3024,7 +3024,7 @@
         <v>4.843006765788845</v>
       </c>
       <c r="E152" t="n">
-        <v>-1.336140113390606</v>
+        <v>1.336140113390606</v>
       </c>
     </row>
     <row r="153">
@@ -3041,7 +3041,7 @@
         <v>4.804179215893919</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.760089139795511</v>
+        <v>0.760089139795511</v>
       </c>
     </row>
     <row r="154">
@@ -3058,7 +3058,7 @@
         <v>4.871335457646478</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.3947891185502517</v>
+        <v>0.3947891185502517</v>
       </c>
     </row>
     <row r="155">
@@ -3075,7 +3075,7 @@
         <v>4.411336764976275</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.8587415150850566</v>
+        <v>0.8587415150850566</v>
       </c>
     </row>
     <row r="156">
@@ -3092,7 +3092,7 @@
         <v>4.604098908805144</v>
       </c>
       <c r="E156" t="n">
-        <v>-0.6924562507056682</v>
+        <v>0.6924562507056682</v>
       </c>
     </row>
     <row r="157">
@@ -3109,7 +3109,7 @@
         <v>4.599273098877139</v>
       </c>
       <c r="E157" t="n">
-        <v>-0.2038389560714116</v>
+        <v>0.2038389560714116</v>
       </c>
     </row>
     <row r="158">
@@ -3126,7 +3126,7 @@
         <v>4.343847688020986</v>
       </c>
       <c r="E158" t="n">
-        <v>-1.058491441874419</v>
+        <v>1.058491441874419</v>
       </c>
     </row>
     <row r="159">
@@ -3143,7 +3143,7 @@
         <v>5.813329125388147</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.6312231834520272</v>
+        <v>0.6312231834520272</v>
       </c>
     </row>
     <row r="160">
@@ -3160,7 +3160,7 @@
         <v>5.952897751182985</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.8975104727722876</v>
+        <v>0.8975104727722876</v>
       </c>
     </row>
     <row r="161">
@@ -3177,7 +3177,7 @@
         <v>4.344942874162809</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.4771943255260793</v>
+        <v>0.4771943255260793</v>
       </c>
     </row>
     <row r="162">
@@ -3194,7 +3194,7 @@
         <v>5.082574096305977</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.817046872799299</v>
+        <v>0.817046872799299</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>4.529367984278831</v>
       </c>
       <c r="E163" t="n">
-        <v>-1.66196992383636</v>
+        <v>1.66196992383636</v>
       </c>
     </row>
     <row r="164">
@@ -3228,7 +3228,7 @@
         <v>5.640581986543568</v>
       </c>
       <c r="E164" t="n">
-        <v>-2.301240924280557</v>
+        <v>2.301240924280557</v>
       </c>
     </row>
     <row r="165">
@@ -3245,7 +3245,7 @@
         <v>6.338372789327269</v>
       </c>
       <c r="E165" t="n">
-        <v>-1.970820837642778</v>
+        <v>1.970820837642778</v>
       </c>
     </row>
     <row r="166">
@@ -3262,7 +3262,7 @@
         <v>5.078737604783693</v>
       </c>
       <c r="E166" t="n">
-        <v>-1.57242410987336</v>
+        <v>1.57242410987336</v>
       </c>
     </row>
     <row r="167">
@@ -3279,7 +3279,7 @@
         <v>5.964715067257329</v>
       </c>
       <c r="E167" t="n">
-        <v>-1.841603548890365</v>
+        <v>1.841603548890365</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>5.735196360585706</v>
       </c>
       <c r="E168" t="n">
-        <v>-1.260239921764658</v>
+        <v>1.260239921764658</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>6.473938958923769</v>
       </c>
       <c r="E169" t="n">
-        <v>-1.97070417226009</v>
+        <v>1.97070417226009</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>7.529058223857564</v>
       </c>
       <c r="E170" t="n">
-        <v>-1.744390420757808</v>
+        <v>1.744390420757808</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>6.750816306228175</v>
       </c>
       <c r="E171" t="n">
-        <v>-2.152754778096597</v>
+        <v>2.152754778096597</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>5.662542565828451</v>
       </c>
       <c r="E172" t="n">
-        <v>-2.211668847672243</v>
+        <v>2.211668847672243</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>4.603868791240572</v>
       </c>
       <c r="E173" t="n">
-        <v>-1.893483801586122</v>
+        <v>1.893483801586122</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>4.134932723247289</v>
       </c>
       <c r="E174" t="n">
-        <v>-2.096920601560348</v>
+        <v>2.096920601560348</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>4.315858595285953</v>
       </c>
       <c r="E175" t="n">
-        <v>-2.022075226121808</v>
+        <v>2.022075226121808</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>4.418525589312515</v>
       </c>
       <c r="E176" t="n">
-        <v>-1.222595120809848</v>
+        <v>1.222595120809848</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>4.78621243938987</v>
       </c>
       <c r="E177" t="n">
-        <v>-1.365219286031772</v>
+        <v>1.365219286031772</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>5.143516646627941</v>
       </c>
       <c r="E178" t="n">
-        <v>-0.7429042403481585</v>
+        <v>0.7429042403481585</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>5.176252350140789</v>
       </c>
       <c r="E179" t="n">
-        <v>-1.241071243386692</v>
+        <v>1.241071243386692</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>6.010850674180727</v>
       </c>
       <c r="E180" t="n">
-        <v>-0.7967618095839946</v>
+        <v>0.7967618095839946</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>4.874511154015846</v>
       </c>
       <c r="E181" t="n">
-        <v>0.07018979672125525</v>
+        <v>-0.07018979672125525</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>7.544548042761498</v>
       </c>
       <c r="E182" t="n">
-        <v>-1.244475036849238</v>
+        <v>1.244475036849238</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>7.323981278705968</v>
       </c>
       <c r="E183" t="n">
-        <v>-1.500390494731853</v>
+        <v>1.500390494731853</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>5.582621659704566</v>
       </c>
       <c r="E184" t="n">
-        <v>-0.9967449810151585</v>
+        <v>0.9967449810151585</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>4.346698617945521</v>
       </c>
       <c r="E185" t="n">
-        <v>-0.9718638036260305</v>
+        <v>0.9718638036260305</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>4.63103367272139</v>
       </c>
       <c r="E186" t="n">
-        <v>-0.6470302248825988</v>
+        <v>0.6470302248825988</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>4.468220340071008</v>
       </c>
       <c r="E187" t="n">
-        <v>-0.8802532563663026</v>
+        <v>0.8802532563663026</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>4.978619992369852</v>
       </c>
       <c r="E188" t="n">
-        <v>-0.7178464212632605</v>
+        <v>0.7178464212632605</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>5.185140905240265</v>
       </c>
       <c r="E189" t="n">
-        <v>-0.7049159090614943</v>
+        <v>0.7049159090614943</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>4.521556308546418</v>
       </c>
       <c r="E190" t="n">
-        <v>0.005265519278722763</v>
+        <v>-0.005265519278722763</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>3.589616579473113</v>
       </c>
       <c r="E191" t="n">
-        <v>0.1389360709094243</v>
+        <v>-0.1389360709094243</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>2.343597172689355</v>
       </c>
       <c r="E192" t="n">
-        <v>0.2988200736427009</v>
+        <v>-0.2988200736427009</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>2.553163877465106</v>
       </c>
       <c r="E193" t="n">
-        <v>0.04168555334774116</v>
+        <v>-0.04168555334774116</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>3.836755381978047</v>
       </c>
       <c r="E194" t="n">
-        <v>-0.2213615664390334</v>
+        <v>0.2213615664390334</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>4.206000501263961</v>
       </c>
       <c r="E195" t="n">
-        <v>-0.4204695508078875</v>
+        <v>0.4204695508078875</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>3.039100466684348</v>
       </c>
       <c r="E196" t="n">
-        <v>-0.1564132970003298</v>
+        <v>0.1564132970003298</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>3.6078941835509</v>
       </c>
       <c r="E197" t="n">
-        <v>-0.3580175643153733</v>
+        <v>0.3580175643153733</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>4.015829401484915</v>
       </c>
       <c r="E198" t="n">
-        <v>-0.1575229037227786</v>
+        <v>0.1575229037227786</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>2.750198069837801</v>
       </c>
       <c r="E199" t="n">
-        <v>0.9594476903050984</v>
+        <v>-0.9594476903050984</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>2.961768604183987</v>
       </c>
       <c r="E200" t="n">
-        <v>1.292346087342487</v>
+        <v>-1.292346087342487</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>3.320861370530626</v>
       </c>
       <c r="E201" t="n">
-        <v>0.9488639162623151</v>
+        <v>-0.9488639162623151</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>2.192165200400721</v>
       </c>
       <c r="E202" t="n">
-        <v>1.45749675381823</v>
+        <v>-1.45749675381823</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>3.046723887923608</v>
       </c>
       <c r="E203" t="n">
-        <v>1.048789773784427</v>
+        <v>-1.048789773784427</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>4.283665513345221</v>
       </c>
       <c r="E204" t="n">
-        <v>-0.1666295228637367</v>
+        <v>0.1666295228637367</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>5.421577244110583</v>
       </c>
       <c r="E205" t="n">
-        <v>-0.6769485215879936</v>
+        <v>0.6769485215879936</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>6.468276240199284</v>
       </c>
       <c r="E206" t="n">
-        <v>-1.575250586905934</v>
+        <v>1.575250586905934</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>4.837707683607935</v>
       </c>
       <c r="E207" t="n">
-        <v>-1.552100840188023</v>
+        <v>1.552100840188023</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>3.968487718137356</v>
       </c>
       <c r="E208" t="n">
-        <v>-1.336645677203705</v>
+        <v>1.336645677203705</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>4.127314346758526</v>
       </c>
       <c r="E209" t="n">
-        <v>-0.2740912587091349</v>
+        <v>0.2740912587091349</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>4.509526220851713</v>
       </c>
       <c r="E210" t="n">
-        <v>-0.06509932271529983</v>
+        <v>0.06509932271529983</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>4.90950816585681</v>
       </c>
       <c r="E211" t="n">
-        <v>-0.1721851416099209</v>
+        <v>0.1721851416099209</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>7.72854421346858</v>
       </c>
       <c r="E212" t="n">
-        <v>0.2886755443311566</v>
+        <v>-0.2886755443311566</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>7.717889435849886</v>
       </c>
       <c r="E213" t="n">
-        <v>-0.9173651727710102</v>
+        <v>0.9173651727710102</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>7.643674175215222</v>
       </c>
       <c r="E214" t="n">
-        <v>-0.6713340712265765</v>
+        <v>0.6713340712265765</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>7.282316347418433</v>
       </c>
       <c r="E215" t="n">
-        <v>-0.17522943241433</v>
+        <v>0.17522943241433</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>7.332768795595162</v>
       </c>
       <c r="E216" t="n">
-        <v>-0.9328958905761962</v>
+        <v>0.9328958905761962</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>5.932445288425672</v>
       </c>
       <c r="E217" t="n">
-        <v>-0.2051862153659343</v>
+        <v>0.2051862153659343</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>6.010401595556276</v>
       </c>
       <c r="E218" t="n">
-        <v>0.00078250731527163</v>
+        <v>-0.00078250731527163</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>4.966410011098013</v>
       </c>
       <c r="E219" t="n">
-        <v>-0.2186491859798245</v>
+        <v>0.2186491859798245</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>4.432017156679582</v>
       </c>
       <c r="E220" t="n">
-        <v>0.144526399342471</v>
+        <v>-0.144526399342471</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>3.391902005171922</v>
       </c>
       <c r="E221" t="n">
-        <v>1.324601499374905</v>
+        <v>-1.324601499374905</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>3.598471460099544</v>
       </c>
       <c r="E222" t="n">
-        <v>1.245078179363659</v>
+        <v>-1.245078179363659</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>5.61304829796143</v>
       </c>
       <c r="E223" t="n">
-        <v>1.211139539354333</v>
+        <v>-1.211139539354333</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>3.709771922953554</v>
       </c>
       <c r="E224" t="n">
-        <v>0.8080010337785839</v>
+        <v>-0.8080010337785839</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>4.66294931634327</v>
       </c>
       <c r="E225" t="n">
-        <v>0.2520698237097534</v>
+        <v>-0.2520698237097534</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>3.009964861949143</v>
       </c>
       <c r="E226" t="n">
-        <v>0.6571876753629198</v>
+        <v>-0.6571876753629198</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>3.227584678104821</v>
       </c>
       <c r="E227" t="n">
-        <v>0.1179511923679328</v>
+        <v>-0.1179511923679328</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>4.497351946067726</v>
       </c>
       <c r="E228" t="n">
-        <v>0.1401136201209159</v>
+        <v>-0.1401136201209159</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>4.677045950091158</v>
       </c>
       <c r="E229" t="n">
-        <v>-0.1307256427715977</v>
+        <v>0.1307256427715977</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>3.62119188681142</v>
       </c>
       <c r="E230" t="n">
-        <v>0.1395676572903009</v>
+        <v>-0.1395676572903009</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>3.208606118080461</v>
       </c>
       <c r="E231" t="n">
-        <v>0.2972867996200526</v>
+        <v>-0.2972867996200526</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>3.89890553431807</v>
       </c>
       <c r="E232" t="n">
-        <v>0.8058429317084101</v>
+        <v>-0.8058429317084101</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>3.572633071806935</v>
       </c>
       <c r="E233" t="n">
-        <v>0.4296727298215499</v>
+        <v>-0.4296727298215499</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>4.114418872622053</v>
       </c>
       <c r="E234" t="n">
-        <v>0.230190164157678</v>
+        <v>-0.230190164157678</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>4.562139290393978</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.3172401876023176</v>
+        <v>0.3172401876023176</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>4.202864907388613</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.5098373570571861</v>
+        <v>0.5098373570571861</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>6.105166702472856</v>
       </c>
       <c r="E237" t="n">
-        <v>-0.2429939659889229</v>
+        <v>0.2429939659889229</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>6.056053539999334</v>
       </c>
       <c r="E238" t="n">
-        <v>0.1890063695406141</v>
+        <v>-0.1890063695406141</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>4.204720979270228</v>
       </c>
       <c r="E239" t="n">
-        <v>-0.3230735781517899</v>
+        <v>0.3230735781517899</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>4.341889563556775</v>
       </c>
       <c r="E240" t="n">
-        <v>0.1790182554680726</v>
+        <v>-0.1790182554680726</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>3.564033201550127</v>
       </c>
       <c r="E241" t="n">
-        <v>0.8712491987900033</v>
+        <v>-0.8712491987900033</v>
       </c>
     </row>
     <row r="242">
@@ -4554,7 +4554,7 @@
         <v>4.489796597523842</v>
       </c>
       <c r="E242" t="n">
-        <v>0.9741162419785532</v>
+        <v>-0.9741162419785532</v>
       </c>
     </row>
     <row r="243">
@@ -4571,7 +4571,7 @@
         <v>3.371073452839728</v>
       </c>
       <c r="E243" t="n">
-        <v>1.836200200258032</v>
+        <v>-1.836200200258032</v>
       </c>
     </row>
     <row r="244">
@@ -4588,7 +4588,7 @@
         <v>3.792882964458096</v>
       </c>
       <c r="E244" t="n">
-        <v>1.184150680874533</v>
+        <v>-1.184150680874533</v>
       </c>
     </row>
     <row r="245">
@@ -4605,7 +4605,7 @@
         <v>4.796216124257996</v>
       </c>
       <c r="E245" t="n">
-        <v>0.3698485558096252</v>
+        <v>-0.3698485558096252</v>
       </c>
     </row>
     <row r="246">
@@ -4622,7 +4622,7 @@
         <v>6.019967374528983</v>
       </c>
       <c r="E246" t="n">
-        <v>-0.6185780627411219</v>
+        <v>0.6185780627411219</v>
       </c>
     </row>
     <row r="247">
@@ -4639,7 +4639,7 @@
         <v>4.369508143408408</v>
       </c>
       <c r="E247" t="n">
-        <v>0.253526158749839</v>
+        <v>-0.253526158749839</v>
       </c>
     </row>
     <row r="248">
@@ -4656,7 +4656,7 @@
         <v>4.098383813033593</v>
       </c>
       <c r="E248" t="n">
-        <v>0.5655150217567844</v>
+        <v>-0.5655150217567844</v>
       </c>
     </row>
     <row r="249">
@@ -4673,7 +4673,7 @@
         <v>3.961052343376871</v>
       </c>
       <c r="E249" t="n">
-        <v>0.4612009720379002</v>
+        <v>-0.4612009720379002</v>
       </c>
     </row>
     <row r="250">
@@ -4690,7 +4690,7 @@
         <v>3.644317083893736</v>
       </c>
       <c r="E250" t="n">
-        <v>0.5479308879473357</v>
+        <v>-0.5479308879473357</v>
       </c>
     </row>
     <row r="251">
@@ -4707,7 +4707,7 @@
         <v>5.826269108245673</v>
       </c>
       <c r="E251" t="n">
-        <v>-0.1191060883616597</v>
+        <v>0.1191060883616597</v>
       </c>
     </row>
     <row r="252">
@@ -4724,7 +4724,7 @@
         <v>5.335032861805519</v>
       </c>
       <c r="E252" t="n">
-        <v>1.188367759619645</v>
+        <v>-1.188367759619645</v>
       </c>
     </row>
     <row r="253">
@@ -4741,7 +4741,7 @@
         <v>4.104349550878228</v>
       </c>
       <c r="E253" t="n">
-        <v>1.099098250006399</v>
+        <v>-1.099098250006399</v>
       </c>
     </row>
     <row r="254">
@@ -4758,7 +4758,7 @@
         <v>5.093268607130714</v>
       </c>
       <c r="E254" t="n">
-        <v>1.011190226564684</v>
+        <v>-1.011190226564684</v>
       </c>
     </row>
     <row r="255">
@@ -4775,7 +4775,7 @@
         <v>6.65150558740764</v>
       </c>
       <c r="E255" t="n">
-        <v>1.260461605506277</v>
+        <v>-1.260461605506277</v>
       </c>
     </row>
     <row r="256">
@@ -4792,7 +4792,7 @@
         <v>6.882116017581236</v>
       </c>
       <c r="E256" t="n">
-        <v>1.347427694213655</v>
+        <v>-1.347427694213655</v>
       </c>
     </row>
     <row r="257">
@@ -4809,7 +4809,7 @@
         <v>4.971610307801852</v>
       </c>
       <c r="E257" t="n">
-        <v>1.287069852513886</v>
+        <v>-1.287069852513886</v>
       </c>
     </row>
     <row r="258">
@@ -4826,7 +4826,7 @@
         <v>4.78443860583058</v>
       </c>
       <c r="E258" t="n">
-        <v>0.6989943688891138</v>
+        <v>-0.6989943688891138</v>
       </c>
     </row>
     <row r="259">
@@ -4843,7 +4843,7 @@
         <v>5.849044710097617</v>
       </c>
       <c r="E259" t="n">
-        <v>0.8553429188037693</v>
+        <v>-0.8553429188037693</v>
       </c>
     </row>
     <row r="260">
@@ -4860,7 +4860,7 @@
         <v>4.561652329428824</v>
       </c>
       <c r="E260" t="n">
-        <v>1.73593148662531</v>
+        <v>-1.73593148662531</v>
       </c>
     </row>
     <row r="261">
@@ -4877,7 +4877,7 @@
         <v>4.704434608780404</v>
       </c>
       <c r="E261" t="n">
-        <v>2.216400398488386</v>
+        <v>-2.216400398488386</v>
       </c>
     </row>
     <row r="262">
@@ -4894,7 +4894,7 @@
         <v>4.986722512117795</v>
       </c>
       <c r="E262" t="n">
-        <v>2.764038281391812</v>
+        <v>-2.764038281391812</v>
       </c>
     </row>
     <row r="263">
@@ -4911,7 +4911,7 @@
         <v>4.276025104003066</v>
       </c>
       <c r="E263" t="n">
-        <v>2.127679929444998</v>
+        <v>-2.127679929444998</v>
       </c>
     </row>
     <row r="264">
@@ -4928,7 +4928,7 @@
         <v>4.69560944751198</v>
       </c>
       <c r="E264" t="n">
-        <v>1.323015644376689</v>
+        <v>-1.323015644376689</v>
       </c>
     </row>
     <row r="265">
@@ -4945,7 +4945,7 @@
         <v>2.167368884994072</v>
       </c>
       <c r="E265" t="n">
-        <v>1.081220197162594</v>
+        <v>-1.081220197162594</v>
       </c>
     </row>
     <row r="266">
@@ -4962,7 +4962,7 @@
         <v>2.239147456320685</v>
       </c>
       <c r="E266" t="n">
-        <v>0.9673369436597579</v>
+        <v>-0.9673369436597579</v>
       </c>
     </row>
     <row r="267">
@@ -4979,7 +4979,7 @@
         <v>2.682853210195256</v>
       </c>
       <c r="E267" t="n">
-        <v>1.416998970269281</v>
+        <v>-1.416998970269281</v>
       </c>
     </row>
     <row r="268">
@@ -4996,7 +4996,7 @@
         <v>2.866811029131801</v>
       </c>
       <c r="E268" t="n">
-        <v>0.3353293047933095</v>
+        <v>-0.3353293047933095</v>
       </c>
     </row>
     <row r="269">
@@ -5013,7 +5013,7 @@
         <v>4.663360750495595</v>
       </c>
       <c r="E269" t="n">
-        <v>1.098690751539063</v>
+        <v>-1.098690751539063</v>
       </c>
     </row>
     <row r="270">
@@ -5030,7 +5030,7 @@
         <v>3.743379570662131</v>
       </c>
       <c r="E270" t="n">
-        <v>0.8696120899051754</v>
+        <v>-0.8696120899051754</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>4.030250354461009</v>
       </c>
       <c r="E271" t="n">
-        <v>0.5288960722740139</v>
+        <v>-0.5288960722740139</v>
       </c>
     </row>
     <row r="272">
@@ -5064,7 +5064,7 @@
         <v>4.903691797611915</v>
       </c>
       <c r="E272" t="n">
-        <v>-0.07573549428207471</v>
+        <v>0.07573549428207471</v>
       </c>
     </row>
     <row r="273">
@@ -5081,7 +5081,7 @@
         <v>6.846467905785794</v>
       </c>
       <c r="E273" t="n">
-        <v>-0.9396842047830454</v>
+        <v>0.9396842047830454</v>
       </c>
     </row>
     <row r="274">
@@ -5098,7 +5098,7 @@
         <v>5.220303051251744</v>
       </c>
       <c r="E274" t="n">
-        <v>-0.3803860136946202</v>
+        <v>0.3803860136946202</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>6.424464229946886</v>
       </c>
       <c r="E275" t="n">
-        <v>-0.2912448638105616</v>
+        <v>0.2912448638105616</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>6.663233591350661</v>
       </c>
       <c r="E276" t="n">
-        <v>-0.9339141172384604</v>
+        <v>0.9339141172384604</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>6.063128553513424</v>
       </c>
       <c r="E277" t="n">
-        <v>-1.494101807835399</v>
+        <v>1.494101807835399</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>6.658256181647614</v>
       </c>
       <c r="E278" t="n">
-        <v>-1.473401247427274</v>
+        <v>1.473401247427274</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>6.33364169010788</v>
       </c>
       <c r="E279" t="n">
-        <v>-0.3966366938202324</v>
+        <v>0.3966366938202324</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>5.864951192682233</v>
       </c>
       <c r="E280" t="n">
-        <v>-0.4811625253731098</v>
+        <v>0.4811625253731098</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>6.444729021537981</v>
       </c>
       <c r="E281" t="n">
-        <v>-1.211247430886555</v>
+        <v>1.211247430886555</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>6.207997197098948</v>
       </c>
       <c r="E282" t="n">
-        <v>-1.180484521527308</v>
+        <v>1.180484521527308</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>6.475713167332053</v>
       </c>
       <c r="E283" t="n">
-        <v>-1.168048514878063</v>
+        <v>1.168048514878063</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>7.773265095539084</v>
       </c>
       <c r="E284" t="n">
-        <v>-2.437545604629161</v>
+        <v>2.437545604629161</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>8.876424164500481</v>
       </c>
       <c r="E285" t="n">
-        <v>-2.143128948488267</v>
+        <v>2.143128948488267</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>7.310997334673755</v>
       </c>
       <c r="E286" t="n">
-        <v>-1.981026157638091</v>
+        <v>1.981026157638091</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>8.795845836797371</v>
       </c>
       <c r="E287" t="n">
-        <v>-1.350754445044316</v>
+        <v>1.350754445044316</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>6.059868106696133</v>
       </c>
       <c r="E288" t="n">
-        <v>-0.1952167762959292</v>
+        <v>0.1952167762959292</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>5.758555017587923</v>
       </c>
       <c r="E289" t="n">
-        <v>0.4256369328719511</v>
+        <v>-0.4256369328719511</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>6.495578348808634</v>
       </c>
       <c r="E290" t="n">
-        <v>0.227210173907503</v>
+        <v>-0.227210173907503</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>7.001799664603391</v>
       </c>
       <c r="E291" t="n">
-        <v>-0.3873008385593941</v>
+        <v>0.3873008385593941</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>5.687282304041414</v>
       </c>
       <c r="E292" t="n">
-        <v>1.023115796963113</v>
+        <v>-1.023115796963113</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>5.670442364451841</v>
       </c>
       <c r="E293" t="n">
-        <v>0.9187792124950924</v>
+        <v>-0.9187792124950924</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>5.449994284894798</v>
       </c>
       <c r="E294" t="n">
-        <v>0.8043534587148446</v>
+        <v>-0.8043534587148446</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>5.244008899620956</v>
       </c>
       <c r="E295" t="n">
-        <v>0.6849967639857724</v>
+        <v>-0.6849967639857724</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>6.26880829859576</v>
       </c>
       <c r="E296" t="n">
-        <v>0.6988172936558872</v>
+        <v>-0.6988172936558872</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>6.672408560404324</v>
       </c>
       <c r="E297" t="n">
-        <v>0.5299487489940926</v>
+        <v>-0.5299487489940926</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>6.210848746532528</v>
       </c>
       <c r="E298" t="n">
-        <v>0.1567342976075441</v>
+        <v>-0.1567342976075441</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>7.258025586416071</v>
       </c>
       <c r="E299" t="n">
-        <v>-0.1528557150802854</v>
+        <v>0.1528557150802854</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>7.39416298145342</v>
       </c>
       <c r="E300" t="n">
-        <v>-0.1498931439141611</v>
+        <v>0.1498931439141611</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>8.058080389385397</v>
       </c>
       <c r="E301" t="n">
-        <v>-0.4170266147555308</v>
+        <v>0.4170266147555308</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>8.445891187916249</v>
       </c>
       <c r="E302" t="n">
-        <v>-0.7382292144663971</v>
+        <v>0.7382292144663971</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>7.3127740289016</v>
       </c>
       <c r="E303" t="n">
-        <v>-0.5841689485922128</v>
+        <v>0.5841689485922128</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>6.836206747941919</v>
       </c>
       <c r="E304" t="n">
-        <v>-0.641400880694853</v>
+        <v>0.641400880694853</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>7.149380423098592</v>
       </c>
       <c r="E305" t="n">
-        <v>0.2379264309130527</v>
+        <v>-0.2379264309130527</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>8.28687569656342</v>
       </c>
       <c r="E306" t="n">
-        <v>-1.193679473533838</v>
+        <v>1.193679473533838</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>7.694035465444848</v>
       </c>
       <c r="E307" t="n">
-        <v>-0.458997026933913</v>
+        <v>0.458997026933913</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>7.301481440500508</v>
       </c>
       <c r="E308" t="n">
-        <v>0.259942962374339</v>
+        <v>-0.259942962374339</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>8.826025751939241</v>
       </c>
       <c r="E309" t="n">
-        <v>-0.8695413501028781</v>
+        <v>0.8695413501028781</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>7.97086304801469</v>
       </c>
       <c r="E310" t="n">
-        <v>-0.9352706535545323</v>
+        <v>0.9352706535545323</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>8.349244942021102</v>
       </c>
       <c r="E311" t="n">
-        <v>-1.007473274620525</v>
+        <v>1.007473274620525</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>8.273451351946044</v>
       </c>
       <c r="E312" t="n">
-        <v>-1.617290582192005</v>
+        <v>1.617290582192005</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>8.100276480027322</v>
       </c>
       <c r="E313" t="n">
-        <v>-1.813714051152299</v>
+        <v>1.813714051152299</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>9.196723908980559</v>
       </c>
       <c r="E314" t="n">
-        <v>-2.159843663537732</v>
+        <v>2.159843663537732</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>9.016662222929858</v>
       </c>
       <c r="E315" t="n">
-        <v>-0.948125932614623</v>
+        <v>0.948125932614623</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>9.003236819649294</v>
       </c>
       <c r="E316" t="n">
-        <v>-0.3282895255329557</v>
+        <v>0.3282895255329557</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>9.274509730594529</v>
       </c>
       <c r="E317" t="n">
-        <v>0.3867769933208365</v>
+        <v>-0.3867769933208365</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>8.479696523450347</v>
       </c>
       <c r="E318" t="n">
-        <v>0.7166505839919601</v>
+        <v>-0.7166505839919601</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>8.946591214300604</v>
       </c>
       <c r="E319" t="n">
-        <v>0.02536856039348478</v>
+        <v>-0.02536856039348478</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>8.346350576144161</v>
       </c>
       <c r="E320" t="n">
-        <v>-0.2550113635110023</v>
+        <v>0.2550113635110023</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>8.22149985958697</v>
       </c>
       <c r="E321" t="n">
-        <v>0.03724557435229414</v>
+        <v>-0.03724557435229414</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>8.18757105491375</v>
       </c>
       <c r="E322" t="n">
-        <v>-0.6131394000176362</v>
+        <v>0.6131394000176362</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>7.904953819186393</v>
       </c>
       <c r="E323" t="n">
-        <v>-0.1553097933831893</v>
+        <v>0.1553097933831893</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>8.345872130611246</v>
       </c>
       <c r="E324" t="n">
-        <v>-0.2616479905653648</v>
+        <v>0.2616479905653648</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>7.519622513053625</v>
       </c>
       <c r="E325" t="n">
-        <v>-0.424922976001028</v>
+        <v>0.424922976001028</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>9.118024156577359</v>
       </c>
       <c r="E326" t="n">
-        <v>0.00688234779844521</v>
+        <v>-0.00688234779844521</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>7.678034435090395</v>
       </c>
       <c r="E327" t="n">
-        <v>0.2406009943069609</v>
+        <v>-0.2406009943069609</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>6.693895973201353</v>
       </c>
       <c r="E328" t="n">
-        <v>0.01807105552388855</v>
+        <v>-0.01807105552388855</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>7.619492790468297</v>
       </c>
       <c r="E329" t="n">
-        <v>0.6279581160784327</v>
+        <v>-0.6279581160784327</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>8.507618003063909</v>
       </c>
       <c r="E330" t="n">
-        <v>-0.02622353905114139</v>
+        <v>0.02622353905114139</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>8.601934444180706</v>
       </c>
       <c r="E331" t="n">
-        <v>0.3025493274989017</v>
+        <v>-0.3025493274989017</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>8.656267031756503</v>
       </c>
       <c r="E332" t="n">
-        <v>0.5756844132370738</v>
+        <v>-0.5756844132370738</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>8.378029931067296</v>
       </c>
       <c r="E333" t="n">
-        <v>0.3358963995827082</v>
+        <v>-0.3358963995827082</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>7.297898710242766</v>
       </c>
       <c r="E334" t="n">
-        <v>0.4636162002363662</v>
+        <v>-0.4636162002363662</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>7.769374844415283</v>
       </c>
       <c r="E335" t="n">
-        <v>-0.2585917152082189</v>
+        <v>0.2585917152082189</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>6.9588774738582</v>
       </c>
       <c r="E336" t="n">
-        <v>0.2636948528851626</v>
+        <v>-0.2636948528851626</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>8.0327210377098</v>
       </c>
       <c r="E337" t="n">
-        <v>0.1310894006077028</v>
+        <v>-0.1310894006077028</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>7.948536904181504</v>
       </c>
       <c r="E338" t="n">
-        <v>-0.1623544155138017</v>
+        <v>0.1623544155138017</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>6.934360299460297</v>
       </c>
       <c r="E339" t="n">
-        <v>0.4131835411928453</v>
+        <v>-0.4131835411928453</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>7.066766513684604</v>
       </c>
       <c r="E340" t="n">
-        <v>-0.0135714585767488</v>
+        <v>0.0135714585767488</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>8.002260049023603</v>
       </c>
       <c r="E341" t="n">
-        <v>-0.7556299272171021</v>
+        <v>0.7556299272171021</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>7.943374704468254</v>
       </c>
       <c r="E342" t="n">
-        <v>-1.477582673585172</v>
+        <v>1.477582673585172</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>7.178537268408901</v>
       </c>
       <c r="E343" t="n">
-        <v>-0.9616772195154422</v>
+        <v>0.9616772195154422</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>7.996823626902396</v>
       </c>
       <c r="E344" t="n">
-        <v>-1.510448100589551</v>
+        <v>1.510448100589551</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>7.819627635863841</v>
       </c>
       <c r="E345" t="n">
-        <v>-0.3834735431574909</v>
+        <v>0.3834735431574909</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>7.987302196900257</v>
       </c>
       <c r="E346" t="n">
-        <v>-1.432184155116794</v>
+        <v>1.432184155116794</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>7.228317732911652</v>
       </c>
       <c r="E347" t="n">
-        <v>-0.3463935487855547</v>
+        <v>0.3463935487855547</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>7.592057278787493</v>
       </c>
       <c r="E348" t="n">
-        <v>-0.1890341409295857</v>
+        <v>0.1890341409295857</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>6.507912599689724</v>
       </c>
       <c r="E349" t="n">
-        <v>-0.2150556079642225</v>
+        <v>0.2150556079642225</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>5.906004076989301</v>
       </c>
       <c r="E350" t="n">
-        <v>-0.4743411281086747</v>
+        <v>0.4743411281086747</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>5.838039608242701</v>
       </c>
       <c r="E351" t="n">
-        <v>-0.2006705391142489</v>
+        <v>0.2006705391142489</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>6.309810822139716</v>
       </c>
       <c r="E352" t="n">
-        <v>-0.193948265192228</v>
+        <v>0.193948265192228</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>6.781530776409341</v>
       </c>
       <c r="E353" t="n">
-        <v>0.414451229111398</v>
+        <v>-0.414451229111398</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>8.302777622611533</v>
       </c>
       <c r="E354" t="n">
-        <v>0.4198441595911184</v>
+        <v>-0.4198441595911184</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>8.842655335822787</v>
       </c>
       <c r="E355" t="n">
-        <v>0.4435742603253985</v>
+        <v>-0.4435742603253985</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>8.502581789903822</v>
       </c>
       <c r="E356" t="n">
-        <v>0.1927431631807757</v>
+        <v>-0.1927431631807757</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>8.324521286863497</v>
       </c>
       <c r="E357" t="n">
-        <v>0.1371204908906485</v>
+        <v>-0.1371204908906485</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>7.2841762493336</v>
       </c>
       <c r="E358" t="n">
-        <v>0.2815062581144989</v>
+        <v>-0.2815062581144989</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>7.903786258118211</v>
       </c>
       <c r="E359" t="n">
-        <v>-0.6590061537705605</v>
+        <v>0.6590061537705605</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>8.095484697412695</v>
       </c>
       <c r="E360" t="n">
-        <v>-1.283679796746179</v>
+        <v>1.283679796746179</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>8.244217027949112</v>
       </c>
       <c r="E361" t="n">
-        <v>-0.720987089903331</v>
+        <v>0.720987089903331</v>
       </c>
     </row>
     <row r="362">
@@ -6594,7 +6594,7 @@
         <v>7.488395979426486</v>
       </c>
       <c r="E362" t="n">
-        <v>-0.5351817592362025</v>
+        <v>0.5351817592362025</v>
       </c>
     </row>
     <row r="363">
@@ -6611,7 +6611,7 @@
         <v>8.168464301776371</v>
       </c>
       <c r="E363" t="n">
-        <v>-0.5614125078593881</v>
+        <v>0.5614125078593881</v>
       </c>
     </row>
     <row r="364">
@@ -6628,7 +6628,7 @@
         <v>9.44539945173997</v>
       </c>
       <c r="E364" t="n">
-        <v>-0.4772628331221327</v>
+        <v>0.4772628331221327</v>
       </c>
     </row>
     <row r="365">
@@ -6645,7 +6645,7 @@
         <v>8.868802988791158</v>
       </c>
       <c r="E365" t="n">
-        <v>-0.2304326524110785</v>
+        <v>0.2304326524110785</v>
       </c>
     </row>
     <row r="366">
@@ -6662,7 +6662,7 @@
         <v>9.107498246193847</v>
       </c>
       <c r="E366" t="n">
-        <v>-0.4849551151114184</v>
+        <v>0.4849551151114184</v>
       </c>
     </row>
   </sheetData>
